--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D79DF4C-6017-4DCC-8337-5EE09827A2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A726C7D-DB3E-4865-B5D1-36D45560EB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16150" yWindow="4370" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>技能的序号</t>
   </si>
@@ -106,6 +116,35 @@
   <si>
     <t>SkillAnimTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEffect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectStartTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Particles/prefab/toushiche_bao.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Particles/prefab/dafupangzi_sanbanfu.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Particles/prefab/caopi_pugong1.prefab</t>
   </si>
 </sst>
 </file>
@@ -201,7 +240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,6 +261,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -530,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -541,7 +581,8 @@
     <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
     <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="63.08984375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:14" x14ac:dyDescent="0.35">
@@ -568,8 +609,12 @@
       <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
@@ -592,8 +637,12 @@
       <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
@@ -611,13 +660,17 @@
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
@@ -635,13 +688,17 @@
         <v>9</v>
       </c>
       <c r="G6" s="6">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+        <v>1500</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1000</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
@@ -659,10 +716,16 @@
         <v>19</v>
       </c>
       <c r="G7" s="6">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H7" s="6">
-        <v>1</v>
+        <v>1500</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="3:14" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
@@ -679,13 +742,17 @@
         <v>20</v>
       </c>
       <c r="G8" s="6">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8"/>
+        <v>2200</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1000</v>
+      </c>
       <c r="K8"/>
       <c r="L8"/>
     </row>
@@ -703,13 +770,17 @@
         <v>21</v>
       </c>
       <c r="G9" s="6">
-        <v>0.1</v>
+        <v>2800</v>
       </c>
       <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
+        <v>2800</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2400</v>
+      </c>
       <c r="K9"/>
       <c r="L9"/>
     </row>
@@ -727,13 +798,15 @@
         <v>9</v>
       </c>
       <c r="G10" s="7">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10"/>
+        <v>1500</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7">
+        <v>1000</v>
+      </c>
       <c r="K10"/>
       <c r="L10"/>
     </row>
@@ -751,13 +824,15 @@
         <v>19</v>
       </c>
       <c r="G11" s="7">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11"/>
+        <v>1500</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7">
+        <v>1000</v>
+      </c>
       <c r="K11"/>
       <c r="L11"/>
       <c r="N11"/>
@@ -776,17 +851,19 @@
         <v>20</v>
       </c>
       <c r="G12" s="7">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12"/>
-      <c r="J12"/>
+        <v>2200</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7">
+        <v>1000</v>
+      </c>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="3:14" ht="14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C13" s="7">
         <v>1000008</v>
       </c>
@@ -800,10 +877,14 @@
         <v>21</v>
       </c>
       <c r="G13" s="7">
-        <v>0.1</v>
+        <v>2800</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>2800</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="7">
+        <v>2400</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="14" x14ac:dyDescent="0.35">
@@ -820,13 +901,17 @@
         <v>9</v>
       </c>
       <c r="G14" s="6">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" ht="14" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C15" s="6">
         <v>1000010</v>
       </c>
@@ -840,13 +925,17 @@
         <v>19</v>
       </c>
       <c r="G15" s="6">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14" ht="14" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" ht="15" x14ac:dyDescent="0.35">
       <c r="C16" s="6">
         <v>1000011</v>
       </c>
@@ -860,13 +949,17 @@
         <v>20</v>
       </c>
       <c r="G16" s="6">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="14" x14ac:dyDescent="0.35">
+        <v>2200</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="15" x14ac:dyDescent="0.35">
       <c r="C17" s="6">
         <v>1000012</v>
       </c>
@@ -880,13 +973,17 @@
         <v>21</v>
       </c>
       <c r="G17" s="6">
-        <v>0.1</v>
+        <v>2800</v>
       </c>
       <c r="H17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="14" x14ac:dyDescent="0.35">
+        <v>2800</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17" s="5">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="14" x14ac:dyDescent="0.35">
       <c r="C18" s="7">
         <v>1000013</v>
       </c>
@@ -900,13 +997,17 @@
         <v>9</v>
       </c>
       <c r="G18" s="7">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="14" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="15" x14ac:dyDescent="0.35">
       <c r="C19" s="7">
         <v>1000014</v>
       </c>
@@ -920,13 +1021,17 @@
         <v>19</v>
       </c>
       <c r="G19" s="7">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="14" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="15" x14ac:dyDescent="0.35">
       <c r="C20" s="7">
         <v>1000015</v>
       </c>
@@ -940,13 +1045,17 @@
         <v>20</v>
       </c>
       <c r="G20" s="7">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="14" x14ac:dyDescent="0.35">
+        <v>2200</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="15" x14ac:dyDescent="0.35">
       <c r="C21" s="7">
         <v>1000016</v>
       </c>
@@ -960,13 +1069,17 @@
         <v>21</v>
       </c>
       <c r="G21" s="7">
-        <v>0.1</v>
+        <v>2800</v>
       </c>
       <c r="H21" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="14" x14ac:dyDescent="0.35">
+        <v>2800</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="14" x14ac:dyDescent="0.35">
       <c r="C22" s="6">
         <v>1000017</v>
       </c>
@@ -980,13 +1093,17 @@
         <v>9</v>
       </c>
       <c r="G22" s="6">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="14" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="15" x14ac:dyDescent="0.35">
       <c r="C23" s="6">
         <v>1000018</v>
       </c>
@@ -1000,13 +1117,17 @@
         <v>19</v>
       </c>
       <c r="G23" s="6">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="14" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="15" x14ac:dyDescent="0.35">
       <c r="C24" s="6">
         <v>1000019</v>
       </c>
@@ -1020,13 +1141,17 @@
         <v>20</v>
       </c>
       <c r="G24" s="6">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="14" x14ac:dyDescent="0.35">
+        <v>2200</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="15" x14ac:dyDescent="0.35">
       <c r="C25" s="6">
         <v>1000020</v>
       </c>
@@ -1040,13 +1165,17 @@
         <v>21</v>
       </c>
       <c r="G25" s="6">
-        <v>0.1</v>
+        <v>2800</v>
       </c>
       <c r="H25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="14" x14ac:dyDescent="0.35">
+        <v>2800</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25" s="5">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="14" x14ac:dyDescent="0.35">
       <c r="C26" s="7">
         <v>1000021</v>
       </c>
@@ -1060,13 +1189,17 @@
         <v>9</v>
       </c>
       <c r="G26" s="7">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="14" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="15" x14ac:dyDescent="0.35">
       <c r="C27" s="7">
         <v>1000022</v>
       </c>
@@ -1080,13 +1213,17 @@
         <v>19</v>
       </c>
       <c r="G27" s="7">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="14" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="15" x14ac:dyDescent="0.35">
       <c r="C28" s="7">
         <v>1000023</v>
       </c>
@@ -1100,13 +1237,17 @@
         <v>20</v>
       </c>
       <c r="G28" s="7">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="14" x14ac:dyDescent="0.35">
+        <v>2200</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="15" x14ac:dyDescent="0.35">
       <c r="C29" s="7">
         <v>1000024</v>
       </c>
@@ -1120,24 +1261,28 @@
         <v>21</v>
       </c>
       <c r="G29" s="7">
-        <v>0.1</v>
+        <v>2800</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.35">
+        <v>2800</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="7">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A726C7D-DB3E-4865-B5D1-36D45560EB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC65C8C-39D4-46B2-B57A-9F21EC4B59AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
   <si>
     <t>技能的序号</t>
   </si>
@@ -62,18 +62,10 @@
     <t>Attack</t>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>伤害时刻</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DamageTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -114,10 +106,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SkillAnimTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillEffect</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -138,13 +126,122 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Particles/prefab/toushiche_bao.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Particles/prefab/dafupangzi_sanbanfu.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Particles/prefab/caopi_pugong1.prefab</t>
+    <t>Assets/Bundles/Effect/SKillEffect/caopi_pugong1.prefab</t>
+  </si>
+  <si>
+    <t>BeAttackTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeAttackEffect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/zhangfei_leitingyiji.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/toushiche_bao.prefab</t>
+  </si>
+  <si>
+    <t>SkillTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行特效开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlyEffectStartTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlyEffect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#移动类型 MoveType 1移动2不移动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标点类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetPosType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击骨骼名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeAttackBoneName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/caoren_yishoudaigong.prefab</t>
+  </si>
+  <si>
+    <t>#目标点类型1面前2中间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/sunshangxiang_pugong_shejian.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/sunshangxiang_pugong.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/sunshangxiang_jifengjian_fashe.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/boss03_bingdong_pugong.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/sunshangxiang_7_16jingxiu2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/sunshangxiang7_16luanhuajianyu.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/chengpu_duomingduci.prefab</t>
+  </si>
+  <si>
+    <t>Bip001</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/sunshangxiang_jifengjian.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/zhouyu_huoqiuchongji_shouji.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/zhouyu_huoqiuchongji_shouji.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/boss03_dahuodan.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/zhouyu_dazhao.prefab</t>
   </si>
 </sst>
 </file>
@@ -240,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -262,6 +359,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -568,29 +668,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:N33"/>
+  <dimension ref="A3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
     <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="63.08984375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="51.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="66.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="44.81640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.36328125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="24.36328125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="3:14" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -604,26 +709,45 @@
         <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="3:14" ht="13.5" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
@@ -632,21 +756,37 @@
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="3:14" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="K4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -660,21 +800,37 @@
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="3:14" ht="14" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14" x14ac:dyDescent="0.35">
       <c r="C6" s="6">
         <v>1000001</v>
       </c>
@@ -682,27 +838,35 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="6">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H6" s="6">
-        <v>1500</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="3:14" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C7" s="6">
         <v>1000002</v>
       </c>
@@ -710,25 +874,35 @@
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="6">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H7" s="6">
-        <v>1500</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C8" s="6">
         <v>1000003</v>
       </c>
@@ -736,27 +910,37 @@
         <v>3</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="6">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="H8" s="6">
-        <v>2200</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K8"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" ht="14" x14ac:dyDescent="0.35">
       <c r="C9" s="6">
         <v>1000004</v>
       </c>
@@ -764,27 +948,37 @@
         <v>4</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="6">
         <v>2800</v>
       </c>
       <c r="H9" s="6">
-        <v>2800</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="5">
+        <v>2200</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
         <v>2400</v>
       </c>
-      <c r="K9"/>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="K9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C10" s="7">
         <v>1000005</v>
       </c>
@@ -792,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
@@ -801,16 +995,30 @@
         <v>1000</v>
       </c>
       <c r="H10" s="7">
-        <v>1500</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>1000</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="J10" s="7">
         <v>1000</v>
       </c>
-      <c r="K10"/>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="9">
+        <v>2</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C11" s="7">
         <v>1000006</v>
       </c>
@@ -818,26 +1026,43 @@
         <v>2</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H11" s="7">
-        <v>1500</v>
-      </c>
-      <c r="I11" s="8"/>
+        <v>1300</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J11" s="7">
         <v>1000</v>
       </c>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="N11"/>
-    </row>
-    <row r="12" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="K11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="9">
+        <v>2</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C12" s="7">
         <v>1000007</v>
       </c>
@@ -845,25 +1070,35 @@
         <v>3</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H12" s="7">
-        <v>2200</v>
-      </c>
-      <c r="I12" s="8"/>
+        <v>1000</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="J12" s="7">
         <v>1000</v>
       </c>
-      <c r="K12"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="K12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9">
+        <v>2</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C13" s="7">
         <v>1000008</v>
       </c>
@@ -871,23 +1106,32 @@
         <v>4</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="H13" s="7">
-        <v>2800</v>
-      </c>
-      <c r="I13" s="8"/>
+        <v>1500</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J13" s="7">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14" ht="14" x14ac:dyDescent="0.35">
+        <v>1300</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9">
+        <v>2</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" ht="14" x14ac:dyDescent="0.35">
       <c r="C14" s="6">
         <v>1000009</v>
       </c>
@@ -895,23 +1139,32 @@
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="6">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H14" s="6">
-        <v>1500</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="2">
+        <v>500</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C15" s="6">
         <v>1000010</v>
       </c>
@@ -919,23 +1172,29 @@
         <v>2</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" s="6">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H15" s="6">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I15"/>
       <c r="J15" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="K15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C16" s="6">
         <v>1000011</v>
       </c>
@@ -943,23 +1202,35 @@
         <v>3</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G16" s="6">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="H16" s="6">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="I16"/>
       <c r="J16" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="3:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="K16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="2">
+        <v>500</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C17" s="6">
         <v>1000012</v>
       </c>
@@ -967,23 +1238,31 @@
         <v>4</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17" s="6">
         <v>2800</v>
       </c>
       <c r="H17" s="6">
-        <v>2800</v>
-      </c>
-      <c r="I17"/>
+        <v>2200</v>
+      </c>
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
       <c r="J17" s="5">
         <v>2400</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" ht="14" x14ac:dyDescent="0.35">
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" ht="14" x14ac:dyDescent="0.35">
       <c r="C18" s="7">
         <v>1000013</v>
       </c>
@@ -991,23 +1270,23 @@
         <v>1</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="7">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H18" s="7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C19" s="7">
         <v>1000014</v>
       </c>
@@ -1015,23 +1294,23 @@
         <v>2</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" s="7">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H19" s="7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C20" s="7">
         <v>1000015</v>
       </c>
@@ -1039,23 +1318,23 @@
         <v>3</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" s="7">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="H20" s="7">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C21" s="7">
         <v>1000016</v>
       </c>
@@ -1063,10 +1342,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7">
         <v>2800</v>
@@ -1079,7 +1358,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="22" spans="3:10" ht="14" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:15" ht="14" x14ac:dyDescent="0.35">
       <c r="C22" s="6">
         <v>1000017</v>
       </c>
@@ -1087,23 +1366,23 @@
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="6">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H22" s="6">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C23" s="6">
         <v>1000018</v>
       </c>
@@ -1111,23 +1390,23 @@
         <v>2</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G23" s="6">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H23" s="6">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I23"/>
       <c r="J23" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C24" s="6">
         <v>1000019</v>
       </c>
@@ -1135,23 +1414,23 @@
         <v>3</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24" s="6">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="H24" s="6">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="I24"/>
       <c r="J24" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C25" s="6">
         <v>1000020</v>
       </c>
@@ -1159,10 +1438,10 @@
         <v>4</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G25" s="6">
         <v>2800</v>
@@ -1175,7 +1454,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="26" spans="3:10" ht="14" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:15" ht="14" x14ac:dyDescent="0.35">
       <c r="C26" s="7">
         <v>1000021</v>
       </c>
@@ -1183,23 +1462,23 @@
         <v>1</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="7">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H26" s="7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C27" s="7">
         <v>1000022</v>
       </c>
@@ -1207,23 +1486,23 @@
         <v>2</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G27" s="7">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H27" s="7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C28" s="7">
         <v>1000023</v>
       </c>
@@ -1231,23 +1510,23 @@
         <v>3</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G28" s="7">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="H28" s="7">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="3:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C29" s="7">
         <v>1000024</v>
       </c>
@@ -1255,10 +1534,10 @@
         <v>4</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G29" s="7">
         <v>2800</v>
@@ -1271,18 +1550,18 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC65C8C-39D4-46B2-B57A-9F21EC4B59AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DDF3C6-D327-4BDD-A877-0F1C535B8A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>技能的序号</t>
   </si>
@@ -242,6 +242,64 @@
   </si>
   <si>
     <t>Assets/Bundles/Effect/SKillEffect/zhouyu_dazhao.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/pangtong_pugong1.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/lvmeng_anduzhiji.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/guanyu_pugong1.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/lvmeng_yijiqiansha_shouji_dixue.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/guanyu_zhanshenguanyu_gai_dao.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/guanyu_zhanshenguanyu_huifu.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/guanyu_zhanshenguanyu_gai.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/caopi_dazhao_daoguang.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/simayi_jiutianshenlei_shouji.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/simayi_jiutianshenlei_xuli.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/zhangjiao_huangtian.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/simayi_huanxingshandian.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/zhangjiao_dazhao.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/daqiao_xinglinmiaoshou.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/daqiao_shouji.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/xiaoqiao_tianxiangguose.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/xiaoqiao_chunjiezhiyou.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/diaochan_jueshiwuji.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/zhouyu_pugong.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -337,7 +395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,8 +417,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -670,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -681,11 +745,11 @@
     <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
     <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="62.26953125" style="2" customWidth="1"/>
     <col min="10" max="10" width="7.1796875" style="2" customWidth="1"/>
     <col min="11" max="11" width="66.54296875" style="2" customWidth="1"/>
     <col min="12" max="12" width="9.90625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="44.81640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="63.08984375" style="2" customWidth="1"/>
     <col min="14" max="14" width="14.453125" style="2" customWidth="1"/>
     <col min="15" max="15" width="20.36328125" style="2" customWidth="1"/>
     <col min="16" max="16" width="24.36328125" style="2" customWidth="1"/>
@@ -858,10 +922,10 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6">
+      <c r="N6" s="9">
+        <v>1</v>
+      </c>
+      <c r="O6" s="9">
         <v>1</v>
       </c>
       <c r="P6" s="6"/>
@@ -894,10 +958,10 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="6">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6">
+      <c r="N7" s="9">
+        <v>1</v>
+      </c>
+      <c r="O7" s="9">
         <v>1</v>
       </c>
       <c r="P7" s="6"/>
@@ -932,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="6"/>
-      <c r="N8" s="6">
-        <v>1</v>
-      </c>
-      <c r="O8" s="6">
+      <c r="N8" s="9">
+        <v>1</v>
+      </c>
+      <c r="O8" s="9">
         <v>1</v>
       </c>
       <c r="P8" s="6"/>
@@ -970,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="6"/>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6">
+      <c r="N9" s="9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="9">
         <v>1</v>
       </c>
       <c r="P9" s="6"/>
@@ -992,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H10" s="7">
         <v>1000</v>
@@ -1010,10 +1074,10 @@
       <c r="M10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="9">
-        <v>2</v>
-      </c>
-      <c r="O10" s="8">
+      <c r="N10" s="10">
+        <v>2</v>
+      </c>
+      <c r="O10" s="10">
         <v>1</v>
       </c>
       <c r="P10" s="8"/>
@@ -1052,10 +1116,10 @@
       <c r="M11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="9">
-        <v>2</v>
-      </c>
-      <c r="O11" s="8">
+      <c r="N11" s="10">
+        <v>2</v>
+      </c>
+      <c r="O11" s="10">
         <v>1</v>
       </c>
       <c r="P11" s="8" t="s">
@@ -1092,10 +1156,10 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="9">
-        <v>2</v>
-      </c>
-      <c r="O12" s="8"/>
+      <c r="N12" s="10">
+        <v>2</v>
+      </c>
+      <c r="O12" s="10"/>
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.35">
@@ -1125,10 +1189,10 @@
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="9">
-        <v>2</v>
-      </c>
-      <c r="O13" s="8"/>
+      <c r="N13" s="10">
+        <v>2</v>
+      </c>
+      <c r="O13" s="10"/>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:16" ht="14" x14ac:dyDescent="0.35">
@@ -1158,11 +1222,12 @@
         <v>500</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="3">
-        <v>2</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="N14" s="11">
+        <v>2</v>
+      </c>
+      <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C15" s="6">
@@ -1190,9 +1255,10 @@
       <c r="K15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="3">
-        <v>2</v>
-      </c>
+      <c r="N15" s="11">
+        <v>2</v>
+      </c>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C16" s="6">
@@ -1226,11 +1292,12 @@
       <c r="M16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="N16" s="11">
+        <v>2</v>
+      </c>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C17" s="6">
         <v>1000012</v>
       </c>
@@ -1244,7 +1311,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="6">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="H17" s="6">
         <v>2200</v>
@@ -1255,14 +1322,14 @@
       <c r="J17" s="5">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" ht="14" x14ac:dyDescent="0.35">
+      <c r="N17" s="11">
+        <v>1</v>
+      </c>
+      <c r="O17" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" ht="14" x14ac:dyDescent="0.35">
       <c r="C18" s="7">
         <v>1000013</v>
       </c>
@@ -1276,17 +1343,26 @@
         <v>9</v>
       </c>
       <c r="G18" s="7">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="H18" s="7">
         <v>1000</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="J18" s="7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="K18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="11">
+        <v>2</v>
+      </c>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C19" s="7">
         <v>1000014</v>
       </c>
@@ -1305,12 +1381,18 @@
       <c r="H19" s="7">
         <v>1000</v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="J19" s="7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="N19" s="11">
+        <v>1</v>
+      </c>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C20" s="7">
         <v>1000015</v>
       </c>
@@ -1324,17 +1406,26 @@
         <v>18</v>
       </c>
       <c r="G20" s="7">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="H20" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I20" s="8"/>
+        <v>2000</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="J20" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+        <v>800</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" s="11">
+        <v>2</v>
+      </c>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C21" s="7">
         <v>1000016</v>
       </c>
@@ -1348,17 +1439,32 @@
         <v>19</v>
       </c>
       <c r="G21" s="7">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="H21" s="7">
-        <v>2800</v>
-      </c>
-      <c r="I21" s="8"/>
+        <v>1250</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="J21" s="7">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" ht="14" x14ac:dyDescent="0.35">
+        <v>500</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="11">
+        <v>2</v>
+      </c>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="3:16" ht="14" x14ac:dyDescent="0.35">
       <c r="C22" s="6">
         <v>1000017</v>
       </c>
@@ -1372,7 +1478,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="6">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H22" s="6">
         <v>1000</v>
@@ -1381,8 +1487,23 @@
       <c r="J22" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="K22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="2">
+        <v>500</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="11">
+        <v>2</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C23" s="6">
         <v>1000018</v>
       </c>
@@ -1396,7 +1517,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="6">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H23" s="6">
         <v>1000</v>
@@ -1405,8 +1526,14 @@
       <c r="J23" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="K23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N23" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C24" s="6">
         <v>1000019</v>
       </c>
@@ -1420,17 +1547,28 @@
         <v>18</v>
       </c>
       <c r="G24" s="6">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="H24" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I24"/>
+        <v>800</v>
+      </c>
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
       <c r="J24" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+        <v>800</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" s="11">
+        <v>1</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C25" s="6">
         <v>1000020</v>
       </c>
@@ -1444,17 +1582,23 @@
         <v>19</v>
       </c>
       <c r="G25" s="6">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="H25" s="6">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="I25"/>
       <c r="J25" s="5">
         <v>2400</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" ht="14" x14ac:dyDescent="0.35">
+      <c r="K25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N25" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" ht="14" x14ac:dyDescent="0.35">
       <c r="C26" s="7">
         <v>1000021</v>
       </c>
@@ -1468,17 +1612,25 @@
         <v>9</v>
       </c>
       <c r="G26" s="7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H26" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I26" s="7"/>
+        <v>500</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="J26" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N26" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C27" s="7">
         <v>1000022</v>
       </c>
@@ -1492,17 +1644,22 @@
         <v>17</v>
       </c>
       <c r="G27" s="7">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H27" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I27" s="8"/>
+        <v>1300</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="J27" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+        <v>800</v>
+      </c>
+      <c r="N27" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C28" s="7">
         <v>1000023</v>
       </c>
@@ -1516,17 +1673,22 @@
         <v>18</v>
       </c>
       <c r="G28" s="7">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="H28" s="7">
         <v>1000</v>
       </c>
-      <c r="I28" s="8"/>
+      <c r="I28" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="J28" s="7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="N28" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C29" s="7">
         <v>1000024</v>
       </c>
@@ -1540,28 +1702,33 @@
         <v>19</v>
       </c>
       <c r="G29" s="7">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="H29" s="7">
-        <v>2800</v>
-      </c>
-      <c r="I29" s="8"/>
+        <v>2000</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="J29" s="7">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.35">
+        <v>1000</v>
+      </c>
+      <c r="N29" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DDF3C6-D327-4BDD-A877-0F1C535B8A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A7820A-BC8E-45A6-9236-DA8FA09FC7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,7 +735,7 @@
   <dimension ref="A3:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1059,7 +1059,7 @@
         <v>2000</v>
       </c>
       <c r="H10" s="7">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>46</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A7820A-BC8E-45A6-9236-DA8FA09FC7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE92E6B7-874B-40CC-BA83-4695E6015B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
@@ -256,15 +256,9 @@
     <t>Assets/Bundles/Effect/SKillEffect/lvmeng_yijiqiansha_shouji_dixue.prefab</t>
   </si>
   <si>
-    <t>Assets/Bundles/Effect/SKillEffect/guanyu_zhanshenguanyu_gai_dao.prefab</t>
-  </si>
-  <si>
     <t>Assets/Bundles/Effect/SKillEffect/guanyu_zhanshenguanyu_huifu.prefab</t>
   </si>
   <si>
-    <t>Assets/Bundles/Effect/SKillEffect/guanyu_zhanshenguanyu_gai.prefab</t>
-  </si>
-  <si>
     <t>Assets/Bundles/Effect/SKillEffect/caopi_dazhao_daoguang.prefab</t>
   </si>
   <si>
@@ -300,6 +294,12 @@
   <si>
     <t>Assets/Bundles/Effect/SKillEffect/zhouyu_pugong.prefab</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/hero/fx_hero_active_shifa.prefab</t>
+  </si>
+  <si>
+    <t>Assets/hero/hero_passive_feixing.prefab</t>
   </si>
 </sst>
 </file>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1222,7 +1222,7 @@
         <v>500</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N14" s="11">
         <v>2</v>
@@ -1412,7 +1412,7 @@
         <v>2000</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J20" s="7">
         <v>800</v>
@@ -1445,19 +1445,19 @@
         <v>1250</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J21" s="7">
         <v>500</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L21" s="2">
         <v>1200</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="N21" s="11">
         <v>2</v>
@@ -1488,13 +1488,13 @@
         <v>1000</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L22" s="2">
         <v>500</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N22" s="11">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         <v>1000</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N23" s="11">
         <v>2</v>
@@ -1553,13 +1553,13 @@
         <v>800</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J24" s="5">
         <v>800</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N24" s="11">
         <v>1</v>
@@ -1592,7 +1592,7 @@
         <v>2400</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N25" s="11">
         <v>2</v>
@@ -1618,13 +1618,13 @@
         <v>500</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J26" s="7">
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N26" s="11">
         <v>2</v>
@@ -1650,7 +1650,7 @@
         <v>1300</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J27" s="7">
         <v>800</v>
@@ -1679,7 +1679,7 @@
         <v>1000</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J28" s="7">
         <v>1000</v>
@@ -1708,7 +1708,7 @@
         <v>2000</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J29" s="7">
         <v>1000</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
   <si>
     <t>#移动类型 MoveType 1移动2不移动</t>
   </si>
@@ -67,6 +67,12 @@
     <t>范围类型</t>
   </si>
   <si>
+    <t>buff配置id</t>
+  </si>
+  <si>
+    <t>buff持续回合数</t>
+  </si>
+  <si>
     <t>#目标点类型1面前2中间</t>
   </si>
   <si>
@@ -116,6 +122,12 @@
   </si>
   <si>
     <t>RangeType</t>
+  </si>
+  <si>
+    <t>BuggConfigId</t>
+  </si>
+  <si>
+    <t>BuffRoundCount</t>
   </si>
   <si>
     <t>#攻击类型,#范围类型 RangeType， 1，单体，2群体</t>
@@ -291,12 +303,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,18 +351,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,9 +379,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,18 +393,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,39 +425,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,11 +440,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,6 +478,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -508,25 +526,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,139 +646,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,8 +705,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,32 +750,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,8 +764,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,174 +785,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -959,6 +977,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1311,7 +1332,7 @@
   <dimension ref="A3:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="S6" sqref="S6:S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1333,7 +1354,7 @@
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1385,114 +1406,132 @@
       <c r="R3" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>35</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" ht="16.8" spans="3:18">
+        <v>39</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" ht="16.8" spans="3:20">
       <c r="C6" s="5">
         <v>1000001</v>
       </c>
@@ -1501,10 +1540,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H6" s="5">
         <v>1500</v>
@@ -1513,7 +1552,7 @@
         <v>1000</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K6" s="5">
         <v>1000</v>
@@ -1531,8 +1570,14 @@
       <c r="R6" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" customFormat="1" ht="16.8" spans="3:18">
+      <c r="S6" s="12">
+        <v>101</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="16.8" spans="3:20">
       <c r="C7" s="5">
         <v>1000002</v>
       </c>
@@ -1541,10 +1586,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H7" s="5">
         <v>1500</v>
@@ -1553,7 +1598,7 @@
         <v>1000</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K7" s="5">
         <v>1000</v>
@@ -1571,8 +1616,14 @@
       <c r="R7" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="16.8" spans="3:18">
+      <c r="S7" s="12">
+        <v>101</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="16.8" spans="3:20">
       <c r="C8" s="5">
         <v>1000003</v>
       </c>
@@ -1581,10 +1632,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H8" s="5">
         <v>2200</v>
@@ -1597,7 +1648,7 @@
         <v>1000</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M8" s="5">
         <v>0</v>
@@ -1613,8 +1664,14 @@
       <c r="R8" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" ht="16.8" spans="3:18">
+      <c r="S8" s="12">
+        <v>101</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="16.8" spans="3:20">
       <c r="C9" s="5">
         <v>1000004</v>
       </c>
@@ -1623,10 +1680,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H9" s="5">
         <v>2800</v>
@@ -1639,7 +1696,7 @@
         <v>2400</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M9" s="5">
         <v>0</v>
@@ -1655,8 +1712,14 @@
       <c r="R9" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" ht="16.8" spans="3:18">
+      <c r="S9" s="12">
+        <v>101</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="16.8" spans="3:20">
       <c r="C10" s="6">
         <v>1000005</v>
       </c>
@@ -1665,10 +1728,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H10" s="6">
         <v>2000</v>
@@ -1677,7 +1740,7 @@
         <v>1200</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="6">
         <v>1000</v>
@@ -1687,20 +1750,26 @@
         <v>1000</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="6">
+        <v>55</v>
+      </c>
+      <c r="O10" s="11">
         <v>2</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="11">
         <v>1</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" ht="16.8" spans="3:18">
+      <c r="S10" s="12">
+        <v>101</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="16.8" spans="3:20">
       <c r="C11" s="6">
         <v>1000006</v>
       </c>
@@ -1709,10 +1778,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H11" s="6">
         <v>2000</v>
@@ -1721,34 +1790,40 @@
         <v>1300</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K11" s="6">
         <v>1000</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M11" s="6">
         <v>1000</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="6">
+        <v>59</v>
+      </c>
+      <c r="O11" s="11">
         <v>2</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="11">
         <v>1</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R11" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" ht="16.8" spans="3:18">
+      <c r="S11" s="12">
+        <v>101</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="16.8" spans="3:20">
       <c r="C12" s="6">
         <v>1000007</v>
       </c>
@@ -1757,10 +1832,10 @@
         <v>3</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H12" s="6">
         <v>1500</v>
@@ -1769,26 +1844,32 @@
         <v>1000</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K12" s="6">
         <v>1000</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="6">
+      <c r="O12" s="11">
         <v>2</v>
       </c>
-      <c r="P12" s="6"/>
+      <c r="P12" s="11"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" ht="16.8" spans="3:18">
+      <c r="S12" s="12">
+        <v>101</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="16.8" spans="3:20">
       <c r="C13" s="6">
         <v>1000008</v>
       </c>
@@ -1797,10 +1878,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H13" s="6">
         <v>2000</v>
@@ -1809,7 +1890,7 @@
         <v>1500</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K13" s="6">
         <v>1300</v>
@@ -1817,16 +1898,22 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="6">
+      <c r="O13" s="11">
         <v>2</v>
       </c>
-      <c r="P13" s="6"/>
+      <c r="P13" s="11"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" ht="16.8" spans="3:18">
+      <c r="S13" s="12">
+        <v>101</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="16.8" spans="3:20">
       <c r="C14" s="5">
         <v>1000009</v>
       </c>
@@ -1835,10 +1922,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H14" s="5">
         <v>1500</v>
@@ -1849,24 +1936,30 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M14" s="5">
         <v>500</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="5">
+        <v>65</v>
+      </c>
+      <c r="O14" s="10">
         <v>2</v>
       </c>
-      <c r="P14" s="5"/>
+      <c r="P14" s="10"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" ht="16.8" spans="3:18">
+      <c r="S14" s="12">
+        <v>101</v>
+      </c>
+      <c r="T14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="16.8" spans="3:20">
       <c r="C15" s="5">
         <v>1000010</v>
       </c>
@@ -1875,10 +1968,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H15" s="5">
         <v>1500</v>
@@ -1891,20 +1984,26 @@
         <v>1000</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="5">
+      <c r="O15" s="10">
         <v>2</v>
       </c>
-      <c r="P15" s="5"/>
+      <c r="P15" s="10"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" ht="16.8" spans="3:18">
+      <c r="S15" s="12">
+        <v>101</v>
+      </c>
+      <c r="T15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="16.8" spans="3:20">
       <c r="C16" s="5">
         <v>1000011</v>
       </c>
@@ -1913,10 +2012,10 @@
         <v>3</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H16" s="5">
         <v>2200</v>
@@ -1929,24 +2028,30 @@
         <v>1000</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M16" s="5">
         <v>500</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O16" s="5">
+        <v>66</v>
+      </c>
+      <c r="O16" s="10">
         <v>2</v>
       </c>
-      <c r="P16" s="5"/>
+      <c r="P16" s="10"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" ht="16.8" spans="3:18">
+      <c r="S16" s="12">
+        <v>101</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="16.8" spans="3:20">
       <c r="C17" s="5">
         <v>1000012</v>
       </c>
@@ -1955,10 +2060,10 @@
         <v>4</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H17" s="5">
         <v>3200</v>
@@ -1967,7 +2072,7 @@
         <v>2200</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K17" s="5">
         <v>2400</v>
@@ -1975,14 +2080,20 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="5">
-        <v>1</v>
-      </c>
-      <c r="P17" s="5">
+      <c r="O17" s="10">
+        <v>1</v>
+      </c>
+      <c r="P17" s="10">
         <v>2</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="10">
+        <v>1</v>
+      </c>
+      <c r="S17" s="12">
+        <v>101</v>
+      </c>
+      <c r="T17" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1995,10 +2106,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H18" s="6">
         <v>3000</v>
@@ -2007,26 +2118,30 @@
         <v>1000</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K18" s="6">
         <v>1000</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="6">
+      <c r="O18" s="11">
         <v>2</v>
       </c>
-      <c r="P18" s="6"/>
+      <c r="P18" s="11"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="11">
         <v>1</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
+      <c r="S18" s="12">
+        <v>101</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1</v>
+      </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
@@ -2040,10 +2155,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H19" s="6">
         <v>1500</v>
@@ -2052,7 +2167,7 @@
         <v>1000</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K19" s="6">
         <v>1000</v>
@@ -2060,16 +2175,20 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="6">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6"/>
+      <c r="O19" s="11">
+        <v>1</v>
+      </c>
+      <c r="P19" s="11"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="11">
         <v>1</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
+      <c r="S19" s="12">
+        <v>101</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1</v>
+      </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -2083,10 +2202,10 @@
         <v>3</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H20" s="6">
         <v>3000</v>
@@ -2095,26 +2214,30 @@
         <v>2000</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K20" s="6">
         <v>800</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="6">
+      <c r="O20" s="11">
         <v>2</v>
       </c>
-      <c r="P20" s="6"/>
+      <c r="P20" s="11"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="11">
         <v>1</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+      <c r="S20" s="12">
+        <v>101</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
@@ -2128,10 +2251,10 @@
         <v>4</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H21" s="6">
         <v>2500</v>
@@ -2140,49 +2263,53 @@
         <v>1250</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K21" s="6">
         <v>500</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M21" s="6">
         <v>1200</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O21" s="6">
+        <v>75</v>
+      </c>
+      <c r="O21" s="11">
         <v>2</v>
       </c>
-      <c r="P21" s="6"/>
+      <c r="P21" s="11"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="11">
         <v>1</v>
       </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
+      <c r="S21" s="12">
+        <v>101</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
     </row>
-    <row r="22" ht="16.8" spans="3:18">
+    <row r="22" ht="16.8" spans="3:20">
       <c r="C22" s="5">
         <v>1000017</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H22" s="5">
         <v>2000</v>
@@ -2195,40 +2322,46 @@
         <v>1000</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M22" s="5">
         <v>500</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O22" s="5">
+        <v>78</v>
+      </c>
+      <c r="O22" s="10">
         <v>2</v>
       </c>
-      <c r="P22" s="5"/>
+      <c r="P22" s="10"/>
       <c r="Q22" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R22" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" ht="16.8" spans="3:18">
+      <c r="S22" s="12">
+        <v>101</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="16.8" spans="3:20">
       <c r="C23" s="5">
         <v>1000018</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E23" s="5">
         <v>2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H23" s="5">
         <v>2000</v>
@@ -2241,34 +2374,40 @@
         <v>1000</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="5">
+      <c r="O23" s="10">
         <v>2</v>
       </c>
-      <c r="P23" s="5"/>
+      <c r="P23" s="10"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" ht="16.8" spans="3:18">
+      <c r="S23" s="12">
+        <v>101</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="16.8" spans="3:20">
       <c r="C24" s="5">
         <v>1000019</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E24" s="5">
         <v>3</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H24" s="5">
         <v>2000</v>
@@ -2277,42 +2416,48 @@
         <v>800</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K24" s="5">
         <v>800</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="5">
-        <v>1</v>
-      </c>
-      <c r="P24" s="5">
+      <c r="O24" s="10">
+        <v>1</v>
+      </c>
+      <c r="P24" s="10">
         <v>1</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" ht="16.8" spans="3:18">
+      <c r="S24" s="12">
+        <v>101</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="16.8" spans="3:20">
       <c r="C25" s="5">
         <v>1000020</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E25" s="5">
         <v>4</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H25" s="5">
         <v>3000</v>
@@ -2325,34 +2470,40 @@
         <v>2400</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="5">
+      <c r="O25" s="10">
         <v>2</v>
       </c>
-      <c r="P25" s="5"/>
+      <c r="P25" s="10"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" ht="16.8" spans="3:18">
+      <c r="S25" s="12">
+        <v>101</v>
+      </c>
+      <c r="T25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" spans="3:20">
       <c r="C26" s="6">
         <v>1000021</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H26" s="6">
         <v>1000</v>
@@ -2361,40 +2512,46 @@
         <v>500</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K26" s="6">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="6">
+      <c r="O26" s="11">
         <v>2</v>
       </c>
-      <c r="P26" s="6"/>
+      <c r="P26" s="11"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" ht="16.8" spans="3:18">
+      <c r="S26" s="12">
+        <v>101</v>
+      </c>
+      <c r="T26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="16.8" spans="3:20">
       <c r="C27" s="6">
         <v>1000022</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E27" s="6">
         <v>2</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H27" s="6">
         <v>2000</v>
@@ -2403,7 +2560,7 @@
         <v>1300</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K27" s="6">
         <v>800</v>
@@ -2411,30 +2568,36 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="6">
+      <c r="O27" s="11">
         <v>2</v>
       </c>
-      <c r="P27" s="6"/>
+      <c r="P27" s="11"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" ht="16.8" spans="3:18">
+      <c r="S27" s="12">
+        <v>101</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="16.8" spans="3:20">
       <c r="C28" s="6">
         <v>1000023</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E28" s="6">
         <v>3</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H28" s="6">
         <v>2000</v>
@@ -2443,7 +2606,7 @@
         <v>1000</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K28" s="6">
         <v>1000</v>
@@ -2451,30 +2614,36 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="6">
+      <c r="O28" s="11">
         <v>2</v>
       </c>
-      <c r="P28" s="6"/>
+      <c r="P28" s="11"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" ht="16.8" spans="3:18">
+      <c r="S28" s="12">
+        <v>101</v>
+      </c>
+      <c r="T28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="16.8" spans="3:20">
       <c r="C29" s="6">
         <v>1000024</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E29" s="6">
         <v>4</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H29" s="6">
         <v>3000</v>
@@ -2483,7 +2652,7 @@
         <v>2000</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K29" s="6">
         <v>1000</v>
@@ -2491,13 +2660,19 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="6">
+      <c r="O29" s="11">
         <v>2</v>
       </c>
-      <c r="P29" s="6"/>
+      <c r="P29" s="11"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="11">
         <v>2</v>
+      </c>
+      <c r="S29" s="12">
+        <v>101</v>
+      </c>
+      <c r="T29" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="3:9">

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="127">
   <si>
     <t>#移动类型 MoveType 1移动2不移动</t>
   </si>
@@ -22,6 +22,9 @@
     <t>技能的序号</t>
   </si>
   <si>
+    <t>回血</t>
+  </si>
+  <si>
     <t>等级伤害</t>
   </si>
   <si>
@@ -55,7 +58,7 @@
     <t>技能时长</t>
   </si>
   <si>
-    <t>伤害时刻</t>
+    <t>受伤播放时间</t>
   </si>
   <si>
     <t>技能特效</t>
@@ -70,6 +73,9 @@
     <t>受击特效</t>
   </si>
   <si>
+    <t>受击特效开始时间</t>
+  </si>
+  <si>
     <t>受击特效持续时长</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>Id</t>
   </si>
   <si>
+    <t>CareHealths</t>
+  </si>
+  <si>
     <t>LevelDamages</t>
   </si>
   <si>
@@ -130,7 +139,7 @@
     <t>SkillTime</t>
   </si>
   <si>
-    <t>BeAttackTime</t>
+    <t>BeAttackAnimPlayTime</t>
   </si>
   <si>
     <t>SkillEffect</t>
@@ -145,6 +154,9 @@
     <t>BeAttackEffect</t>
   </si>
   <si>
+    <t>BeAttackEffectStartTime</t>
+  </si>
+  <si>
     <t>BeAttackEffectTime</t>
   </si>
   <si>
@@ -175,6 +187,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>0,0,0,0</t>
+  </si>
+  <si>
     <t>70,80,90,100</t>
   </si>
   <si>
@@ -341,6 +356,45 @@
   </si>
   <si>
     <t>Assets/Bundles/Effect/SKillEffect/diaochan_jueshiwuji.prefab</t>
+  </si>
+  <si>
+    <t>波塞冬</t>
+  </si>
+  <si>
+    <t>海球</t>
+  </si>
+  <si>
+    <t>fx_hero_Poseidon_attack1_shifa</t>
+  </si>
+  <si>
+    <t>fx_hero_Poseidon_attack1_feixing</t>
+  </si>
+  <si>
+    <t>破浪</t>
+  </si>
+  <si>
+    <t>fx_hero_Poseidon_passive1_shifa</t>
+  </si>
+  <si>
+    <t>fx_hero_Poseidon_passive1_shouji</t>
+  </si>
+  <si>
+    <t>激流斩</t>
+  </si>
+  <si>
+    <t>fx_hero_Poseidon_passive2_shifa</t>
+  </si>
+  <si>
+    <t>fx_hero_Poseidon_passive2_shouji</t>
+  </si>
+  <si>
+    <t>海潮奔腾</t>
+  </si>
+  <si>
+    <t>fx_hero_Poseidon_active_shifa</t>
+  </si>
+  <si>
+    <t>fx_hero_Poseidon_active_shouji</t>
   </si>
 </sst>
 </file>
@@ -348,10 +402,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -397,7 +451,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,24 +472,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,8 +496,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,6 +509,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,22 +530,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,9 +550,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,7 +619,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,13 +697,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,7 +727,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,73 +763,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,55 +787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,8 +804,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,23 +828,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,6 +861,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -817,21 +886,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,152 +901,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1011,9 +1065,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="17" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1383,10 +1434,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:AC33"/>
+  <dimension ref="A3:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1394,26 +1445,28 @@
     <col min="1" max="1" width="72.1057692307692" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7307692307692" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.4230769230769" style="3" customWidth="1"/>
-    <col min="4" max="6" width="15.8653846153846" style="2" customWidth="1"/>
-    <col min="7" max="8" width="19.2211538461538" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.4230769230769" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.6730769230769" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.4230769230769" style="3" customWidth="1"/>
-    <col min="12" max="13" width="12.6346153846154" style="3" customWidth="1"/>
-    <col min="14" max="14" width="15.3653846153846" style="3" customWidth="1"/>
-    <col min="15" max="16" width="13.0865384615385" style="3" customWidth="1"/>
-    <col min="17" max="17" width="31.4134615384615" style="2" customWidth="1"/>
-    <col min="18" max="19" width="24.2019230769231" style="2" customWidth="1"/>
-    <col min="20" max="20" width="19.5480769230769" style="2" customWidth="1"/>
-    <col min="21" max="22" width="9.90384615384615" style="2" customWidth="1"/>
-    <col min="23" max="23" width="63.0865384615385" style="2" customWidth="1"/>
-    <col min="24" max="24" width="14.4519230769231" style="2" customWidth="1"/>
-    <col min="25" max="25" width="20.3653846153846" style="2" customWidth="1"/>
-    <col min="26" max="26" width="24.3653846153846" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="2"/>
+    <col min="4" max="7" width="15.8653846153846" style="2" customWidth="1"/>
+    <col min="8" max="9" width="19.2211538461538" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.4230769230769" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.6730769230769" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.4230769230769" style="3" customWidth="1"/>
+    <col min="13" max="14" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.3653846153846" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.0865384615385" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.2980769230769" style="3" customWidth="1"/>
+    <col min="18" max="18" width="31.5576923076923" style="2" customWidth="1"/>
+    <col min="19" max="20" width="24.2019230769231" style="2" customWidth="1"/>
+    <col min="21" max="21" width="24.5096153846154" style="2" customWidth="1"/>
+    <col min="22" max="23" width="18.5865384615385" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9.90384615384615" style="2" customWidth="1"/>
+    <col min="25" max="25" width="63.0865384615385" style="2" customWidth="1"/>
+    <col min="26" max="26" width="14.4519230769231" style="2" customWidth="1"/>
+    <col min="27" max="27" width="20.3653846153846" style="2" customWidth="1"/>
+    <col min="28" max="28" width="24.3653846153846" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:28">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
@@ -1489,1763 +1542,2256 @@
       <c r="Z3" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="AA3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:28">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:28">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="6" ht="16.8" spans="3:26">
+    <row r="6" ht="16.8" spans="3:28">
       <c r="C6" s="5">
         <v>1000001</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="9">
+        <v>59</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="8">
         <v>101102</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="9">
         <v>101102</v>
       </c>
-      <c r="J6" s="11">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>56</v>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5">
+        <v>1</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" s="5">
+        <v>61</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="5">
         <v>1500</v>
       </c>
-      <c r="P6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R6" s="5">
-        <v>1000</v>
+      <c r="Q6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="S6" s="5">
         <v>1000</v>
       </c>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="5"/>
+      <c r="T6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W6" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="5"/>
     </row>
-    <row r="7" customFormat="1" ht="16.8" spans="3:26">
+    <row r="7" customFormat="1" ht="16.8" spans="3:28">
       <c r="C7" s="5">
         <v>1000002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
+        <v>58</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
         <v>101</v>
       </c>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
         <v>102</v>
       </c>
-      <c r="J7" s="11">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5">
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5">
         <v>2</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="N7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="5">
         <v>1500</v>
       </c>
-      <c r="P7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="R7" s="5">
-        <v>1000</v>
+      <c r="Q7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="S7" s="5">
         <v>1000</v>
       </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="5"/>
+      <c r="T7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W7" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="5"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.8" spans="3:26">
+    <row r="8" s="1" customFormat="1" ht="16.8" spans="3:28">
       <c r="C8" s="5">
         <v>1000003</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
         <v>101</v>
       </c>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11">
         <v>102</v>
       </c>
-      <c r="J8" s="11">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5">
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5">
         <v>3</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="N8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" s="5">
+        <v>67</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="5">
         <v>2200</v>
       </c>
-      <c r="P8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5">
-        <v>1000</v>
-      </c>
+      <c r="Q8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R8" s="5"/>
       <c r="S8" s="5">
         <v>1000</v>
       </c>
-      <c r="T8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="U8" s="5">
-        <v>2000</v>
+      <c r="T8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="V8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W8" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X8" s="5">
         <v>0</v>
       </c>
-      <c r="W8" s="5"/>
-      <c r="X8" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="5"/>
     </row>
-    <row r="9" ht="16.8" spans="3:26">
+    <row r="9" ht="16.8" spans="3:28">
       <c r="C9" s="5">
         <v>1000004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
         <v>101</v>
       </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11">
         <v>102</v>
       </c>
-      <c r="J9" s="11">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5">
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
         <v>4</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="N9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="5">
+        <v>70</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="5">
         <v>2800</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>2200</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5">
-        <v>1000</v>
-      </c>
+      <c r="R9" s="5"/>
       <c r="S9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T9" s="5">
         <v>2400</v>
       </c>
-      <c r="T9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="U9" s="5">
-        <v>2000</v>
+      <c r="U9" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="V9" s="5">
+        <v>2200</v>
+      </c>
+      <c r="W9" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X9" s="5">
         <v>0</v>
       </c>
-      <c r="W9" s="5"/>
-      <c r="X9" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="5"/>
     </row>
-    <row r="10" ht="16.8" spans="3:26">
+    <row r="10" ht="16.8" spans="3:28">
       <c r="C10" s="7">
         <v>1000005</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
         <v>101</v>
       </c>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11">
         <v>102</v>
       </c>
-      <c r="J10" s="13">
-        <v>1</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7">
-        <v>1</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>68</v>
+      <c r="K10" s="12">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7">
+        <v>1</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="O10" s="7">
-        <v>2000</v>
+        <v>73</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="P10" s="7">
+        <v>2000</v>
+      </c>
+      <c r="Q10" s="7">
         <v>1200</v>
       </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="T10" s="7"/>
-      <c r="U10" s="5">
-        <v>2000</v>
-      </c>
+      <c r="R10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="U10" s="7"/>
       <c r="V10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="X10" s="13">
+        <v>1200</v>
+      </c>
+      <c r="W10" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" s="12">
         <v>2</v>
       </c>
-      <c r="Y10" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="7"/>
+      <c r="AA10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="7"/>
     </row>
-    <row r="11" ht="16.8" spans="3:26">
+    <row r="11" ht="16.8" spans="3:28">
       <c r="C11" s="7">
         <v>1000006</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
         <v>101</v>
       </c>
-      <c r="H11" s="9">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12">
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
         <v>102</v>
       </c>
-      <c r="J11" s="13">
-        <v>1</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7">
+      <c r="K11" s="12">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7">
         <v>2</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="N11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" s="7">
-        <v>2000</v>
+        <v>76</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="P11" s="7">
+        <v>2000</v>
+      </c>
+      <c r="Q11" s="7">
         <v>1300</v>
       </c>
-      <c r="Q11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="R11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="U11" s="5">
-        <v>2000</v>
+      <c r="R11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="V11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="X11" s="13">
+        <v>1300</v>
+      </c>
+      <c r="W11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z11" s="12">
         <v>2</v>
       </c>
-      <c r="Y11" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>75</v>
+      <c r="AA11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="12" ht="16.8" spans="3:26">
+    <row r="12" ht="16.8" spans="3:28">
       <c r="C12" s="7">
         <v>1000007</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
         <v>101</v>
       </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12">
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
         <v>102</v>
       </c>
-      <c r="J12" s="13">
-        <v>1</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7">
+      <c r="K12" s="12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7">
         <v>3</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="N12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="7">
+        <v>67</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="7">
         <v>1500</v>
       </c>
-      <c r="P12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="R12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="U12" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="13">
+      <c r="Q12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="W12" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="12">
         <v>2</v>
       </c>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="7"/>
+      <c r="AA12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="7"/>
     </row>
-    <row r="13" ht="16.8" spans="3:26">
+    <row r="13" ht="16.8" spans="3:28">
       <c r="C13" s="7">
         <v>1000008</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
         <v>101</v>
       </c>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12">
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
         <v>102</v>
       </c>
-      <c r="J13" s="13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7">
+      <c r="K13" s="12">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7">
         <v>4</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="N13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="7">
-        <v>2000</v>
+        <v>70</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="P13" s="7">
+        <v>2000</v>
+      </c>
+      <c r="Q13" s="7">
         <v>1500</v>
       </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="R13" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S13" s="7">
+      <c r="R13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T13" s="7">
         <v>1300</v>
       </c>
-      <c r="T13" s="7"/>
-      <c r="U13" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="13">
+      <c r="U13" s="7"/>
+      <c r="V13" s="7">
+        <v>1500</v>
+      </c>
+      <c r="W13" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="12">
         <v>2</v>
       </c>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="7"/>
+      <c r="AA13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="7"/>
     </row>
-    <row r="14" ht="16.8" spans="3:26">
+    <row r="14" ht="16.8" spans="3:28">
       <c r="C14" s="5">
         <v>1000009</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
         <v>101</v>
       </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12">
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
         <v>102</v>
       </c>
-      <c r="J14" s="11">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>68</v>
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5">
+        <v>1</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O14" s="5">
+        <v>73</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="5">
         <v>1500</v>
       </c>
-      <c r="P14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="U14" s="5">
-        <v>2000</v>
+      <c r="Q14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="V14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W14" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X14" s="5">
         <v>500</v>
       </c>
-      <c r="W14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="X14" s="11">
+      <c r="Y14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z14" s="10">
         <v>2</v>
       </c>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="5"/>
+      <c r="AA14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="5"/>
     </row>
-    <row r="15" ht="16.8" spans="3:26">
+    <row r="15" ht="16.8" spans="3:28">
       <c r="C15" s="5">
         <v>1000010</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
         <v>101</v>
       </c>
-      <c r="H15" s="9">
-        <v>1</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11">
         <v>102</v>
       </c>
-      <c r="J15" s="11">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5">
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5">
         <v>2</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="N15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" s="5">
+        <v>76</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="5">
         <v>1500</v>
       </c>
-      <c r="P15" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5">
-        <v>1000</v>
-      </c>
+      <c r="Q15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R15" s="5"/>
       <c r="S15" s="5">
         <v>1000</v>
       </c>
-      <c r="T15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="U15" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="11">
+      <c r="T15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="V15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W15" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="10">
         <v>2</v>
       </c>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="5"/>
+      <c r="AA15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="5"/>
     </row>
-    <row r="16" ht="16.8" spans="3:26">
+    <row r="16" ht="16.8" spans="3:28">
       <c r="C16" s="5">
         <v>1000011</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
         <v>101</v>
       </c>
-      <c r="H16" s="9">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11">
         <v>102</v>
       </c>
-      <c r="J16" s="11">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5">
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5">
         <v>3</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="N16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" s="5">
+        <v>67</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="5">
         <v>2200</v>
       </c>
-      <c r="P16" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5">
-        <v>1000</v>
-      </c>
+      <c r="Q16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R16" s="5"/>
       <c r="S16" s="5">
         <v>1000</v>
       </c>
-      <c r="T16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="U16" s="5">
-        <v>2000</v>
+      <c r="T16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="V16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W16" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X16" s="5">
         <v>500</v>
       </c>
-      <c r="W16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="X16" s="11">
+      <c r="Y16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z16" s="10">
         <v>2</v>
       </c>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="5"/>
+      <c r="AA16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="5"/>
     </row>
-    <row r="17" ht="16.8" spans="3:26">
+    <row r="17" ht="16.8" spans="3:28">
       <c r="C17" s="5">
         <v>1000012</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
         <v>101</v>
       </c>
-      <c r="H17" s="9">
-        <v>1</v>
-      </c>
-      <c r="I17" s="12">
+      <c r="I17" s="8">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11">
         <v>102</v>
       </c>
-      <c r="J17" s="11">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5">
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5">
         <v>4</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="N17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" s="5">
+        <v>70</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="5">
         <v>3200</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <v>2200</v>
       </c>
-      <c r="Q17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="R17" s="5">
-        <v>1000</v>
+      <c r="R17" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="S17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T17" s="5">
         <v>2400</v>
       </c>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="11">
+      <c r="U17" s="5"/>
+      <c r="V17" s="5">
+        <v>2200</v>
+      </c>
+      <c r="W17" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="10">
         <v>2</v>
       </c>
-      <c r="Z17" s="5"/>
+      <c r="AB17" s="5"/>
     </row>
-    <row r="18" ht="16.8" spans="3:29">
+    <row r="18" ht="16.8" spans="3:31">
       <c r="C18" s="7">
         <v>1000013</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
         <v>101</v>
       </c>
-      <c r="H18" s="9">
-        <v>1</v>
-      </c>
-      <c r="I18" s="12">
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11">
         <v>102</v>
       </c>
-      <c r="J18" s="13">
-        <v>1</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>68</v>
+      <c r="K18" s="12">
+        <v>1</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7">
+        <v>1</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="O18" s="7">
+        <v>73</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="7">
         <v>3000</v>
       </c>
-      <c r="P18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="R18" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="U18" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="13">
+      <c r="Q18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S18" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="V18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="W18" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="12">
         <v>2</v>
       </c>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
+      <c r="AA18" s="12">
+        <v>1</v>
+      </c>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
     </row>
-    <row r="19" ht="16.8" spans="3:29">
+    <row r="19" ht="16.8" spans="3:31">
       <c r="C19" s="7">
         <v>1000014</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
         <v>101</v>
       </c>
-      <c r="H19" s="9">
-        <v>1</v>
-      </c>
-      <c r="I19" s="12">
+      <c r="I19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11">
         <v>102</v>
       </c>
-      <c r="J19" s="13">
-        <v>1</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7">
+      <c r="K19" s="12">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7">
         <v>2</v>
       </c>
-      <c r="M19" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="N19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" s="7">
+        <v>76</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="7">
         <v>1500</v>
       </c>
-      <c r="P19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Q19" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="R19" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="T19" s="7"/>
-      <c r="U19" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
+      <c r="Q19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="S19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="W19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>1</v>
+      </c>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
     </row>
-    <row r="20" ht="16.8" spans="3:29">
+    <row r="20" ht="16.8" spans="3:31">
       <c r="C20" s="7">
         <v>1000015</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
         <v>101</v>
       </c>
-      <c r="H20" s="9">
-        <v>1</v>
-      </c>
-      <c r="I20" s="12">
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="11">
         <v>102</v>
       </c>
-      <c r="J20" s="13">
-        <v>1</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7">
+      <c r="K20" s="12">
+        <v>1</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7">
         <v>3</v>
       </c>
-      <c r="M20" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="N20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O20" s="7">
+        <v>67</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" s="7">
         <v>3000</v>
       </c>
-      <c r="P20" s="7">
-        <v>2000</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R20" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S20" s="7">
+      <c r="Q20" s="7">
+        <v>2000</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T20" s="7">
         <v>800</v>
       </c>
-      <c r="T20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="U20" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="13">
+      <c r="U20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="V20" s="7">
+        <v>2000</v>
+      </c>
+      <c r="W20" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="12">
         <v>2</v>
       </c>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
+      <c r="AA20" s="12">
+        <v>1</v>
+      </c>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
     </row>
-    <row r="21" ht="16.8" spans="3:29">
+    <row r="21" ht="16.8" spans="3:31">
       <c r="C21" s="7">
         <v>1000016</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
         <v>101</v>
       </c>
-      <c r="H21" s="9">
-        <v>1</v>
-      </c>
-      <c r="I21" s="12">
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+      <c r="J21" s="11">
         <v>102</v>
       </c>
-      <c r="J21" s="13">
-        <v>1</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7">
+      <c r="K21" s="12">
+        <v>1</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7">
         <v>4</v>
       </c>
-      <c r="M21" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="N21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O21" s="7">
+        <v>70</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" s="7">
         <v>2500</v>
       </c>
-      <c r="P21" s="7">
+      <c r="Q21" s="7">
         <v>1250</v>
       </c>
-      <c r="Q21" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="R21" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S21" s="7">
+      <c r="R21" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="S21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T21" s="7">
         <v>500</v>
       </c>
-      <c r="T21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="U21" s="5">
-        <v>2000</v>
+      <c r="U21" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="V21" s="7">
+        <v>1250</v>
+      </c>
+      <c r="W21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X21" s="7">
         <v>1200</v>
       </c>
-      <c r="W21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="X21" s="13">
+      <c r="Y21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z21" s="12">
         <v>2</v>
       </c>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
+      <c r="AA21" s="12">
+        <v>1</v>
+      </c>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
     </row>
-    <row r="22" ht="16.8" spans="3:26">
+    <row r="22" ht="16.8" spans="3:28">
       <c r="C22" s="5">
         <v>1000017</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
         <v>101</v>
       </c>
-      <c r="H22" s="9">
-        <v>1</v>
-      </c>
-      <c r="I22" s="12">
+      <c r="I22" s="8">
+        <v>1</v>
+      </c>
+      <c r="J22" s="11">
         <v>102</v>
       </c>
-      <c r="J22" s="11">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L22" s="5">
-        <v>1</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>56</v>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O22" s="5">
-        <v>2000</v>
+        <v>61</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="P22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5">
-        <v>1000</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R22" s="5"/>
       <c r="S22" s="5">
         <v>1000</v>
       </c>
-      <c r="T22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="U22" s="5">
-        <v>2000</v>
+      <c r="T22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="V22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W22" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X22" s="5">
         <v>500</v>
       </c>
-      <c r="W22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="X22" s="11">
+      <c r="Y22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z22" s="10">
         <v>2</v>
       </c>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="5" t="s">
-        <v>75</v>
+      <c r="AA22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="23" ht="16.8" spans="3:26">
+    <row r="23" ht="16.8" spans="3:28">
       <c r="C23" s="5">
         <v>1000018</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
         <v>101</v>
       </c>
-      <c r="H23" s="9">
-        <v>1</v>
-      </c>
-      <c r="I23" s="12">
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
+      <c r="J23" s="11">
         <v>102</v>
       </c>
-      <c r="J23" s="11">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L23" s="5">
+      <c r="K23" s="10">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" s="5">
         <v>2</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="N23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O23" s="5">
-        <v>2000</v>
+        <v>64</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="P23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5">
-        <v>1000</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R23" s="5"/>
       <c r="S23" s="5">
         <v>1000</v>
       </c>
-      <c r="T23" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="U23" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="11">
+      <c r="T23" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="V23" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W23" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="10">
         <v>2</v>
       </c>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="5"/>
+      <c r="AA23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="5"/>
     </row>
-    <row r="24" ht="16.8" spans="3:26">
+    <row r="24" ht="16.8" spans="3:28">
       <c r="C24" s="5">
         <v>1000019</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
         <v>101</v>
       </c>
-      <c r="H24" s="9">
-        <v>1</v>
-      </c>
-      <c r="I24" s="12">
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+      <c r="J24" s="11">
         <v>102</v>
       </c>
-      <c r="J24" s="11">
+      <c r="K24" s="10">
         <v>2</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L24" s="5">
+      <c r="L24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" s="5">
         <v>3</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="N24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O24" s="5">
-        <v>2000</v>
+        <v>100</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="P24" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q24" s="5">
         <v>800</v>
       </c>
-      <c r="Q24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="R24" s="5">
-        <v>1000</v>
+      <c r="R24" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="S24" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T24" s="5">
         <v>800</v>
       </c>
-      <c r="T24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="U24" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="5"/>
+      <c r="U24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="V24" s="5">
+        <v>800</v>
+      </c>
+      <c r="W24" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="5"/>
     </row>
-    <row r="25" ht="16.8" spans="3:26">
+    <row r="25" ht="16.8" spans="3:28">
       <c r="C25" s="5">
         <v>1000020</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
         <v>101</v>
       </c>
-      <c r="H25" s="9">
-        <v>1</v>
-      </c>
-      <c r="I25" s="12">
+      <c r="I25" s="8">
+        <v>1</v>
+      </c>
+      <c r="J25" s="11">
         <v>102</v>
       </c>
-      <c r="J25" s="11">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L25" s="5">
+      <c r="K25" s="10">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" s="5">
         <v>4</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="N25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O25" s="5">
+        <v>102</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="5">
         <v>3000</v>
       </c>
-      <c r="P25" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5">
-        <v>1000</v>
-      </c>
+      <c r="Q25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="R25" s="5"/>
       <c r="S25" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T25" s="5">
         <v>2400</v>
       </c>
-      <c r="T25" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="U25" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="11">
+      <c r="U25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="V25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="W25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="10">
         <v>2</v>
       </c>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="5"/>
+      <c r="AA25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="5"/>
     </row>
-    <row r="26" ht="16.8" spans="3:26">
+    <row r="26" ht="16.8" spans="3:28">
       <c r="C26" s="7">
         <v>1000021</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6">
         <v>101</v>
       </c>
-      <c r="H26" s="9">
-        <v>1</v>
-      </c>
-      <c r="I26" s="12">
+      <c r="I26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="11">
         <v>102</v>
       </c>
-      <c r="J26" s="13">
-        <v>1</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L26" s="7">
-        <v>1</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>100</v>
+      <c r="K26" s="12">
+        <v>1</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="O26" s="7">
-        <v>1000</v>
+        <v>105</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="P26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Q26" s="7">
         <v>500</v>
       </c>
-      <c r="Q26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="R26" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S26" s="7">
+      <c r="R26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="S26" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T26" s="7">
         <v>0</v>
       </c>
-      <c r="T26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U26" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="13">
+      <c r="U26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="V26" s="7">
+        <v>500</v>
+      </c>
+      <c r="W26" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="12">
         <v>2</v>
       </c>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="7"/>
+      <c r="AA26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="7"/>
     </row>
-    <row r="27" ht="16.8" spans="3:26">
+    <row r="27" ht="16.8" spans="3:28">
       <c r="C27" s="7">
         <v>1000022</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
         <v>101</v>
       </c>
-      <c r="H27" s="9">
-        <v>1</v>
-      </c>
-      <c r="I27" s="12">
+      <c r="I27" s="8">
+        <v>1</v>
+      </c>
+      <c r="J27" s="11">
         <v>102</v>
       </c>
-      <c r="J27" s="13">
-        <v>1</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L27" s="7">
+      <c r="K27" s="12">
+        <v>1</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M27" s="7">
         <v>2</v>
       </c>
-      <c r="M27" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="N27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O27" s="7">
-        <v>2000</v>
+        <v>108</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="P27" s="7">
+        <v>2000</v>
+      </c>
+      <c r="Q27" s="7">
         <v>1300</v>
       </c>
-      <c r="Q27" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="R27" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S27" s="7">
+      <c r="R27" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="S27" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T27" s="7">
         <v>800</v>
       </c>
-      <c r="T27" s="7"/>
-      <c r="U27" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="13">
+      <c r="U27" s="7"/>
+      <c r="V27" s="7">
+        <v>1300</v>
+      </c>
+      <c r="W27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="12">
         <v>2</v>
       </c>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="7"/>
+      <c r="AA27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="7"/>
     </row>
-    <row r="28" ht="16.8" spans="3:26">
+    <row r="28" ht="16.8" spans="3:28">
       <c r="C28" s="7">
         <v>1000023</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
         <v>101</v>
       </c>
-      <c r="H28" s="9">
-        <v>1</v>
-      </c>
-      <c r="I28" s="12">
+      <c r="I28" s="8">
+        <v>1</v>
+      </c>
+      <c r="J28" s="11">
         <v>102</v>
       </c>
-      <c r="J28" s="13">
-        <v>1</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L28" s="7">
+      <c r="K28" s="12">
+        <v>1</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" s="7">
         <v>3</v>
       </c>
-      <c r="M28" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="N28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O28" s="7">
-        <v>2000</v>
+        <v>110</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="P28" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Q28" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="R28" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S28" s="7">
-        <v>1000</v>
-      </c>
-      <c r="T28" s="7"/>
-      <c r="U28" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="13">
+        <v>2000</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="S28" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="W28" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="12">
         <v>2</v>
       </c>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="7"/>
+      <c r="AA28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="7"/>
     </row>
-    <row r="29" ht="16.8" spans="3:26">
+    <row r="29" ht="16.8" spans="3:28">
       <c r="C29" s="7">
         <v>1000024</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
         <v>101</v>
       </c>
-      <c r="H29" s="9">
-        <v>1</v>
-      </c>
-      <c r="I29" s="12">
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="11">
         <v>102</v>
       </c>
-      <c r="J29" s="13">
+      <c r="K29" s="12">
         <v>2</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L29" s="7">
+      <c r="L29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M29" s="7">
         <v>4</v>
       </c>
-      <c r="M29" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="N29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" s="7">
+        <v>112</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" s="7">
         <v>3000</v>
       </c>
-      <c r="P29" s="7">
-        <v>2000</v>
-      </c>
-      <c r="Q29" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="R29" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S29" s="7">
-        <v>1000</v>
-      </c>
-      <c r="T29" s="7"/>
-      <c r="U29" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="13">
+      <c r="Q29" s="7">
+        <v>2000</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="S29" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7">
+        <v>2000</v>
+      </c>
+      <c r="W29" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="12">
         <v>2</v>
       </c>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="7"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="7"/>
     </row>
-    <row r="30" spans="3:16">
-      <c r="C30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
+    <row r="30" ht="16.8" spans="3:28">
+      <c r="C30" s="5">
+        <v>1000025</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>101</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5">
+        <v>102</v>
+      </c>
+      <c r="K30" s="10">
+        <v>1</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M30" s="5">
+        <v>1</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>800</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S30" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T30" s="5">
+        <v>200</v>
+      </c>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5">
+        <v>800</v>
+      </c>
+      <c r="W30" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X30" s="5">
+        <v>400</v>
+      </c>
+      <c r="Y30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>2</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="5"/>
     </row>
-    <row r="31" spans="3:12">
-      <c r="C31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+    <row r="31" ht="16.8" spans="3:28">
+      <c r="C31" s="5">
+        <v>1000026</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>101</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5">
+        <v>102</v>
+      </c>
+      <c r="K31" s="10">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M31" s="5">
+        <v>2</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>1500</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="S31" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T31" s="5">
+        <v>0</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="V31" s="5">
+        <v>500</v>
+      </c>
+      <c r="W31" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="10">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="5"/>
     </row>
-    <row r="32" spans="3:12">
-      <c r="C32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+    <row r="32" ht="16.8" spans="3:28">
+      <c r="C32" s="5">
+        <v>1000027</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5">
+        <v>101</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5">
+        <v>102</v>
+      </c>
+      <c r="K32" s="10">
+        <v>1</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M32" s="5">
+        <v>3</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="S32" s="5">
+        <v>2500</v>
+      </c>
+      <c r="T32" s="5">
+        <v>400</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="V32" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W32" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="5"/>
     </row>
-    <row r="33" spans="3:12">
-      <c r="C33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+    <row r="33" ht="16.8" spans="3:28">
+      <c r="C33" s="5">
+        <v>1000028</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>101</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5">
+        <v>102</v>
+      </c>
+      <c r="K33" s="10">
+        <v>2</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M33" s="5">
+        <v>4</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>1500</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T33" s="5">
+        <v>0</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="V33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="10">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="5"/>
+    </row>
+    <row r="34" spans="3:17">
+      <c r="C34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="3:17">
+      <c r="C35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="3:17">
+      <c r="C36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="124">
-  <si>
-    <t>#移动类型 MoveType 1移动2不移动</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="144">
+  <si>
+    <t>#移动类型 MoveType 1移动2不移动3瞬移</t>
   </si>
   <si>
     <t>技能的序号</t>
@@ -34,7 +34,13 @@
     <t>buff配置id</t>
   </si>
   <si>
-    <t>ActiveBuff配置id</t>
+    <t>ActiveBuff配置id条件</t>
+  </si>
+  <si>
+    <t>Buff伤害加成</t>
+  </si>
+  <si>
+    <t>BuffDamageAddition</t>
   </si>
   <si>
     <t>范围类型</t>
@@ -112,6 +118,12 @@
     <t>ActiveBuffCondition</t>
   </si>
   <si>
+    <t>BuffDamageAdditions</t>
+  </si>
+  <si>
+    <t>BuffDamageAdditionCondition</t>
+  </si>
+  <si>
     <t>RangeType</t>
   </si>
   <si>
@@ -181,18 +193,21 @@
     <t>0,0,0,0</t>
   </si>
   <si>
+    <t>1,1,1,1</t>
+  </si>
+  <si>
+    <t>电击</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/caopi_pugong1.prefab</t>
+  </si>
+  <si>
     <t>1,1,2,3</t>
   </si>
   <si>
-    <t>电击</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/caopi_pugong1.prefab</t>
-  </si>
-  <si>
     <t>轰雷</t>
   </si>
   <si>
@@ -310,9 +325,6 @@
     <t>Assets/Bundles/Effect/SKillEffect/simayi_huanxingshandian.prefab</t>
   </si>
   <si>
-    <t>1,1,1,1</t>
-  </si>
-  <si>
     <t>神王之怒</t>
   </si>
   <si>
@@ -331,6 +343,9 @@
     <t>Assets/Bundles/Effect/SKillEffect/daqiao_shouji.prefab</t>
   </si>
   <si>
+    <t>40,45,50,55</t>
+  </si>
+  <si>
     <t>华丽射击</t>
   </si>
   <si>
@@ -386,6 +401,51 @@
   </si>
   <si>
     <t>fx_hero_Poseidon_active_shouji</t>
+  </si>
+  <si>
+    <t>哈迪斯</t>
+  </si>
+  <si>
+    <t>灵魂击打</t>
+  </si>
+  <si>
+    <t>fx_hero_Hades_attack1_shifa</t>
+  </si>
+  <si>
+    <t>fx_hero_Hades_attack1_shouji</t>
+  </si>
+  <si>
+    <t>fx_hero_Hades_attack1_feixing</t>
+  </si>
+  <si>
+    <t>Bip001 Spine2</t>
+  </si>
+  <si>
+    <t>死亡恐惧</t>
+  </si>
+  <si>
+    <t>fx_hero_Hades_passive1_shifa</t>
+  </si>
+  <si>
+    <t>噬魂</t>
+  </si>
+  <si>
+    <t>fx_hero_Hades_passive2_shifa</t>
+  </si>
+  <si>
+    <t>fx_hero_Hades_passive2_shouji</t>
+  </si>
+  <si>
+    <t>Bip001 Spine1</t>
+  </si>
+  <si>
+    <t>虚空叹息</t>
+  </si>
+  <si>
+    <t>fx_hero_Hades_active_shifa</t>
+  </si>
+  <si>
+    <t>fx_hero_Hades_active_shouji</t>
   </si>
 </sst>
 </file>
@@ -393,10 +453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -442,29 +502,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,26 +538,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,9 +576,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,7 +618,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,30 +626,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,13 +670,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,13 +718,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,37 +748,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,73 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,6 +812,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -783,15 +843,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -813,8 +864,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,9 +896,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,162 +943,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,9 +1112,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="17" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="19" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1065,6 +1122,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="17" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1413,10 +1473,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:AC36"/>
+  <dimension ref="A3:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1425,27 +1485,29 @@
     <col min="2" max="2" width="12.7307692307692" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.4230769230769" style="3" customWidth="1"/>
     <col min="4" max="6" width="15.8653846153846" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.2211538461538" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.84615384615385" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.6730769230769" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.4230769230769" style="3" customWidth="1"/>
-    <col min="11" max="12" width="12.6346153846154" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.3653846153846" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.0865384615385" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.2980769230769" style="3" customWidth="1"/>
-    <col min="16" max="16" width="31.5576923076923" style="2" customWidth="1"/>
-    <col min="17" max="18" width="24.2019230769231" style="2" customWidth="1"/>
-    <col min="19" max="19" width="24.5096153846154" style="2" customWidth="1"/>
-    <col min="20" max="21" width="18.5865384615385" style="2" customWidth="1"/>
-    <col min="22" max="22" width="9.90384615384615" style="2" customWidth="1"/>
-    <col min="23" max="23" width="63.0865384615385" style="2" customWidth="1"/>
-    <col min="24" max="24" width="14.4519230769231" style="2" customWidth="1"/>
-    <col min="25" max="25" width="20.3653846153846" style="2" customWidth="1"/>
-    <col min="26" max="26" width="24.3653846153846" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="14.2596153846154" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.5865384615385" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.7403846153846" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.1442307692308" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.6730769230769" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.4230769230769" style="3" customWidth="1"/>
+    <col min="13" max="14" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.3653846153846" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.0865384615385" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.2980769230769" style="3" customWidth="1"/>
+    <col min="18" max="18" width="31.5576923076923" style="2" customWidth="1"/>
+    <col min="19" max="20" width="24.2019230769231" style="2" customWidth="1"/>
+    <col min="21" max="21" width="24.5096153846154" style="2" customWidth="1"/>
+    <col min="22" max="23" width="18.5865384615385" style="2" customWidth="1"/>
+    <col min="24" max="24" width="12.8173076923077" style="2" customWidth="1"/>
+    <col min="25" max="25" width="63.0865384615385" style="2" customWidth="1"/>
+    <col min="26" max="26" width="14.4519230769231" style="2" customWidth="1"/>
+    <col min="27" max="27" width="20.3653846153846" style="2" customWidth="1"/>
+    <col min="28" max="28" width="24.3653846153846" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:28">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1521,1969 +1583,2276 @@
       <c r="Z3" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="AA3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:28">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:28">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="6" ht="16.8" spans="3:26">
+    <row r="6" ht="16.8" spans="3:28">
       <c r="C6" s="5">
         <v>1000001</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="5">
+        <v>59</v>
+      </c>
+      <c r="G6" s="6">
+        <v>117</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="5">
         <v>1500</v>
       </c>
-      <c r="O6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="Q6" s="5">
         <v>1000</v>
       </c>
-      <c r="R6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S6" s="5"/>
+      <c r="R6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="5">
+        <v>1000</v>
+      </c>
       <c r="T6" s="5">
         <v>1000</v>
       </c>
-      <c r="U6" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W6" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="5"/>
     </row>
-    <row r="7" customFormat="1" ht="16.8" spans="3:26">
+    <row r="7" customFormat="1" ht="16.8" spans="3:28">
       <c r="C7" s="5">
         <v>1000002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5">
+        <v>63</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5">
         <v>2</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7" s="5">
+      <c r="N7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="5">
         <v>1500</v>
       </c>
-      <c r="O7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="Q7" s="5">
         <v>1000</v>
       </c>
-      <c r="R7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S7" s="5"/>
+      <c r="R7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1000</v>
+      </c>
       <c r="T7" s="5">
         <v>1000</v>
       </c>
-      <c r="U7" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W7" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="5"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.8" spans="3:26">
+    <row r="8" s="1" customFormat="1" ht="16.8" spans="3:28">
       <c r="C8" s="5">
         <v>1000003</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5">
         <v>3</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="5">
+      <c r="N8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="5">
         <v>2200</v>
       </c>
-      <c r="O8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="P8" s="5"/>
       <c r="Q8" s="5">
         <v>1000</v>
       </c>
-      <c r="R8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>64</v>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5">
+        <v>1000</v>
       </c>
       <c r="T8" s="5">
         <v>1000</v>
       </c>
-      <c r="U8" s="5">
-        <v>2000</v>
+      <c r="U8" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="V8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W8" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X8" s="5">
         <v>0</v>
       </c>
-      <c r="W8" s="5"/>
-      <c r="X8" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="5"/>
     </row>
-    <row r="9" ht="16.8" spans="3:26">
+    <row r="9" ht="16.8" spans="3:28">
       <c r="C9" s="5">
         <v>1000004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
         <v>4</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="5">
+      <c r="N9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="5">
         <v>2800</v>
       </c>
-      <c r="O9" s="5">
+      <c r="Q9" s="5">
         <v>2200</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R9" s="5">
+      <c r="R9" s="5"/>
+      <c r="S9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T9" s="5">
         <v>2400</v>
       </c>
-      <c r="S9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T9" s="5">
+      <c r="U9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V9" s="5">
         <v>2200</v>
       </c>
-      <c r="U9" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V9" s="5">
+      <c r="W9" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X9" s="5">
         <v>0</v>
       </c>
-      <c r="W9" s="5"/>
-      <c r="X9" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="5"/>
     </row>
-    <row r="10" ht="16.8" spans="3:26">
+    <row r="10" ht="16.8" spans="3:28">
       <c r="C10" s="7">
         <v>1000005</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7">
-        <v>1</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2000</v>
-      </c>
-      <c r="O10" s="7">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="7">
+        <v>2000</v>
+      </c>
+      <c r="Q10" s="7">
         <v>1200</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S10" s="7"/>
+      <c r="R10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1000</v>
+      </c>
       <c r="T10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7">
         <v>1200</v>
       </c>
-      <c r="U10" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="X10" s="10">
+      <c r="W10" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" s="9">
         <v>2</v>
       </c>
-      <c r="Y10" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="7"/>
+      <c r="AA10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="7"/>
     </row>
-    <row r="11" ht="16.8" spans="3:26">
+    <row r="11" ht="16.8" spans="3:28">
       <c r="C11" s="7">
         <v>1000006</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7">
         <v>2</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2000</v>
-      </c>
-      <c r="O11" s="7">
+      <c r="N11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7">
+        <v>2000</v>
+      </c>
+      <c r="Q11" s="7">
         <v>1300</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>73</v>
+      <c r="R11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1000</v>
       </c>
       <c r="T11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" s="7">
         <v>1300</v>
       </c>
-      <c r="U11" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="X11" s="10">
+      <c r="W11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z11" s="9">
         <v>2</v>
       </c>
-      <c r="Y11" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>75</v>
+      <c r="AA11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="12" ht="16.8" spans="3:26">
+    <row r="12" ht="16.8" spans="3:28">
       <c r="C12" s="7">
         <v>1000007</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7">
         <v>3</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12" s="7">
+      <c r="N12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="7">
         <v>1500</v>
       </c>
-      <c r="O12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>77</v>
+      <c r="Q12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1000</v>
       </c>
       <c r="T12" s="7">
         <v>1000</v>
       </c>
-      <c r="U12" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="10">
+      <c r="U12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="W12" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="9">
         <v>2</v>
       </c>
-      <c r="Y12" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="7"/>
+      <c r="AA12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="7"/>
     </row>
-    <row r="13" ht="16.8" spans="3:26">
+    <row r="13" ht="16.8" spans="3:28">
       <c r="C13" s="7">
         <v>1000008</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7">
         <v>4</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2000</v>
-      </c>
-      <c r="O13" s="7">
+      <c r="N13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7">
+        <v>2000</v>
+      </c>
+      <c r="Q13" s="7">
         <v>1500</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R13" s="7">
+      <c r="R13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T13" s="7">
         <v>1300</v>
       </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7">
+      <c r="U13" s="7"/>
+      <c r="V13" s="7">
         <v>1500</v>
       </c>
-      <c r="U13" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="10">
+      <c r="W13" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="9">
         <v>2</v>
       </c>
-      <c r="Y13" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="7"/>
+      <c r="AA13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="7"/>
     </row>
-    <row r="14" ht="16.8" spans="3:26">
+    <row r="14" ht="16.8" spans="3:28">
       <c r="C14" s="5">
         <v>1000009</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="5">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="5">
         <v>1500</v>
       </c>
-      <c r="O14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="P14" s="5"/>
       <c r="Q14" s="5">
         <v>1000</v>
       </c>
       <c r="R14" s="5"/>
-      <c r="S14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U14" s="5">
-        <v>2000</v>
+      <c r="S14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="V14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W14" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X14" s="5">
         <v>500</v>
       </c>
-      <c r="W14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="X14" s="9">
+      <c r="Y14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z14" s="8">
         <v>2</v>
       </c>
-      <c r="Y14" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="5"/>
+      <c r="AA14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="5"/>
     </row>
-    <row r="15" ht="16.8" spans="3:26">
+    <row r="15" ht="16.8" spans="3:28">
       <c r="C15" s="5">
         <v>1000010</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5">
         <v>2</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N15" s="5">
+      <c r="N15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="5">
         <v>1500</v>
       </c>
-      <c r="O15" s="5">
-        <v>1000</v>
-      </c>
-      <c r="P15" s="5"/>
       <c r="Q15" s="5">
         <v>1000</v>
       </c>
-      <c r="R15" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>79</v>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5">
+        <v>1000</v>
       </c>
       <c r="T15" s="5">
         <v>1000</v>
       </c>
-      <c r="U15" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="9">
+      <c r="U15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="V15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W15" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="8">
         <v>2</v>
       </c>
-      <c r="Y15" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="5"/>
+      <c r="AA15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="5"/>
     </row>
-    <row r="16" ht="16.8" spans="3:26">
+    <row r="16" ht="16.8" spans="3:28">
       <c r="C16" s="5">
         <v>1000011</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5">
         <v>3</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N16" s="5">
+      <c r="N16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="5">
         <v>2200</v>
       </c>
-      <c r="O16" s="5">
-        <v>1000</v>
-      </c>
-      <c r="P16" s="5"/>
       <c r="Q16" s="5">
         <v>1000</v>
       </c>
-      <c r="R16" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>79</v>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5">
+        <v>1000</v>
       </c>
       <c r="T16" s="5">
         <v>1000</v>
       </c>
-      <c r="U16" s="5">
-        <v>2000</v>
+      <c r="U16" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="V16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W16" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X16" s="5">
         <v>500</v>
       </c>
-      <c r="W16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="X16" s="9">
+      <c r="Y16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z16" s="8">
         <v>2</v>
       </c>
-      <c r="Y16" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="5"/>
+      <c r="AA16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="5"/>
     </row>
-    <row r="17" ht="16.8" spans="3:26">
+    <row r="17" ht="16.8" spans="3:28">
       <c r="C17" s="5">
         <v>1000012</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5">
         <v>4</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17" s="5">
+      <c r="N17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="5">
         <v>3200</v>
       </c>
-      <c r="O17" s="5">
+      <c r="Q17" s="5">
         <v>2200</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R17" s="5">
+      <c r="R17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T17" s="5">
         <v>2400</v>
       </c>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5">
+      <c r="U17" s="5"/>
+      <c r="V17" s="5">
         <v>2200</v>
       </c>
-      <c r="U17" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="9">
+      <c r="W17" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="8">
         <v>2</v>
       </c>
-      <c r="Z17" s="5"/>
+      <c r="AB17" s="5"/>
     </row>
-    <row r="18" ht="16.8" spans="3:29">
+    <row r="18" ht="16.8" spans="3:31">
       <c r="C18" s="7">
         <v>1000013</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10">
-        <v>1</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7">
-        <v>1</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N18" s="7">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="9">
+        <v>1</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="7">
         <v>3000</v>
       </c>
-      <c r="O18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>84</v>
+      <c r="Q18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S18" s="5">
+        <v>1000</v>
       </c>
       <c r="T18" s="7">
         <v>1000</v>
       </c>
-      <c r="U18" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="10">
+      <c r="U18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="V18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="W18" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="9">
         <v>2</v>
       </c>
-      <c r="Y18" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
+      <c r="AA18" s="9">
+        <v>1</v>
+      </c>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
     </row>
-    <row r="19" ht="16.8" spans="3:29">
+    <row r="19" ht="16.8" spans="3:31">
       <c r="C19" s="7">
         <v>1000014</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="9">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7">
         <v>2</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N19" s="7">
+      <c r="N19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="7">
         <v>1500</v>
       </c>
-      <c r="O19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S19" s="7"/>
+      <c r="Q19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S19" s="5">
+        <v>1000</v>
+      </c>
       <c r="T19" s="7">
         <v>1000</v>
       </c>
-      <c r="U19" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="W19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>1</v>
+      </c>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
     </row>
-    <row r="20" ht="16.8" spans="3:29">
+    <row r="20" ht="16.8" spans="3:31">
       <c r="C20" s="7">
         <v>1000015</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10">
-        <v>1</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="9">
+        <v>1</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7">
         <v>3</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N20" s="7">
+      <c r="N20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" s="7">
         <v>3000</v>
       </c>
-      <c r="O20" s="7">
-        <v>2000</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R20" s="7">
+      <c r="Q20" s="7">
+        <v>2000</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="S20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T20" s="7">
         <v>800</v>
       </c>
-      <c r="S20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="T20" s="7">
-        <v>2000</v>
-      </c>
-      <c r="U20" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="10">
+      <c r="U20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="V20" s="7">
+        <v>2000</v>
+      </c>
+      <c r="W20" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="9">
         <v>2</v>
       </c>
-      <c r="Y20" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
+      <c r="AA20" s="9">
+        <v>1</v>
+      </c>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
     </row>
-    <row r="21" ht="16.8" spans="3:29">
+    <row r="21" ht="16.8" spans="3:31">
       <c r="C21" s="7">
         <v>1000016</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10">
-        <v>1</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="9">
+        <v>1</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7">
         <v>4</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" s="7">
+      <c r="N21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" s="7">
         <v>2500</v>
       </c>
-      <c r="O21" s="7">
+      <c r="Q21" s="7">
         <v>1250</v>
       </c>
-      <c r="P21" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R21" s="7">
+      <c r="R21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="S21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T21" s="7">
         <v>500</v>
       </c>
-      <c r="S21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="T21" s="7">
+      <c r="U21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="V21" s="7">
         <v>1250</v>
       </c>
-      <c r="U21" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V21" s="7">
+      <c r="W21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X21" s="7">
         <v>1200</v>
       </c>
-      <c r="W21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="X21" s="10">
+      <c r="Y21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z21" s="9">
         <v>2</v>
       </c>
-      <c r="Y21" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
+      <c r="AA21" s="9">
+        <v>1</v>
+      </c>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
     </row>
-    <row r="22" ht="16.8" spans="3:26">
+    <row r="22" ht="16.8" spans="3:28">
       <c r="C22" s="5">
         <v>1000017</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G22" s="6">
         <v>116</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" s="5">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="8">
         <v>1</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N22" s="5">
-        <v>2000</v>
-      </c>
-      <c r="O22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="P22" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="5">
+        <v>2000</v>
+      </c>
       <c r="Q22" s="5">
         <v>1000</v>
       </c>
-      <c r="R22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>93</v>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5">
+        <v>1000</v>
       </c>
       <c r="T22" s="5">
         <v>1000</v>
       </c>
-      <c r="U22" s="5">
-        <v>2000</v>
+      <c r="U22" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="V22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W22" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X22" s="5">
         <v>500</v>
       </c>
-      <c r="W22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="X22" s="9">
+      <c r="Y22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z22" s="8">
         <v>2</v>
       </c>
-      <c r="Y22" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="5" t="s">
-        <v>75</v>
+      <c r="AA22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="23" ht="16.8" spans="3:26">
+    <row r="23" ht="16.8" spans="3:28">
       <c r="C23" s="5">
         <v>1000018</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G23" s="6">
         <v>124</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>116</v>
       </c>
-      <c r="I23" s="9">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" s="5">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" s="5">
         <v>2</v>
       </c>
-      <c r="L23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N23" s="5">
-        <v>2000</v>
-      </c>
-      <c r="O23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="P23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="5">
+        <v>2000</v>
+      </c>
       <c r="Q23" s="5">
         <v>1000</v>
       </c>
-      <c r="R23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>95</v>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5">
+        <v>1000</v>
       </c>
       <c r="T23" s="5">
         <v>1000</v>
       </c>
-      <c r="U23" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="9">
+      <c r="U23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V23" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W23" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="8">
         <v>2</v>
       </c>
-      <c r="Y23" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="5"/>
+      <c r="AA23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="5"/>
     </row>
-    <row r="24" ht="16.8" spans="3:26">
+    <row r="24" ht="16.8" spans="3:28">
       <c r="C24" s="5">
         <v>1000019</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G24" s="6">
         <v>124</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="6">
         <v>116</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="8">
         <v>2</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M24" s="5">
         <v>3</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N24" s="5">
-        <v>2000</v>
-      </c>
-      <c r="O24" s="5">
+      <c r="N24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q24" s="5">
         <v>800</v>
       </c>
-      <c r="P24" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R24" s="5">
-        <v>800</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>97</v>
+      <c r="R24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="S24" s="5">
+        <v>1000</v>
       </c>
       <c r="T24" s="5">
         <v>800</v>
       </c>
-      <c r="U24" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="5"/>
+      <c r="U24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V24" s="5">
+        <v>800</v>
+      </c>
+      <c r="W24" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="5"/>
     </row>
-    <row r="25" ht="16.8" spans="3:26">
+    <row r="25" ht="16.8" spans="3:28">
       <c r="C25" s="5">
         <v>1000020</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="G25" s="6">
         <v>124</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="6">
         <v>116</v>
       </c>
-      <c r="I25" s="9">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" s="5">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="8">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M25" s="5">
         <v>4</v>
       </c>
-      <c r="L25" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N25" s="5">
+      <c r="N25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="5">
         <v>3000</v>
       </c>
-      <c r="O25" s="5">
-        <v>2000</v>
-      </c>
-      <c r="P25" s="5"/>
       <c r="Q25" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T25" s="5">
         <v>2400</v>
       </c>
-      <c r="S25" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="T25" s="5">
-        <v>2000</v>
-      </c>
-      <c r="U25" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="9">
+      <c r="U25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="W25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="8">
         <v>2</v>
       </c>
-      <c r="Y25" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="5"/>
+      <c r="AA25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="5"/>
     </row>
-    <row r="26" ht="16.8" spans="3:26">
+    <row r="26" ht="16.8" spans="3:28">
       <c r="C26" s="7">
         <v>1000021</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10">
-        <v>1</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K26" s="7">
+        <v>63</v>
+      </c>
+      <c r="G26" s="6">
+        <v>115</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="9">
         <v>1</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1000</v>
-      </c>
-      <c r="O26" s="7">
+        <v>105</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Q26" s="7">
         <v>500</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R26" s="7">
+      <c r="R26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="S26" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T26" s="7">
         <v>0</v>
       </c>
-      <c r="S26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="T26" s="7">
+      <c r="U26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="V26" s="7">
         <v>500</v>
       </c>
-      <c r="U26" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="10">
+      <c r="W26" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="9">
         <v>2</v>
       </c>
-      <c r="Y26" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="7"/>
+      <c r="AA26" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="7"/>
     </row>
-    <row r="27" ht="16.8" spans="3:26">
+    <row r="27" ht="16.8" spans="3:28">
       <c r="C27" s="7">
         <v>1000022</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10">
-        <v>1</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K27" s="7">
-        <v>2</v>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="6">
+        <v>115</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N27" s="7">
-        <v>2000</v>
-      </c>
-      <c r="O27" s="7">
+      <c r="M27" s="7">
+        <v>2</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="7">
+        <v>2000</v>
+      </c>
+      <c r="Q27" s="7">
         <v>1300</v>
       </c>
-      <c r="P27" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R27" s="7">
+      <c r="R27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="S27" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T27" s="7">
         <v>800</v>
       </c>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7">
+      <c r="U27" s="7"/>
+      <c r="V27" s="7">
         <v>1300</v>
       </c>
-      <c r="U27" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="10">
+      <c r="W27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="9">
         <v>2</v>
       </c>
-      <c r="Y27" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="7"/>
+      <c r="AA27" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="7"/>
     </row>
-    <row r="28" ht="16.8" spans="3:26">
+    <row r="28" ht="16.8" spans="3:28">
       <c r="C28" s="7">
         <v>1000023</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10">
-        <v>1</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K28" s="7">
+        <v>63</v>
+      </c>
+      <c r="G28" s="6">
+        <v>115</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="9">
+        <v>1</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M28" s="7">
         <v>3</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N28" s="7">
-        <v>2000</v>
-      </c>
-      <c r="O28" s="7">
-        <v>1000</v>
-      </c>
-      <c r="P28" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R28" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S28" s="7"/>
+      <c r="N28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" s="7">
+        <v>2000</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S28" s="5">
+        <v>1000</v>
+      </c>
       <c r="T28" s="7">
         <v>1000</v>
       </c>
-      <c r="U28" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="10">
+      <c r="U28" s="7"/>
+      <c r="V28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="W28" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="9">
         <v>2</v>
       </c>
-      <c r="Y28" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="7"/>
+      <c r="AA28" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="7"/>
     </row>
-    <row r="29" ht="16.8" spans="3:26">
+    <row r="29" ht="16.8" spans="3:28">
       <c r="C29" s="7">
         <v>1000024</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="6">
+        <v>115</v>
+      </c>
+      <c r="K29" s="9">
         <v>2</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K29" s="7">
+      <c r="L29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" s="7">
         <v>4</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N29" s="7">
+      <c r="N29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" s="7">
         <v>3000</v>
       </c>
-      <c r="O29" s="7">
-        <v>2000</v>
-      </c>
-      <c r="P29" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R29" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S29" s="7"/>
+      <c r="Q29" s="7">
+        <v>2000</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="S29" s="5">
+        <v>1000</v>
+      </c>
       <c r="T29" s="7">
-        <v>2000</v>
-      </c>
-      <c r="U29" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="10">
+        <v>1000</v>
+      </c>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7">
+        <v>2000</v>
+      </c>
+      <c r="W29" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="9">
         <v>2</v>
       </c>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="7"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="7"/>
     </row>
-    <row r="30" ht="16.8" spans="3:26">
+    <row r="30" ht="16.8" spans="3:28">
       <c r="C30" s="5">
         <v>1000025</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9">
-        <v>1</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8">
         <v>1</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N30" s="5">
-        <v>2000</v>
-      </c>
-      <c r="O30" s="5">
+        <v>116</v>
+      </c>
+      <c r="M30" s="5">
+        <v>1</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q30" s="5">
         <v>800</v>
       </c>
-      <c r="P30" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R30" s="5">
+      <c r="R30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="S30" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T30" s="5">
         <v>200</v>
       </c>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5">
+      <c r="U30" s="5"/>
+      <c r="V30" s="5">
         <v>800</v>
       </c>
-      <c r="U30" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V30" s="5">
+      <c r="W30" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X30" s="5">
         <v>400</v>
       </c>
-      <c r="W30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="X30" s="9">
+      <c r="Y30" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z30" s="8">
         <v>2</v>
       </c>
-      <c r="Y30" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="5"/>
+      <c r="AA30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="5"/>
     </row>
-    <row r="31" ht="16.8" spans="3:26">
+    <row r="31" ht="16.8" spans="3:28">
       <c r="C31" s="5">
         <v>1000026</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9">
-        <v>1</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="K31" s="5">
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" s="5">
         <v>2</v>
       </c>
-      <c r="L31" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N31" s="5">
-        <v>2000</v>
-      </c>
-      <c r="O31" s="5">
+      <c r="N31" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q31" s="5">
         <v>1500</v>
       </c>
-      <c r="P31" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R31" s="5">
+      <c r="R31" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S31" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T31" s="5">
         <v>0</v>
       </c>
-      <c r="S31" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="T31" s="5">
+      <c r="U31" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="V31" s="5">
         <v>500</v>
       </c>
-      <c r="U31" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="9">
+      <c r="W31" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="8">
         <v>2</v>
       </c>
-      <c r="Y31" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="5"/>
+      <c r="AA31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="5"/>
     </row>
-    <row r="32" ht="16.8" spans="3:26">
+    <row r="32" ht="16.8" spans="3:28">
       <c r="C32" s="5">
         <v>1000027</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G32" s="5"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9">
-        <v>1</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="K32" s="5">
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8">
+        <v>1</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M32" s="5">
         <v>3</v>
       </c>
-      <c r="L32" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N32" s="5">
+      <c r="N32" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" s="5">
         <v>3000</v>
       </c>
-      <c r="O32" s="5">
-        <v>1000</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="Q32" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="S32" s="5">
         <v>2500</v>
       </c>
-      <c r="R32" s="5">
+      <c r="T32" s="5">
         <v>400</v>
       </c>
-      <c r="S32" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="T32" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U32" s="5">
-        <v>2000</v>
-      </c>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="5"/>
+      <c r="U32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="V32" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W32" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="5"/>
     </row>
-    <row r="33" ht="16.8" spans="3:26">
+    <row r="33" ht="16.8" spans="3:28">
       <c r="C33" s="5">
         <v>1000028</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9">
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8">
         <v>2</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="K33" s="5">
+      <c r="L33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" s="5">
         <v>4</v>
       </c>
-      <c r="L33" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N33" s="5">
+      <c r="N33" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" s="5">
         <v>3000</v>
       </c>
-      <c r="O33" s="5">
+      <c r="Q33" s="5">
         <v>1500</v>
       </c>
-      <c r="P33" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R33" s="5">
+      <c r="R33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="S33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T33" s="5">
         <v>0</v>
       </c>
-      <c r="S33" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="T33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="9">
+      <c r="U33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="V33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="8">
         <v>2</v>
       </c>
-      <c r="Y33" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="5"/>
+      <c r="AA33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="5"/>
     </row>
-    <row r="34" spans="3:15">
-      <c r="C34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+    <row r="34" ht="16.8" spans="3:28">
+      <c r="C34" s="5">
+        <v>1000029</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="S34" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T34" s="2">
+        <v>200</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="X34" s="2">
+        <v>600</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="35" spans="3:15">
-      <c r="C35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+    <row r="35" ht="16.8" spans="3:27">
+      <c r="C35" s="5">
+        <v>1000030</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" s="6">
+        <v>2</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M35" s="7">
+        <v>2</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="S35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W35" s="2">
+        <v>2000</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="3:15">
-      <c r="C36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+    <row r="36" ht="16.8" spans="3:28">
+      <c r="C36" s="5">
+        <v>1000031</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M36" s="7">
+        <v>3</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P36" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>1500</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S36" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T36" s="2">
+        <v>400</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="V36" s="2">
+        <v>800</v>
+      </c>
+      <c r="W36" s="2">
+        <v>2000</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" ht="16.8" spans="3:27">
+      <c r="C37" s="5">
+        <v>1000032</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="6">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M37" s="7">
+        <v>4</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S37" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="V37" s="2">
+        <v>3000</v>
+      </c>
+      <c r="W37" s="2">
+        <v>2000</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="151">
   <si>
     <t>#移动类型 MoveType 1移动2不移动3瞬移</t>
   </si>
@@ -34,6 +34,9 @@
     <t>buff配置id</t>
   </si>
   <si>
+    <t>生命值护盾百分比</t>
+  </si>
+  <si>
     <t>ActiveBuff配置id条件</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>BuffConfigIds</t>
   </si>
   <si>
+    <t>HealthShieldAdditions</t>
+  </si>
+  <si>
     <t>ActiveBuffCondition</t>
   </si>
   <si>
@@ -304,9 +310,6 @@
     <t>Assets/hero/hero_passive_feixing.prefab</t>
   </si>
   <si>
-    <t>2,3,3,3</t>
-  </si>
-  <si>
     <t>宙斯</t>
   </si>
   <si>
@@ -446,6 +449,24 @@
   </si>
   <si>
     <t>fx_hero_Hades_active_shouji</t>
+  </si>
+  <si>
+    <t>雅典娜</t>
+  </si>
+  <si>
+    <t>刺击</t>
+  </si>
+  <si>
+    <t>40,50,60,70</t>
+  </si>
+  <si>
+    <t>女神守护</t>
+  </si>
+  <si>
+    <t>回旋枪</t>
+  </si>
+  <si>
+    <t>女神制裁</t>
   </si>
 </sst>
 </file>
@@ -453,10 +474,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -502,7 +523,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,8 +551,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,7 +568,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -539,7 +576,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,13 +606,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,7 +615,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -594,22 +624,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -625,13 +639,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,7 +679,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDEBFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +703,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +733,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,121 +847,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,6 +879,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -861,11 +903,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,21 +963,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -946,152 +979,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1115,11 +1148,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="19" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="17" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1473,10 +1512,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:AE37"/>
+  <dimension ref="A3:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1486,28 +1525,28 @@
     <col min="3" max="3" width="18.4230769230769" style="3" customWidth="1"/>
     <col min="4" max="6" width="15.8653846153846" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.2596153846154" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.5865384615385" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.7403846153846" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.1442307692308" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.6730769230769" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.4230769230769" style="3" customWidth="1"/>
-    <col min="13" max="14" width="12.6346153846154" style="3" customWidth="1"/>
-    <col min="15" max="15" width="15.3653846153846" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.0865384615385" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.2980769230769" style="3" customWidth="1"/>
-    <col min="18" max="18" width="31.5576923076923" style="2" customWidth="1"/>
-    <col min="19" max="20" width="24.2019230769231" style="2" customWidth="1"/>
-    <col min="21" max="21" width="24.5096153846154" style="2" customWidth="1"/>
-    <col min="22" max="23" width="18.5865384615385" style="2" customWidth="1"/>
-    <col min="24" max="24" width="12.8173076923077" style="2" customWidth="1"/>
-    <col min="25" max="25" width="63.0865384615385" style="2" customWidth="1"/>
-    <col min="26" max="26" width="14.4519230769231" style="2" customWidth="1"/>
-    <col min="27" max="27" width="20.3653846153846" style="2" customWidth="1"/>
-    <col min="28" max="28" width="24.3653846153846" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="2"/>
+    <col min="8" max="9" width="18.5865384615385" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.7403846153846" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.1442307692308" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.6730769230769" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.4230769230769" style="3" customWidth="1"/>
+    <col min="14" max="15" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.3653846153846" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.0865384615385" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.2980769230769" style="3" customWidth="1"/>
+    <col min="19" max="19" width="31.5576923076923" style="2" customWidth="1"/>
+    <col min="20" max="21" width="24.2019230769231" style="2" customWidth="1"/>
+    <col min="22" max="22" width="24.5096153846154" style="2" customWidth="1"/>
+    <col min="23" max="24" width="18.5865384615385" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.8173076923077" style="2" customWidth="1"/>
+    <col min="26" max="26" width="63.0865384615385" style="2" customWidth="1"/>
+    <col min="27" max="27" width="14.4519230769231" style="2" customWidth="1"/>
+    <col min="28" max="28" width="20.3653846153846" style="2" customWidth="1"/>
+    <col min="29" max="29" width="24.3653846153846" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:29">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1589,185 +1628,194 @@
       <c r="AB3" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="AC3" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:29">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:29">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>57</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>57</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>57</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>57</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>57</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB5" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="AC5" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="6" ht="16.8" spans="3:28">
+    <row r="6" ht="16.8" spans="3:29">
       <c r="C6" s="5">
         <v>1000001</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G6" s="6">
         <v>117</v>
@@ -1775,1039 +1823,1055 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5">
-        <v>1</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>60</v>
+      <c r="K6" s="6"/>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
+        <v>1</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="5">
+        <v>62</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="5">
         <v>1500</v>
       </c>
-      <c r="Q6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" s="5">
-        <v>1000</v>
+      <c r="R6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="T6" s="5">
         <v>1000</v>
       </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5">
-        <v>1000</v>
-      </c>
+      <c r="U6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V6" s="5"/>
       <c r="W6" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X6" s="5"/>
+        <v>1000</v>
+      </c>
+      <c r="X6" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="8">
-        <v>1</v>
-      </c>
+      <c r="Z6" s="5"/>
       <c r="AA6" s="8">
         <v>1</v>
       </c>
-      <c r="AB6" s="5"/>
+      <c r="AB6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="5"/>
     </row>
-    <row r="7" customFormat="1" ht="16.8" spans="3:28">
+    <row r="7" customFormat="1" ht="16.8" spans="3:29">
       <c r="C7" s="5">
         <v>1000002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5">
+      <c r="K7" s="6"/>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5">
         <v>2</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="O7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="5">
         <v>1500</v>
       </c>
-      <c r="Q7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" s="5">
-        <v>1000</v>
+      <c r="R7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="T7" s="5">
         <v>1000</v>
       </c>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5">
-        <v>1000</v>
-      </c>
+      <c r="U7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V7" s="5"/>
       <c r="W7" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X7" s="5"/>
+        <v>1000</v>
+      </c>
+      <c r="X7" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="8">
-        <v>1</v>
-      </c>
+      <c r="Z7" s="5"/>
       <c r="AA7" s="8">
         <v>1</v>
       </c>
-      <c r="AB7" s="5"/>
+      <c r="AB7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="5"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.8" spans="3:28">
+    <row r="8" s="1" customFormat="1" ht="16.8" spans="3:29">
       <c r="C8" s="5">
         <v>1000003</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5">
+      <c r="K8" s="6"/>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5">
         <v>3</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="O8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="5">
+        <v>69</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="5">
         <v>2200</v>
       </c>
-      <c r="Q8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5">
-        <v>1000</v>
-      </c>
+      <c r="R8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S8" s="5"/>
       <c r="T8" s="5">
         <v>1000</v>
       </c>
-      <c r="U8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="V8" s="5">
-        <v>1000</v>
+      <c r="U8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="W8" s="5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="X8" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Y8" s="5">
         <v>0</v>
       </c>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="8">
-        <v>1</v>
-      </c>
+      <c r="Z8" s="5"/>
       <c r="AA8" s="8">
         <v>1</v>
       </c>
-      <c r="AB8" s="5"/>
+      <c r="AB8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="5"/>
     </row>
-    <row r="9" ht="16.8" spans="3:28">
+    <row r="9" ht="16.8" spans="3:29">
       <c r="C9" s="5">
         <v>1000004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5">
+      <c r="K9" s="6"/>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5">
         <v>4</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="O9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" s="5">
+        <v>72</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="5">
         <v>2800</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>2200</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5">
-        <v>1000</v>
-      </c>
+      <c r="S9" s="5"/>
       <c r="T9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U9" s="5">
         <v>2400</v>
       </c>
-      <c r="U9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="V9" s="5">
+      <c r="V9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9" s="5">
         <v>2200</v>
       </c>
-      <c r="W9" s="5">
-        <v>2000</v>
-      </c>
       <c r="X9" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Y9" s="5">
         <v>0</v>
       </c>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="8">
-        <v>1</v>
-      </c>
+      <c r="Z9" s="5"/>
       <c r="AA9" s="8">
         <v>1</v>
       </c>
-      <c r="AB9" s="5"/>
+      <c r="AB9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="5"/>
     </row>
-    <row r="10" ht="16.8" spans="3:28">
+    <row r="10" ht="16.8" spans="3:29">
       <c r="C10" s="7">
         <v>1000005</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="9">
-        <v>1</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>73</v>
+      <c r="K10" s="6"/>
+      <c r="L10" s="10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7">
+        <v>1</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" s="7">
-        <v>2000</v>
+        <v>75</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="Q10" s="7">
+        <v>2000</v>
+      </c>
+      <c r="R10" s="7">
         <v>1200</v>
       </c>
-      <c r="R10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="S10" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7">
+      <c r="S10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7">
         <v>1200</v>
       </c>
-      <c r="W10" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z10" s="9">
+      <c r="X10" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA10" s="10">
         <v>2</v>
       </c>
-      <c r="AA10" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="7"/>
+      <c r="AB10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="7"/>
     </row>
-    <row r="11" ht="16.8" spans="3:28">
+    <row r="11" ht="16.8" spans="3:29">
       <c r="C11" s="7">
         <v>1000006</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="9">
-        <v>1</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7">
+      <c r="K11" s="6"/>
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7">
         <v>2</v>
       </c>
-      <c r="N11" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="7">
-        <v>2000</v>
+        <v>78</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="Q11" s="7">
+        <v>2000</v>
+      </c>
+      <c r="R11" s="7">
         <v>1300</v>
       </c>
-      <c r="R11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="S11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="V11" s="7">
+      <c r="S11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="W11" s="7">
         <v>1300</v>
       </c>
-      <c r="W11" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z11" s="9">
+      <c r="X11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA11" s="10">
         <v>2</v>
       </c>
-      <c r="AA11" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="7" t="s">
-        <v>80</v>
+      <c r="AB11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="12" ht="16.8" spans="3:28">
+    <row r="12" ht="16.8" spans="3:29">
       <c r="C12" s="7">
         <v>1000007</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="9">
-        <v>1</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7">
+      <c r="K12" s="6"/>
+      <c r="L12" s="10">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7">
         <v>3</v>
       </c>
-      <c r="N12" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" s="7">
+        <v>69</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="7">
         <v>1500</v>
       </c>
-      <c r="Q12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="S12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="V12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="W12" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X12" s="7"/>
+      <c r="R12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="W12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="X12" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y12" s="7"/>
-      <c r="Z12" s="9">
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="10">
         <v>2</v>
       </c>
-      <c r="AA12" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="7"/>
+      <c r="AB12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="7"/>
     </row>
-    <row r="13" ht="16.8" spans="3:28">
+    <row r="13" ht="16.8" spans="3:29">
       <c r="C13" s="7">
         <v>1000008</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="9">
-        <v>1</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7">
+      <c r="K13" s="6"/>
+      <c r="L13" s="10">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7">
         <v>4</v>
       </c>
-      <c r="N13" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" s="7">
-        <v>2000</v>
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="Q13" s="7">
+        <v>2000</v>
+      </c>
+      <c r="R13" s="7">
         <v>1500</v>
       </c>
-      <c r="R13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="S13" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T13" s="7">
+      <c r="S13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U13" s="7">
         <v>1300</v>
       </c>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7">
+      <c r="V13" s="7"/>
+      <c r="W13" s="7">
         <v>1500</v>
       </c>
-      <c r="W13" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X13" s="7"/>
+      <c r="X13" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="9">
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="10">
         <v>2</v>
       </c>
-      <c r="AA13" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="7"/>
+      <c r="AB13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="7"/>
     </row>
-    <row r="14" ht="16.8" spans="3:28">
+    <row r="14" ht="16.8" spans="3:29">
       <c r="C14" s="5">
         <v>1000009</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="8">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>73</v>
+      <c r="K14" s="6"/>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <v>1</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="5">
+        <v>75</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="5">
         <v>1500</v>
       </c>
-      <c r="Q14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="V14" s="5">
-        <v>1000</v>
+      <c r="R14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="W14" s="5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="X14" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Y14" s="5">
         <v>500</v>
       </c>
-      <c r="Y14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z14" s="8">
+      <c r="Z14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA14" s="8">
         <v>2</v>
       </c>
-      <c r="AA14" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="5"/>
+      <c r="AB14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="5"/>
     </row>
-    <row r="15" ht="16.8" spans="3:28">
+    <row r="15" ht="16.8" spans="3:29">
       <c r="C15" s="5">
         <v>1000010</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="8">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5">
+      <c r="K15" s="6"/>
+      <c r="L15" s="8">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5">
         <v>2</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="O15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P15" s="5">
+        <v>78</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="5">
         <v>1500</v>
       </c>
-      <c r="Q15" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5">
-        <v>1000</v>
-      </c>
+      <c r="R15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S15" s="5"/>
       <c r="T15" s="5">
         <v>1000</v>
       </c>
-      <c r="U15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="V15" s="5">
-        <v>1000</v>
+      <c r="U15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="W15" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X15" s="5"/>
+        <v>1000</v>
+      </c>
+      <c r="X15" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="8">
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="8">
         <v>2</v>
       </c>
-      <c r="AA15" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="5"/>
+      <c r="AB15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="5"/>
     </row>
-    <row r="16" ht="16.8" spans="3:28">
+    <row r="16" ht="16.8" spans="3:29">
       <c r="C16" s="5">
         <v>1000011</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="8">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5">
+      <c r="K16" s="6"/>
+      <c r="L16" s="8">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5">
         <v>3</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="O16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" s="5">
+        <v>69</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="5">
         <v>2200</v>
       </c>
-      <c r="Q16" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5">
-        <v>1000</v>
-      </c>
+      <c r="R16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S16" s="5"/>
       <c r="T16" s="5">
         <v>1000</v>
       </c>
-      <c r="U16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="V16" s="5">
-        <v>1000</v>
+      <c r="U16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="W16" s="5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="X16" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Y16" s="5">
         <v>500</v>
       </c>
-      <c r="Y16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z16" s="8">
+      <c r="Z16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA16" s="8">
         <v>2</v>
       </c>
-      <c r="AA16" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="5"/>
+      <c r="AB16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="5"/>
     </row>
-    <row r="17" ht="16.8" spans="3:28">
+    <row r="17" ht="16.8" spans="3:29">
       <c r="C17" s="5">
         <v>1000012</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="8">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5">
+      <c r="K17" s="6"/>
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5">
         <v>4</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="O17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" s="5">
+        <v>72</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="5">
         <v>3200</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="R17" s="5">
         <v>2200</v>
       </c>
-      <c r="R17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="S17" s="5">
-        <v>1000</v>
+      <c r="S17" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="T17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U17" s="5">
         <v>2400</v>
       </c>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5">
+      <c r="V17" s="5"/>
+      <c r="W17" s="5">
         <v>2200</v>
       </c>
-      <c r="W17" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X17" s="5"/>
+      <c r="X17" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y17" s="5"/>
-      <c r="Z17" s="8">
-        <v>1</v>
-      </c>
+      <c r="Z17" s="5"/>
       <c r="AA17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="8">
         <v>2</v>
       </c>
-      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
     </row>
-    <row r="18" ht="16.8" spans="3:31">
+    <row r="18" ht="16.8" spans="3:32">
       <c r="C18" s="7">
         <v>1000013</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="9">
-        <v>1</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>73</v>
+      <c r="K18" s="6"/>
+      <c r="L18" s="10">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7">
+        <v>1</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18" s="7">
+        <v>75</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="7">
         <v>3000</v>
       </c>
-      <c r="Q18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="S18" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="U18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="V18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="W18" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X18" s="7"/>
+      <c r="R18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="T18" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="W18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="X18" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="9">
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="10">
         <v>2</v>
       </c>
-      <c r="AA18" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="7"/>
+      <c r="AB18" s="10">
+        <v>1</v>
+      </c>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
     </row>
-    <row r="19" ht="16.8" spans="3:31">
+    <row r="19" ht="16.8" spans="3:32">
       <c r="C19" s="7">
         <v>1000014</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="9">
-        <v>1</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7">
+      <c r="K19" s="6"/>
+      <c r="L19" s="10">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7">
         <v>2</v>
       </c>
-      <c r="N19" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="O19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P19" s="7">
+        <v>78</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="7">
         <v>1500</v>
       </c>
-      <c r="Q19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S19" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="W19" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X19" s="7"/>
+      <c r="R19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="T19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="X19" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="10">
+        <v>1</v>
+      </c>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
     </row>
-    <row r="20" ht="16.8" spans="3:31">
+    <row r="20" ht="16.8" spans="3:32">
       <c r="C20" s="7">
         <v>1000015</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="9">
-        <v>1</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7">
+      <c r="K20" s="6"/>
+      <c r="L20" s="10">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7">
         <v>3</v>
       </c>
-      <c r="N20" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="O20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" s="7">
+        <v>69</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q20" s="7">
         <v>3000</v>
       </c>
-      <c r="Q20" s="7">
-        <v>2000</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="S20" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T20" s="7">
+      <c r="R20" s="7">
+        <v>2000</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="T20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U20" s="7">
         <v>800</v>
       </c>
-      <c r="U20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="V20" s="7">
-        <v>2000</v>
-      </c>
-      <c r="W20" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X20" s="7"/>
+      <c r="V20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="W20" s="7">
+        <v>2000</v>
+      </c>
+      <c r="X20" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y20" s="7"/>
-      <c r="Z20" s="9">
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="10">
         <v>2</v>
       </c>
-      <c r="AA20" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="7"/>
+      <c r="AB20" s="10">
+        <v>1</v>
+      </c>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
     </row>
-    <row r="21" ht="16.8" spans="3:31">
+    <row r="21" ht="16.8" spans="3:32">
       <c r="C21" s="7">
         <v>1000016</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="9">
-        <v>1</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7">
+      <c r="K21" s="6"/>
+      <c r="L21" s="10">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7">
         <v>4</v>
       </c>
-      <c r="N21" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="O21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P21" s="7">
+        <v>72</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="7">
         <v>2500</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="R21" s="7">
         <v>1250</v>
       </c>
-      <c r="R21" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="S21" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T21" s="7">
+      <c r="S21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="T21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U21" s="7">
         <v>500</v>
       </c>
-      <c r="U21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="V21" s="7">
+      <c r="V21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="W21" s="7">
         <v>1250</v>
       </c>
-      <c r="W21" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X21" s="7">
+      <c r="X21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Y21" s="7">
         <v>1200</v>
       </c>
-      <c r="Y21" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z21" s="9">
+      <c r="Z21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA21" s="10">
         <v>2</v>
       </c>
-      <c r="AA21" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="7"/>
+      <c r="AB21" s="10">
+        <v>1</v>
+      </c>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
     </row>
-    <row r="22" ht="16.8" spans="3:28">
+    <row r="22" ht="16.8" spans="3:29">
       <c r="C22" s="5">
         <v>1000017</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G22" s="6">
         <v>116</v>
@@ -2815,277 +2879,275 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="8">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M22" s="5">
-        <v>1</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>60</v>
+      <c r="K22" s="6"/>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="5">
-        <v>2000</v>
+        <v>62</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="Q22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5">
-        <v>1000</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="R22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S22" s="5"/>
       <c r="T22" s="5">
         <v>1000</v>
       </c>
-      <c r="U22" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="V22" s="5">
-        <v>1000</v>
+      <c r="U22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="W22" s="5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="X22" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Y22" s="5">
         <v>500</v>
       </c>
-      <c r="Y22" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z22" s="8">
+      <c r="Z22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA22" s="8">
         <v>2</v>
       </c>
-      <c r="AA22" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="5" t="s">
-        <v>80</v>
+      <c r="AB22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="23" ht="16.8" spans="3:28">
+    <row r="23" ht="16.8" spans="3:29">
       <c r="C23" s="5">
         <v>1000018</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G23" s="6">
         <v>124</v>
       </c>
-      <c r="H23" s="6">
-        <v>116</v>
-      </c>
+      <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="8">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M23" s="5">
+      <c r="K23" s="6"/>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N23" s="5">
         <v>2</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="O23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P23" s="5">
-        <v>2000</v>
+        <v>66</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="Q23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5">
-        <v>1000</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="R23" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S23" s="5"/>
       <c r="T23" s="5">
         <v>1000</v>
       </c>
-      <c r="U23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="V23" s="5">
-        <v>1000</v>
+      <c r="U23" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="W23" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X23" s="5"/>
+        <v>1000</v>
+      </c>
+      <c r="X23" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y23" s="5"/>
-      <c r="Z23" s="8">
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="8">
         <v>2</v>
       </c>
-      <c r="AA23" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="5"/>
+      <c r="AB23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="5"/>
     </row>
-    <row r="24" ht="16.8" spans="3:28">
+    <row r="24" ht="16.8" spans="3:29">
       <c r="C24" s="5">
         <v>1000019</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G24" s="6">
         <v>124</v>
       </c>
-      <c r="H24" s="6">
-        <v>116</v>
-      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="8">
+      <c r="K24" s="6"/>
+      <c r="L24" s="8">
         <v>2</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M24" s="5">
+      <c r="M24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N24" s="5">
         <v>3</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="O24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" s="5">
-        <v>2000</v>
+        <v>102</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="Q24" s="5">
+        <v>2000</v>
+      </c>
+      <c r="R24" s="5">
         <v>800</v>
       </c>
-      <c r="R24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="S24" s="5">
-        <v>1000</v>
+      <c r="S24" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="T24" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U24" s="5">
         <v>800</v>
       </c>
-      <c r="U24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="V24" s="5">
+      <c r="V24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="W24" s="5">
         <v>800</v>
       </c>
-      <c r="W24" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X24" s="5"/>
+      <c r="X24" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y24" s="5"/>
-      <c r="Z24" s="8">
-        <v>1</v>
-      </c>
+      <c r="Z24" s="5"/>
       <c r="AA24" s="8">
         <v>1</v>
       </c>
-      <c r="AB24" s="5"/>
+      <c r="AB24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="5"/>
     </row>
-    <row r="25" ht="16.8" spans="3:28">
+    <row r="25" ht="16.8" spans="3:29">
       <c r="C25" s="5">
         <v>1000020</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G25" s="6">
         <v>124</v>
       </c>
-      <c r="H25" s="6">
-        <v>116</v>
-      </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="8">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M25" s="5">
+      <c r="K25" s="6"/>
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N25" s="5">
         <v>4</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="O25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P25" s="5">
+        <v>104</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q25" s="5">
         <v>3000</v>
       </c>
-      <c r="Q25" s="5">
-        <v>2000</v>
-      </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5">
-        <v>1000</v>
-      </c>
+      <c r="R25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S25" s="5"/>
       <c r="T25" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U25" s="5">
         <v>2400</v>
       </c>
-      <c r="U25" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="V25" s="5">
-        <v>2000</v>
+      <c r="V25" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="W25" s="5">
         <v>2000</v>
       </c>
-      <c r="X25" s="5"/>
+      <c r="X25" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y25" s="5"/>
-      <c r="Z25" s="8">
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="8">
         <v>2</v>
       </c>
-      <c r="AA25" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="5"/>
+      <c r="AB25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="5"/>
     </row>
-    <row r="26" ht="16.8" spans="3:28">
+    <row r="26" ht="16.8" spans="3:29">
       <c r="C26" s="7">
         <v>1000021</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G26" s="6">
         <v>115</v>
@@ -3093,135 +3155,137 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="9">
-        <v>1</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7" t="s">
+      <c r="K26" s="6"/>
+      <c r="L26" s="10">
+        <v>1</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="N26" s="7">
+        <v>1</v>
+      </c>
       <c r="O26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P26" s="7">
-        <v>1000</v>
+        <v>107</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="Q26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R26" s="7">
         <v>500</v>
       </c>
-      <c r="R26" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="S26" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T26" s="7">
+      <c r="S26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="T26" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U26" s="7">
         <v>0</v>
       </c>
-      <c r="U26" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="V26" s="7">
+      <c r="V26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="W26" s="7">
         <v>500</v>
       </c>
-      <c r="W26" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X26" s="7"/>
+      <c r="X26" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="9">
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="10">
         <v>2</v>
       </c>
-      <c r="AA26" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="7"/>
+      <c r="AB26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="7"/>
     </row>
-    <row r="27" ht="16.8" spans="3:28">
+    <row r="27" ht="16.8" spans="3:29">
       <c r="C27" s="7">
         <v>1000022</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J27" s="6">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="6">
         <v>115</v>
       </c>
-      <c r="K27" s="9">
-        <v>1</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="L27" s="10">
+        <v>1</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N27" s="7">
         <v>2</v>
       </c>
-      <c r="N27" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="O27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P27" s="7">
-        <v>2000</v>
+        <v>111</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="Q27" s="7">
+        <v>2000</v>
+      </c>
+      <c r="R27" s="7">
         <v>1300</v>
       </c>
-      <c r="R27" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="S27" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T27" s="7">
+      <c r="S27" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="T27" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U27" s="7">
         <v>800</v>
       </c>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7">
+      <c r="V27" s="7"/>
+      <c r="W27" s="7">
         <v>1300</v>
       </c>
-      <c r="W27" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X27" s="7"/>
+      <c r="X27" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="9">
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="10">
         <v>2</v>
       </c>
-      <c r="AA27" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="7"/>
+      <c r="AB27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="7"/>
     </row>
-    <row r="28" ht="16.8" spans="3:28">
+    <row r="28" ht="16.8" spans="3:29">
       <c r="C28" s="7">
         <v>1000023</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G28" s="6">
         <v>115</v>
@@ -3229,628 +3293,884 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="9">
-        <v>1</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M28" s="7">
+      <c r="K28" s="6"/>
+      <c r="L28" s="10">
+        <v>1</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N28" s="7">
         <v>3</v>
       </c>
-      <c r="N28" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="O28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P28" s="7">
-        <v>2000</v>
+        <v>113</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="Q28" s="7">
-        <v>1000</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="S28" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T28" s="7">
-        <v>1000</v>
-      </c>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7">
-        <v>1000</v>
-      </c>
-      <c r="W28" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X28" s="7"/>
+        <v>2000</v>
+      </c>
+      <c r="R28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="T28" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="X28" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="9">
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="10">
         <v>2</v>
       </c>
-      <c r="AA28" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="7"/>
+      <c r="AB28" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="7"/>
     </row>
-    <row r="29" ht="16.8" spans="3:28">
+    <row r="29" ht="16.8" spans="3:29">
       <c r="C29" s="7">
         <v>1000024</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J29" s="6">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="6">
         <v>115</v>
       </c>
-      <c r="K29" s="9">
+      <c r="L29" s="10">
         <v>2</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M29" s="7">
+      <c r="M29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N29" s="7">
         <v>4</v>
       </c>
-      <c r="N29" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="O29" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P29" s="7">
+        <v>115</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q29" s="7">
         <v>3000</v>
       </c>
-      <c r="Q29" s="7">
-        <v>2000</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="S29" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T29" s="7">
-        <v>1000</v>
-      </c>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7">
-        <v>2000</v>
-      </c>
-      <c r="W29" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X29" s="7"/>
+      <c r="R29" s="7">
+        <v>2000</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="T29" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7">
+        <v>2000</v>
+      </c>
+      <c r="X29" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y29" s="7"/>
-      <c r="Z29" s="9">
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="10">
         <v>2</v>
       </c>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="7"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="7"/>
     </row>
-    <row r="30" ht="16.8" spans="3:28">
+    <row r="30" ht="16.8" spans="3:29">
       <c r="C30" s="5">
         <v>1000025</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="8">
-        <v>1</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M30" s="5">
-        <v>1</v>
-      </c>
-      <c r="N30" s="5" t="s">
+      <c r="K30" s="8"/>
+      <c r="L30" s="8">
+        <v>1</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>117</v>
       </c>
+      <c r="N30" s="5">
+        <v>1</v>
+      </c>
       <c r="O30" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P30" s="5">
-        <v>2000</v>
+        <v>118</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="Q30" s="5">
+        <v>2000</v>
+      </c>
+      <c r="R30" s="5">
         <v>800</v>
       </c>
-      <c r="R30" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="S30" s="5">
-        <v>1000</v>
+      <c r="S30" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="T30" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U30" s="5">
         <v>200</v>
       </c>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5">
+      <c r="V30" s="5"/>
+      <c r="W30" s="5">
         <v>800</v>
       </c>
-      <c r="W30" s="5">
-        <v>2000</v>
-      </c>
       <c r="X30" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Y30" s="5">
         <v>400</v>
       </c>
-      <c r="Y30" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z30" s="8">
+      <c r="Z30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA30" s="8">
         <v>2</v>
       </c>
-      <c r="AA30" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="5"/>
+      <c r="AB30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="5"/>
     </row>
-    <row r="31" ht="16.8" spans="3:28">
+    <row r="31" ht="16.8" spans="3:29">
       <c r="C31" s="5">
         <v>1000026</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="8">
-        <v>1</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M31" s="5">
+      <c r="K31" s="8"/>
+      <c r="L31" s="8">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N31" s="5">
         <v>2</v>
       </c>
-      <c r="N31" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="O31" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P31" s="5">
-        <v>2000</v>
+        <v>121</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="Q31" s="5">
+        <v>2000</v>
+      </c>
+      <c r="R31" s="5">
         <v>1500</v>
       </c>
-      <c r="R31" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="S31" s="5">
-        <v>1000</v>
+      <c r="S31" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="T31" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U31" s="5">
         <v>0</v>
       </c>
-      <c r="U31" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="V31" s="5">
+      <c r="V31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="W31" s="5">
         <v>500</v>
       </c>
-      <c r="W31" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X31" s="5"/>
+      <c r="X31" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y31" s="5"/>
-      <c r="Z31" s="8">
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="8">
         <v>2</v>
       </c>
-      <c r="AA31" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="5"/>
+      <c r="AB31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="5"/>
     </row>
-    <row r="32" ht="16.8" spans="3:28">
+    <row r="32" ht="16.8" spans="3:29">
       <c r="C32" s="5">
         <v>1000027</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="8">
-        <v>1</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M32" s="5">
+      <c r="K32" s="8"/>
+      <c r="L32" s="8">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N32" s="5">
         <v>3</v>
       </c>
-      <c r="N32" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="O32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="P32" s="5">
+        <v>124</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q32" s="5">
         <v>3000</v>
       </c>
-      <c r="Q32" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="S32" s="5">
+      <c r="R32" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T32" s="5">
         <v>2500</v>
       </c>
-      <c r="T32" s="5">
+      <c r="U32" s="5">
         <v>400</v>
       </c>
-      <c r="U32" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="V32" s="5">
-        <v>1000</v>
+      <c r="V32" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="W32" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X32" s="5"/>
+        <v>1000</v>
+      </c>
+      <c r="X32" s="5">
+        <v>2000</v>
+      </c>
       <c r="Y32" s="5"/>
-      <c r="Z32" s="8">
-        <v>1</v>
-      </c>
+      <c r="Z32" s="5"/>
       <c r="AA32" s="8">
         <v>1</v>
       </c>
-      <c r="AB32" s="5"/>
+      <c r="AB32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="5"/>
     </row>
-    <row r="33" ht="16.8" spans="3:28">
+    <row r="33" ht="16.8" spans="3:29">
       <c r="C33" s="5">
         <v>1000028</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="8">
+      <c r="K33" s="8"/>
+      <c r="L33" s="8">
         <v>2</v>
       </c>
-      <c r="L33" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M33" s="5">
+      <c r="M33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N33" s="5">
         <v>4</v>
       </c>
-      <c r="N33" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="O33" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P33" s="5">
+        <v>127</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q33" s="5">
         <v>3000</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="R33" s="5">
         <v>1500</v>
       </c>
-      <c r="R33" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="S33" s="5">
-        <v>1000</v>
+      <c r="S33" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="T33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U33" s="5">
         <v>0</v>
       </c>
-      <c r="U33" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="V33" s="5">
-        <v>1000</v>
+      <c r="V33" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="W33" s="5">
         <v>1000</v>
       </c>
-      <c r="X33" s="5"/>
+      <c r="X33" s="5">
+        <v>1000</v>
+      </c>
       <c r="Y33" s="5"/>
-      <c r="Z33" s="8">
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="8">
         <v>2</v>
       </c>
-      <c r="AA33" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="5"/>
+      <c r="AB33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="5"/>
     </row>
-    <row r="34" ht="16.8" spans="3:28">
+    <row r="34" ht="16.8" spans="3:29">
       <c r="C34" s="5">
         <v>1000029</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="6">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K34" s="6">
-        <v>1</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M34" s="7">
-        <v>1</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P34" s="3">
+      <c r="Q34" s="3">
         <v>1500</v>
       </c>
-      <c r="Q34" s="2">
-        <v>1000</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="S34" s="2">
+      <c r="R34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="T34" s="2">
         <v>1500</v>
       </c>
-      <c r="T34" s="2">
+      <c r="U34" s="2">
         <v>200</v>
       </c>
-      <c r="U34" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="V34" s="2">
-        <v>1000</v>
+      <c r="V34" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="W34" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="X34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="Y34" s="2">
         <v>600</v>
       </c>
-      <c r="Y34" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z34" s="2">
+      <c r="Z34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA34" s="2">
         <v>2</v>
       </c>
-      <c r="AA34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="12" t="s">
-        <v>134</v>
+      <c r="AB34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="35" ht="16.8" spans="3:27">
+    <row r="35" ht="16.8" spans="3:28">
       <c r="C35" s="5">
         <v>1000030</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K35" s="6">
+        <v>65</v>
+      </c>
+      <c r="L35" s="6">
         <v>2</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M35" s="7">
+      <c r="M35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N35" s="7">
         <v>2</v>
       </c>
-      <c r="N35" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="O35" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="2">
-        <v>1000</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="R35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T35" s="3">
         <v>1500</v>
       </c>
-      <c r="T35" s="2">
+      <c r="U35" s="2">
         <v>0</v>
       </c>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2">
-        <v>1000</v>
-      </c>
       <c r="W35" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Z35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="X35" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AA35" s="2">
         <v>2</v>
       </c>
-      <c r="AA35" s="2">
+      <c r="AB35" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="16.8" spans="3:28">
+    <row r="36" ht="16.8" spans="3:29">
       <c r="C36" s="5">
         <v>1000031</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" s="6">
-        <v>1</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M36" s="7">
+        <v>65</v>
+      </c>
+      <c r="L36" s="6">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N36" s="7">
         <v>3</v>
       </c>
-      <c r="N36" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P36" s="3">
+      <c r="O36" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q36" s="3">
         <v>1500</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="R36" s="2">
         <v>1500</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S36" s="3">
+      <c r="S36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T36" s="3">
         <v>1500</v>
       </c>
-      <c r="T36" s="2">
+      <c r="U36" s="2">
         <v>400</v>
       </c>
-      <c r="U36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V36" s="2">
+      <c r="V36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="W36" s="2">
         <v>800</v>
       </c>
-      <c r="W36" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Z36" s="2">
+      <c r="X36" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AA36" s="2">
         <v>3</v>
       </c>
-      <c r="AA36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="12" t="s">
-        <v>140</v>
+      <c r="AB36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="37" ht="16.8" spans="3:27">
+    <row r="37" ht="16.8" spans="3:28">
       <c r="C37" s="5">
         <v>1000032</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37" s="6">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N37" s="7">
+        <v>4</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R37" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T37" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="W37" s="2">
+        <v>3000</v>
+      </c>
+      <c r="X37" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="16.8" spans="3:29">
+      <c r="C38" s="5">
+        <v>1000033</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L38" s="6">
+        <v>1</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N38" s="7">
+        <v>1</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="P38" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K37" s="6">
-        <v>1</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M37" s="7">
+      <c r="Q38" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="T38" s="2">
+        <v>1500</v>
+      </c>
+      <c r="U38" s="2">
+        <v>200</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="W38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="X38" s="2">
+        <v>2000</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>600</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" ht="16.8" spans="3:28">
+      <c r="C39" s="5">
+        <v>1000034</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="9">
+        <v>110</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L39" s="6">
         <v>4</v>
       </c>
-      <c r="N37" s="10" t="s">
+      <c r="M39" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N39" s="7">
+        <v>2</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T39" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="X39" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="16.8" spans="3:29">
+      <c r="C40" s="5">
+        <v>1000035</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="6">
+        <v>1</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N40" s="7">
+        <v>3</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R40" s="2">
+        <v>1500</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T40" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U40" s="2">
+        <v>400</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="W40" s="2">
+        <v>800</v>
+      </c>
+      <c r="X40" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="O37" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P37" s="3">
+    </row>
+    <row r="41" ht="16.8" spans="3:28">
+      <c r="C41" s="5">
+        <v>1000036</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L41" s="6">
+        <v>1</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N41" s="7">
+        <v>4</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q41" s="3">
         <v>4000</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="R41" s="3">
         <v>3600</v>
       </c>
-      <c r="R37" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="S37" s="3">
+      <c r="S41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T41" s="3">
         <v>4000</v>
       </c>
-      <c r="T37" s="2">
+      <c r="U41" s="2">
         <v>0</v>
       </c>
-      <c r="U37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="V37" s="2">
+      <c r="V41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="W41" s="2">
         <v>3000</v>
       </c>
-      <c r="W37" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Z37" s="2">
+      <c r="X41" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AA41" s="2">
         <v>2</v>
       </c>
-      <c r="AA37" s="2">
+      <c r="AB41" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="152">
   <si>
     <t>#移动类型 MoveType 1移动2不移动3瞬移</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>刺击</t>
+  </si>
+  <si>
+    <t>2,2,2,3</t>
   </si>
   <si>
     <t>40,50,60,70</t>
@@ -536,11 +539,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,10 +555,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -567,16 +570,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,7 +596,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,30 +625,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -646,9 +633,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -703,7 +706,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,49 +850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,103 +862,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,6 +887,54 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,30 +971,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -952,169 +979,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1515,7 +1518,7 @@
   <dimension ref="A3:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4002,13 +4005,13 @@
         <v>60</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="G39" s="9">
         <v>110</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L39" s="6">
         <v>4</v>
@@ -4020,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>67</v>
@@ -4076,7 +4079,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>70</v>
@@ -4138,7 +4141,7 @@
         <v>4</v>
       </c>
       <c r="O41" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>73</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="176">
+  <si>
+    <t>#</t>
+  </si>
   <si>
     <t>#移动类型 MoveType 1移动2不移动3瞬移</t>
   </si>
@@ -49,6 +52,9 @@
     <t>范围类型</t>
   </si>
   <si>
+    <t>特效是否完成</t>
+  </si>
+  <si>
     <t>所属英雄</t>
   </si>
   <si>
@@ -70,6 +76,15 @@
     <t>技能特效</t>
   </si>
   <si>
+    <t>技能特效骨骼名称</t>
+  </si>
+  <si>
+    <t>技能特效2</t>
+  </si>
+  <si>
+    <t>技能特效骨骼名称2</t>
+  </si>
+  <si>
     <t>特效持续时长</t>
   </si>
   <si>
@@ -133,6 +148,9 @@
     <t>RangeType</t>
   </si>
   <si>
+    <t>IsOverEffect</t>
+  </si>
+  <si>
     <t>OwnerHeroName</t>
   </si>
   <si>
@@ -154,6 +172,15 @@
     <t>SkillEffect</t>
   </si>
   <si>
+    <t>SkillEffectBoneName</t>
+  </si>
+  <si>
+    <t>SkillEffect2</t>
+  </si>
+  <si>
+    <t>SkillEffectBioneName2</t>
+  </si>
+  <si>
     <t>SkillEffectTime</t>
   </si>
   <si>
@@ -193,6 +220,9 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -208,7 +238,7 @@
     <t>Attack</t>
   </si>
   <si>
-    <t>Assets/Bundles/Effect/SKillEffect/caopi_pugong1.prefab</t>
+    <t>caopi_pugong1</t>
   </si>
   <si>
     <t>1,1,2,3</t>
@@ -220,7 +250,7 @@
     <t>Skill1</t>
   </si>
   <si>
-    <t>Assets/Bundles/Effect/SKillEffect/caoren_yishoudaigong.prefab</t>
+    <t>caoren_yishoudaigong</t>
   </si>
   <si>
     <t>技能2</t>
@@ -229,7 +259,7 @@
     <t>Skill2</t>
   </si>
   <si>
-    <t>Assets/Bundles/Effect/SKillEffect/zhangfei_leitingyiji.prefab</t>
+    <t>zhangfei_leitingyiji</t>
   </si>
   <si>
     <t>必杀技</t>
@@ -238,100 +268,100 @@
     <t>BigSkill</t>
   </si>
   <si>
-    <t>Assets/Bundles/Effect/SKillEffect/toushiche_bao.prefab</t>
+    <t>toushiche_bao</t>
   </si>
   <si>
     <t>普通攻击</t>
   </si>
   <si>
-    <t>Assets/Bundles/Effect/SKillEffect/sunshangxiang_pugong_shejian.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/sunshangxiang_pugong.prefab</t>
+    <t>sunshangxiang_pugong_shejian</t>
+  </si>
+  <si>
+    <t>sunshangxiang_pugong</t>
   </si>
   <si>
     <t>技能1</t>
   </si>
   <si>
-    <t>Assets/Bundles/Effect/SKillEffect/sunshangxiang_jifengjian_fashe.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/boss03_bingdong_pugong.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/sunshangxiang_jifengjian.prefab</t>
+    <t>sunshangxiang_jifengjian_fashe</t>
+  </si>
+  <si>
+    <t>boss03_bingdong_pugong</t>
+  </si>
+  <si>
+    <t>sunshangxiang_jifengjian</t>
   </si>
   <si>
     <t>Bip001</t>
   </si>
   <si>
-    <t>Assets/Bundles/Effect/SKillEffect/sunshangxiang_7_16jingxiu2.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/sunshangxiang7_16luanhuajianyu.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/chengpu_duomingduci.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/zhouyu_huoqiuchongji_shouji.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/zhouyu_pugong.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/boss03_dahuodan.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/zhouyu_dazhao.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/pangtong_pugong1.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/lvmeng_anduzhiji.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/guanyu_pugong1.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/caopi_dazhao_daoguang.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/lvmeng_yijiqiansha_shouji_dixue.prefab</t>
-  </si>
-  <si>
-    <t>Assets/hero/fx_hero_active_shifa.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/guanyu_zhanshenguanyu_huifu.prefab</t>
-  </si>
-  <si>
-    <t>Assets/hero/hero_passive_feixing.prefab</t>
+    <t>sunshangxiang_7_16jingxiu2</t>
+  </si>
+  <si>
+    <t>sunshangxiang7_16luanhuajianyu</t>
+  </si>
+  <si>
+    <t>chengpu_duomingduci</t>
+  </si>
+  <si>
+    <t>zhouyu_huoqiuchongji_shouji</t>
+  </si>
+  <si>
+    <t>zhouyu_pugong</t>
+  </si>
+  <si>
+    <t>boss03_dahuodan</t>
+  </si>
+  <si>
+    <t>zhouyu_dazhao</t>
+  </si>
+  <si>
+    <t>pangtong_pugong1</t>
+  </si>
+  <si>
+    <t>lvmeng_anduzhiji</t>
+  </si>
+  <si>
+    <t>guanyu_pugong1</t>
+  </si>
+  <si>
+    <t>caopi_dazhao_daoguang</t>
+  </si>
+  <si>
+    <t>lvmeng_yijiqiansha_shouji_dixue</t>
+  </si>
+  <si>
+    <t>fx_hero_active_shifa</t>
+  </si>
+  <si>
+    <t>guanyu_zhanshenguanyu_huifu</t>
+  </si>
+  <si>
+    <t>hero_passive_feixing</t>
   </si>
   <si>
     <t>宙斯</t>
   </si>
   <si>
-    <t>Assets/Bundles/Effect/SKillEffect/simayi_jiutianshenlei_shouji.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/simayi_jiutianshenlei_xuli.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/zhangjiao_huangtian.prefab</t>
+    <t>simayi_jiutianshenlei_shouji</t>
+  </si>
+  <si>
+    <t>simayi_jiutianshenlei_xuli</t>
+  </si>
+  <si>
+    <t>zhangjiao_huangtian</t>
   </si>
   <si>
     <t>雷云环爆</t>
   </si>
   <si>
-    <t>Assets/Bundles/Effect/SKillEffect/simayi_huanxingshandian.prefab</t>
+    <t>simayi_huanxingshandian</t>
   </si>
   <si>
     <t>神王之怒</t>
   </si>
   <si>
-    <t>Assets/Bundles/Effect/SKillEffect/zhangjiao_dazhao.prefab</t>
+    <t>zhangjiao_dazhao</t>
   </si>
   <si>
     <t>阿波罗</t>
@@ -340,10 +370,10 @@
     <t>光矢</t>
   </si>
   <si>
-    <t>Assets/Bundles/Effect/SKillEffect/daqiao_xinglinmiaoshou.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/daqiao_shouji.prefab</t>
+    <t>daqiao_xinglinmiaoshou</t>
+  </si>
+  <si>
+    <t>daqiao_shouji</t>
   </si>
   <si>
     <t>40,45,50,55</t>
@@ -352,19 +382,19 @@
     <t>华丽射击</t>
   </si>
   <si>
-    <t>Assets/Bundles/Effect/SKillEffect/xiaoqiao_tianxiangguose.prefab</t>
+    <t>xiaoqiao_tianxiangguose</t>
   </si>
   <si>
     <t>迅羽连发</t>
   </si>
   <si>
-    <t>Assets/Bundles/Effect/SKillEffect/xiaoqiao_chunjiezhiyou.prefab</t>
+    <t>xiaoqiao_chunjiezhiyou</t>
   </si>
   <si>
     <t>骄阳</t>
   </si>
   <si>
-    <t>Assets/Bundles/Effect/SKillEffect/diaochan_jueshiwuji.prefab</t>
+    <t>diaochan_jueshiwuji</t>
   </si>
   <si>
     <t>波塞冬</t>
@@ -470,6 +500,48 @@
   </si>
   <si>
     <t>女神制裁</t>
+  </si>
+  <si>
+    <t>赫斯缇雅</t>
+  </si>
+  <si>
+    <t>火花</t>
+  </si>
+  <si>
+    <t>fx_hero_Hestia_attack1_shifa01</t>
+  </si>
+  <si>
+    <t>Bip001 R Hand</t>
+  </si>
+  <si>
+    <t>fx_hero_Hestia_attack1_shifa02</t>
+  </si>
+  <si>
+    <t>fx_hero_Hestia_attack1_feixing</t>
+  </si>
+  <si>
+    <t>女神鼓舞</t>
+  </si>
+  <si>
+    <t>fx_hero_Hestia_passive1_shifa</t>
+  </si>
+  <si>
+    <t>焚身</t>
+  </si>
+  <si>
+    <t>fx_hero_Hestia_passive2_shifa01</t>
+  </si>
+  <si>
+    <t>fx_hero_Hestia_passive2_shifa02</t>
+  </si>
+  <si>
+    <t>fx_hero_Hestia_passive2_feixing</t>
+  </si>
+  <si>
+    <t>贞洁之火</t>
+  </si>
+  <si>
+    <t>fx_hero_Hestia_active_shifa</t>
   </si>
 </sst>
 </file>
@@ -477,10 +549,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -533,7 +605,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,24 +619,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,7 +644,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,14 +659,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -605,13 +669,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,6 +697,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -652,6 +717,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -700,7 +772,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,25 +790,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,7 +820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,25 +832,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,7 +868,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,73 +928,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,6 +968,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,17 +1026,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,99 +1051,88 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1069,65 +1141,65 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1161,6 +1233,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="17" applyAlignment="1"/>
@@ -1515,10 +1590,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:AF41"/>
+  <dimension ref="A2:AJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1532,293 +1607,338 @@
     <col min="10" max="10" width="14.7403846153846" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.1442307692308" style="2" customWidth="1"/>
     <col min="12" max="12" width="20.6730769230769" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.4230769230769" style="3" customWidth="1"/>
-    <col min="14" max="15" width="12.6346153846154" style="3" customWidth="1"/>
-    <col min="16" max="16" width="15.3653846153846" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.0865384615385" style="3" customWidth="1"/>
-    <col min="18" max="18" width="13.2980769230769" style="3" customWidth="1"/>
-    <col min="19" max="19" width="31.5576923076923" style="2" customWidth="1"/>
-    <col min="20" max="21" width="24.2019230769231" style="2" customWidth="1"/>
-    <col min="22" max="22" width="24.5096153846154" style="2" customWidth="1"/>
-    <col min="23" max="24" width="18.5865384615385" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.8173076923077" style="2" customWidth="1"/>
-    <col min="26" max="26" width="63.0865384615385" style="2" customWidth="1"/>
-    <col min="27" max="27" width="14.4519230769231" style="2" customWidth="1"/>
-    <col min="28" max="28" width="20.3653846153846" style="2" customWidth="1"/>
-    <col min="29" max="29" width="24.3653846153846" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="2"/>
+    <col min="13" max="14" width="18.4230769230769" style="3" customWidth="1"/>
+    <col min="15" max="16" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.3653846153846" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.0865384615385" style="3" customWidth="1"/>
+    <col min="19" max="19" width="13.2980769230769" style="3" customWidth="1"/>
+    <col min="20" max="20" width="31.5576923076923" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.5384615384615" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11.0480769230769" style="2" customWidth="1"/>
+    <col min="23" max="23" width="12.3365384615385" style="2" customWidth="1"/>
+    <col min="24" max="24" width="11.375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="24.2019230769231" style="2" customWidth="1"/>
+    <col min="26" max="26" width="24.5096153846154" style="2" customWidth="1"/>
+    <col min="27" max="28" width="18.5865384615385" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.8173076923077" style="2" customWidth="1"/>
+    <col min="30" max="30" width="63.0865384615385" style="2" customWidth="1"/>
+    <col min="31" max="31" width="14.4519230769231" style="2" customWidth="1"/>
+    <col min="32" max="32" width="20.3653846153846" style="2" customWidth="1"/>
+    <col min="33" max="33" width="24.3653846153846" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:29">
+    <row r="2" spans="13:13">
+      <c r="M2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:33">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:33">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="6" ht="16.8" spans="3:29">
+    <row r="6" ht="16.8" spans="3:33">
       <c r="C6" s="5">
         <v>1000001</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G6" s="6">
         <v>117</v>
@@ -1831,59 +1951,63 @@
         <v>1</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>62</v>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5">
+        <v>1</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="5">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="5">
         <v>1500</v>
       </c>
-      <c r="R6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U6" s="5">
-        <v>1000</v>
-      </c>
+      <c r="S6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="5">
-        <v>1000</v>
-      </c>
+      <c r="W6" s="5"/>
       <c r="X6" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y6" s="5"/>
+        <v>1000</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>1000</v>
+      </c>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>1</v>
+      <c r="AA6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>2000</v>
       </c>
       <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="5"/>
     </row>
-    <row r="7" customFormat="1" ht="16.8" spans="3:29">
+    <row r="7" customFormat="1" ht="16.8" spans="3:33">
       <c r="C7" s="5">
         <v>1000002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1894,59 +2018,63 @@
         <v>1</v>
       </c>
       <c r="M7" s="5"/>
-      <c r="N7" s="5">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5">
         <v>2</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="5">
+      <c r="P7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="5">
         <v>1500</v>
       </c>
-      <c r="R7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="T7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U7" s="5">
-        <v>1000</v>
-      </c>
+      <c r="S7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="5">
-        <v>1000</v>
-      </c>
+      <c r="W7" s="5"/>
       <c r="X7" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y7" s="5"/>
+        <v>1000</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>1000</v>
+      </c>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>1</v>
+      <c r="AA7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>2000</v>
       </c>
       <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="5"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.8" spans="3:29">
+    <row r="8" s="1" customFormat="1" ht="16.8" spans="3:33">
       <c r="C8" s="5">
         <v>1000003</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1957,61 +2085,65 @@
         <v>1</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="5">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5">
         <v>3</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="P8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="5">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="5">
         <v>2200</v>
       </c>
-      <c r="R8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="W8" s="5">
-        <v>1000</v>
-      </c>
+      <c r="S8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
       <c r="X8" s="5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Y8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC8" s="5">
         <v>0</v>
       </c>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="5"/>
     </row>
-    <row r="9" ht="16.8" spans="3:29">
+    <row r="9" ht="16.8" spans="3:33">
       <c r="C9" s="5">
         <v>1000004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -2022,61 +2154,65 @@
         <v>1</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="5">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
         <v>4</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="P9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="5">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="5">
         <v>2800</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <v>2200</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U9" s="5">
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y9" s="5">
         <v>2400</v>
       </c>
-      <c r="V9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="W9" s="5">
+      <c r="Z9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA9" s="5">
         <v>2200</v>
       </c>
-      <c r="X9" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y9" s="5">
+      <c r="AB9" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC9" s="5">
         <v>0</v>
       </c>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="5"/>
     </row>
-    <row r="10" ht="16.8" spans="3:29">
+    <row r="10" ht="16.8" spans="3:33">
       <c r="C10" s="7">
         <v>1000005</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2087,63 +2223,67 @@
         <v>1</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>75</v>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>1</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>2000</v>
+        <v>85</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="R10" s="7">
+        <v>2000</v>
+      </c>
+      <c r="S10" s="7">
         <v>1200</v>
       </c>
-      <c r="S10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="T10" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7">
+      <c r="T10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="U10" s="7"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7">
         <v>1200</v>
       </c>
-      <c r="X10" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Z10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA10" s="10">
+      <c r="AB10" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE10" s="10">
         <v>2</v>
       </c>
-      <c r="AB10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="7"/>
+      <c r="AF10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="7"/>
     </row>
-    <row r="11" ht="16.8" spans="3:29">
+    <row r="11" ht="16.8" spans="3:33">
       <c r="C11" s="7">
         <v>1000006</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2154,67 +2294,71 @@
         <v>1</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="7">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
         <v>2</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>2000</v>
+        <v>88</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="R11" s="7">
+        <v>2000</v>
+      </c>
+      <c r="S11" s="7">
         <v>1300</v>
       </c>
-      <c r="S11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="W11" s="7">
+      <c r="T11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U11" s="7"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA11" s="7">
         <v>1300</v>
       </c>
-      <c r="X11" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA11" s="10">
+      <c r="AB11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE11" s="10">
         <v>2</v>
       </c>
-      <c r="AB11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="7" t="s">
-        <v>82</v>
+      <c r="AF11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="12" ht="16.8" spans="3:29">
+    <row r="12" ht="16.8" spans="3:33">
       <c r="C12" s="7">
         <v>1000007</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -2225,61 +2369,65 @@
         <v>1</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="7">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
         <v>3</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="7">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="7">
         <v>1500</v>
       </c>
-      <c r="R12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="T12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="W12" s="7">
-        <v>1000</v>
-      </c>
+      <c r="S12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="U12" s="7"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
       <c r="X12" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="10">
         <v>2</v>
       </c>
-      <c r="AB12" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="7"/>
+      <c r="AF12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="7"/>
     </row>
-    <row r="13" ht="16.8" spans="3:29">
+    <row r="13" ht="16.8" spans="3:33">
       <c r="C13" s="7">
         <v>1000008</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -2290,59 +2438,63 @@
         <v>1</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="7">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
         <v>4</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>2000</v>
+        <v>82</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="R13" s="7">
+        <v>2000</v>
+      </c>
+      <c r="S13" s="7">
         <v>1500</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="T13" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U13" s="7">
+      <c r="T13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="U13" s="7"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y13" s="7">
         <v>1300</v>
       </c>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7">
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7">
         <v>1500</v>
       </c>
-      <c r="X13" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="10">
+      <c r="AB13" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="10">
         <v>2</v>
       </c>
-      <c r="AB13" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="7"/>
+      <c r="AF13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="7"/>
     </row>
-    <row r="14" ht="16.8" spans="3:29">
+    <row r="14" ht="16.8" spans="3:33">
       <c r="C14" s="5">
         <v>1000009</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -2353,61 +2505,65 @@
         <v>1</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="5">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>75</v>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5">
+        <v>1</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="5">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="5">
         <v>1500</v>
       </c>
-      <c r="R14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5">
-        <v>1000</v>
-      </c>
+      <c r="S14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T14" s="5"/>
       <c r="U14" s="5"/>
-      <c r="V14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="W14" s="5">
-        <v>1000</v>
-      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
       <c r="X14" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC14" s="5">
         <v>500</v>
       </c>
-      <c r="Z14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA14" s="8">
+      <c r="AD14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE14" s="8">
         <v>2</v>
       </c>
-      <c r="AB14" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="5"/>
+      <c r="AF14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="5"/>
     </row>
-    <row r="15" ht="16.8" spans="3:29">
+    <row r="15" ht="16.8" spans="3:33">
       <c r="C15" s="5">
         <v>1000010</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -2418,59 +2574,63 @@
         <v>1</v>
       </c>
       <c r="M15" s="5"/>
-      <c r="N15" s="5">
+      <c r="N15" s="5"/>
+      <c r="O15" s="5">
         <v>2</v>
       </c>
-      <c r="O15" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="P15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q15" s="5">
+        <v>88</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" s="5">
         <v>1500</v>
       </c>
-      <c r="R15" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U15" s="5">
-        <v>1000</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="W15" s="5">
-        <v>1000</v>
-      </c>
+      <c r="S15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
       <c r="X15" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="8">
+        <v>1000</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="8">
         <v>2</v>
       </c>
-      <c r="AB15" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="5"/>
+      <c r="AF15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="5"/>
     </row>
-    <row r="16" ht="16.8" spans="3:29">
+    <row r="16" ht="16.8" spans="3:33">
       <c r="C16" s="5">
         <v>1000011</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -2481,63 +2641,67 @@
         <v>1</v>
       </c>
       <c r="M16" s="5"/>
-      <c r="N16" s="5">
+      <c r="N16" s="5"/>
+      <c r="O16" s="5">
         <v>3</v>
       </c>
-      <c r="O16" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="P16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="5">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R16" s="5">
         <v>2200</v>
       </c>
-      <c r="R16" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U16" s="5">
-        <v>1000</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="W16" s="5">
-        <v>1000</v>
-      </c>
+      <c r="S16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
       <c r="X16" s="5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Y16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC16" s="5">
         <v>500</v>
       </c>
-      <c r="Z16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA16" s="8">
+      <c r="AD16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE16" s="8">
         <v>2</v>
       </c>
-      <c r="AB16" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="5"/>
+      <c r="AF16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="5"/>
     </row>
-    <row r="17" ht="16.8" spans="3:29">
+    <row r="17" ht="16.8" spans="3:33">
       <c r="C17" s="5">
         <v>1000012</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -2548,59 +2712,63 @@
         <v>1</v>
       </c>
       <c r="M17" s="5"/>
-      <c r="N17" s="5">
+      <c r="N17" s="5"/>
+      <c r="O17" s="5">
         <v>4</v>
       </c>
-      <c r="O17" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="P17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="5">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R17" s="5">
         <v>3200</v>
       </c>
-      <c r="R17" s="5">
+      <c r="S17" s="5">
         <v>2200</v>
       </c>
-      <c r="S17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T17" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U17" s="5">
+      <c r="T17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y17" s="5">
         <v>2400</v>
       </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5">
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5">
         <v>2200</v>
       </c>
-      <c r="X17" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="8">
+      <c r="AB17" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="8">
         <v>2</v>
       </c>
-      <c r="AC17" s="5"/>
+      <c r="AG17" s="5"/>
     </row>
-    <row r="18" ht="16.8" spans="3:32">
+    <row r="18" ht="16.8" spans="3:36">
       <c r="C18" s="7">
         <v>1000013</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -2611,64 +2779,68 @@
         <v>1</v>
       </c>
       <c r="M18" s="7"/>
-      <c r="N18" s="7">
-        <v>1</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>75</v>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7">
+        <v>1</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q18" s="7">
+        <v>85</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" s="7">
         <v>3000</v>
       </c>
-      <c r="R18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="T18" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="W18" s="7">
-        <v>1000</v>
-      </c>
+      <c r="S18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="U18" s="7"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
       <c r="X18" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="10">
-        <v>1</v>
+        <v>1000</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Z18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>2000</v>
       </c>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
+      <c r="AE18" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
     </row>
-    <row r="19" ht="16.8" spans="3:32">
+    <row r="19" ht="16.8" spans="3:36">
       <c r="C19" s="7">
         <v>1000014</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -2679,62 +2851,66 @@
         <v>1</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="7">
+      <c r="N19" s="7"/>
+      <c r="O19" s="7">
         <v>2</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q19" s="7">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R19" s="7">
         <v>1500</v>
       </c>
-      <c r="R19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="T19" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7">
-        <v>1000</v>
-      </c>
+      <c r="S19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="U19" s="14"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
       <c r="X19" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y19" s="7"/>
+        <v>1000</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>1000</v>
+      </c>
       <c r="Z19" s="7"/>
-      <c r="AA19" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="10">
-        <v>1</v>
+      <c r="AA19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>2000</v>
       </c>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
+      <c r="AE19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
     </row>
-    <row r="20" ht="16.8" spans="3:32">
+    <row r="20" ht="16.8" spans="3:36">
       <c r="C20" s="7">
         <v>1000015</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -2745,64 +2921,68 @@
         <v>1</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="7">
+      <c r="N20" s="7"/>
+      <c r="O20" s="7">
         <v>3</v>
       </c>
-      <c r="O20" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q20" s="7">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R20" s="7">
         <v>3000</v>
       </c>
-      <c r="R20" s="7">
-        <v>2000</v>
-      </c>
-      <c r="S20" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="T20" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U20" s="7">
+      <c r="S20" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="U20" s="14"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y20" s="7">
         <v>800</v>
       </c>
-      <c r="V20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="W20" s="7">
-        <v>2000</v>
-      </c>
-      <c r="X20" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB20" s="10">
-        <v>1</v>
+      <c r="Z20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>2000</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>2000</v>
       </c>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
+      <c r="AE20" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
     </row>
-    <row r="21" ht="16.8" spans="3:32">
+    <row r="21" ht="16.8" spans="3:36">
       <c r="C21" s="7">
         <v>1000016</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -2813,68 +2993,72 @@
         <v>1</v>
       </c>
       <c r="M21" s="7"/>
-      <c r="N21" s="7">
+      <c r="N21" s="7"/>
+      <c r="O21" s="7">
         <v>4</v>
       </c>
-      <c r="O21" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="P21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q21" s="7">
+        <v>82</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="R21" s="7">
         <v>2500</v>
       </c>
-      <c r="R21" s="7">
+      <c r="S21" s="7">
         <v>1250</v>
       </c>
-      <c r="S21" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="T21" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U21" s="7">
+      <c r="T21" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="U21" s="14"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y21" s="7">
         <v>500</v>
       </c>
-      <c r="V21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="W21" s="7">
+      <c r="Z21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA21" s="7">
         <v>1250</v>
       </c>
-      <c r="X21" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y21" s="7">
+      <c r="AB21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC21" s="7">
         <v>1200</v>
       </c>
-      <c r="Z21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA21" s="10">
+      <c r="AD21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE21" s="10">
         <v>2</v>
       </c>
-      <c r="AB21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
+      <c r="AF21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
     </row>
-    <row r="22" ht="16.8" spans="3:29">
+    <row r="22" ht="16.8" spans="3:33">
       <c r="C22" s="5">
         <v>1000017</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G22" s="6">
         <v>116</v>
@@ -2886,68 +3070,72 @@
       <c r="L22" s="8">
         <v>1</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N22" s="5">
-        <v>1</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>62</v>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>2000</v>
+        <v>72</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="R22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="V22" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="W22" s="5">
-        <v>1000</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="S22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
       <c r="X22" s="5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Y22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC22" s="5">
         <v>500</v>
       </c>
-      <c r="Z22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA22" s="8">
+      <c r="AD22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE22" s="8">
         <v>2</v>
       </c>
-      <c r="AB22" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="5" t="s">
-        <v>82</v>
+      <c r="AF22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="23" ht="16.8" spans="3:29">
+    <row r="23" ht="16.8" spans="3:33">
       <c r="C23" s="5">
         <v>1000018</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G23" s="6">
         <v>124</v>
@@ -2959,62 +3147,66 @@
       <c r="L23" s="8">
         <v>1</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N23" s="5">
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O23" s="5">
         <v>2</v>
       </c>
-      <c r="O23" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="P23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>2000</v>
+        <v>76</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="R23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="V23" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="W23" s="5">
-        <v>1000</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="S23" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
       <c r="X23" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="8">
+        <v>1000</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="8">
         <v>2</v>
       </c>
-      <c r="AB23" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="5"/>
+      <c r="AF23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="5"/>
     </row>
-    <row r="24" ht="16.8" spans="3:29">
+    <row r="24" ht="16.8" spans="3:33">
       <c r="C24" s="5">
         <v>1000019</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G24" s="6">
         <v>124</v>
@@ -3026,64 +3218,68 @@
       <c r="L24" s="8">
         <v>2</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N24" s="5">
+      <c r="M24" s="5"/>
+      <c r="N24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" s="5">
         <v>3</v>
       </c>
-      <c r="O24" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="P24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>2000</v>
+        <v>112</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="R24" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S24" s="5">
         <v>800</v>
       </c>
-      <c r="S24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="T24" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U24" s="5">
+      <c r="T24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y24" s="5">
         <v>800</v>
       </c>
-      <c r="V24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="W24" s="5">
+      <c r="Z24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA24" s="5">
         <v>800</v>
       </c>
-      <c r="X24" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="8">
-        <v>1</v>
+      <c r="AB24" s="5">
+        <v>2000</v>
       </c>
       <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="5"/>
     </row>
-    <row r="25" ht="16.8" spans="3:29">
+    <row r="25" ht="16.8" spans="3:33">
       <c r="C25" s="5">
         <v>1000020</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G25" s="6">
         <v>124</v>
@@ -3095,62 +3291,66 @@
       <c r="L25" s="8">
         <v>1</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N25" s="5">
+      <c r="M25" s="5"/>
+      <c r="N25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O25" s="5">
         <v>4</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="P25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q25" s="5">
+        <v>114</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R25" s="5">
         <v>3000</v>
       </c>
-      <c r="R25" s="5">
-        <v>2000</v>
-      </c>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U25" s="5">
+      <c r="S25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y25" s="5">
         <v>2400</v>
       </c>
-      <c r="V25" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="W25" s="5">
-        <v>2000</v>
-      </c>
-      <c r="X25" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="8">
+      <c r="Z25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="8">
         <v>2</v>
       </c>
-      <c r="AB25" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="5"/>
+      <c r="AF25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="5"/>
     </row>
-    <row r="26" ht="16.8" spans="3:29">
+    <row r="26" ht="16.8" spans="3:33">
       <c r="C26" s="7">
         <v>1000021</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G26" s="6">
         <v>115</v>
@@ -3162,70 +3362,74 @@
       <c r="L26" s="10">
         <v>1</v>
       </c>
-      <c r="M26" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>107</v>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O26" s="7">
+        <v>1</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>1000</v>
+        <v>117</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="R26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="S26" s="7">
         <v>500</v>
       </c>
-      <c r="S26" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="T26" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U26" s="7">
+      <c r="T26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="U26" s="7"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y26" s="7">
         <v>0</v>
       </c>
-      <c r="V26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="W26" s="7">
+      <c r="Z26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA26" s="7">
         <v>500</v>
       </c>
-      <c r="X26" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="10">
+      <c r="AB26" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="10">
         <v>2</v>
       </c>
-      <c r="AB26" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="7"/>
+      <c r="AF26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="7"/>
     </row>
-    <row r="27" ht="16.8" spans="3:29">
+    <row r="27" ht="16.8" spans="3:33">
       <c r="C27" s="7">
         <v>1000022</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K27" s="6">
         <v>115</v>
@@ -3233,62 +3437,66 @@
       <c r="L27" s="10">
         <v>1</v>
       </c>
-      <c r="M27" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N27" s="7">
+      <c r="M27" s="7"/>
+      <c r="N27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O27" s="7">
         <v>2</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="P27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>2000</v>
+        <v>121</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="R27" s="7">
+        <v>2000</v>
+      </c>
+      <c r="S27" s="7">
         <v>1300</v>
       </c>
-      <c r="S27" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="T27" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U27" s="7">
+      <c r="T27" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="U27" s="14"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y27" s="7">
         <v>800</v>
       </c>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7">
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7">
         <v>1300</v>
       </c>
-      <c r="X27" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="10">
+      <c r="AB27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="10">
         <v>2</v>
       </c>
-      <c r="AB27" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="7"/>
+      <c r="AF27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="7"/>
     </row>
-    <row r="28" ht="16.8" spans="3:29">
+    <row r="28" ht="16.8" spans="3:33">
       <c r="C28" s="7">
         <v>1000023</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G28" s="6">
         <v>115</v>
@@ -3300,68 +3508,72 @@
       <c r="L28" s="10">
         <v>1</v>
       </c>
-      <c r="M28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N28" s="7">
+      <c r="M28" s="7"/>
+      <c r="N28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O28" s="7">
         <v>3</v>
       </c>
-      <c r="O28" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="P28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>2000</v>
+        <v>123</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="R28" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S28" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="T28" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U28" s="7">
-        <v>1000</v>
-      </c>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7">
-        <v>1000</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="S28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="U28" s="14"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
       <c r="X28" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y28" s="7"/>
+        <v>1000</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>1000</v>
+      </c>
       <c r="Z28" s="7"/>
-      <c r="AA28" s="10">
+      <c r="AA28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="10">
         <v>2</v>
       </c>
-      <c r="AB28" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="7"/>
+      <c r="AF28" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="7"/>
     </row>
-    <row r="29" ht="16.8" spans="3:29">
+    <row r="29" ht="16.8" spans="3:33">
       <c r="C29" s="7">
         <v>1000024</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K29" s="6">
         <v>115</v>
@@ -3369,60 +3581,64 @@
       <c r="L29" s="10">
         <v>2</v>
       </c>
-      <c r="M29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N29" s="7">
+      <c r="M29" s="7"/>
+      <c r="N29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O29" s="7">
         <v>4</v>
       </c>
-      <c r="O29" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="P29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q29" s="7">
+        <v>125</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="R29" s="7">
         <v>3000</v>
       </c>
-      <c r="R29" s="7">
-        <v>2000</v>
-      </c>
-      <c r="S29" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="T29" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U29" s="7">
-        <v>1000</v>
-      </c>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7">
-        <v>2000</v>
-      </c>
+      <c r="S29" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="U29" s="14"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
       <c r="X29" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y29" s="7"/>
+        <v>1000</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>1000</v>
+      </c>
       <c r="Z29" s="7"/>
-      <c r="AA29" s="10">
+      <c r="AA29" s="7">
+        <v>2000</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="10">
         <v>2</v>
       </c>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="7"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="7"/>
     </row>
-    <row r="30" ht="16.8" spans="3:29">
+    <row r="30" ht="16.8" spans="3:33">
       <c r="C30" s="5">
         <v>1000025</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="8"/>
@@ -3432,66 +3648,70 @@
       <c r="L30" s="8">
         <v>1</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N30" s="5">
-        <v>1</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>118</v>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O30" s="5">
+        <v>1</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>2000</v>
+        <v>128</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="R30" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S30" s="5">
         <v>800</v>
       </c>
-      <c r="S30" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="T30" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U30" s="5">
+      <c r="T30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y30" s="5">
         <v>200</v>
       </c>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5">
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5">
         <v>800</v>
       </c>
-      <c r="X30" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y30" s="5">
+      <c r="AB30" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC30" s="5">
         <v>400</v>
       </c>
-      <c r="Z30" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA30" s="8">
+      <c r="AD30" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE30" s="8">
         <v>2</v>
       </c>
-      <c r="AB30" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="5"/>
+      <c r="AF30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="5"/>
     </row>
-    <row r="31" ht="16.8" spans="3:29">
+    <row r="31" ht="16.8" spans="3:33">
       <c r="C31" s="5">
         <v>1000026</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="8"/>
@@ -3501,64 +3721,68 @@
       <c r="L31" s="8">
         <v>1</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N31" s="5">
+      <c r="M31" s="5"/>
+      <c r="N31" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O31" s="5">
         <v>2</v>
       </c>
-      <c r="O31" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="P31" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>2000</v>
+        <v>131</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="R31" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S31" s="5">
         <v>1500</v>
       </c>
-      <c r="S31" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="T31" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U31" s="5">
+      <c r="T31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y31" s="5">
         <v>0</v>
       </c>
-      <c r="V31" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="W31" s="5">
+      <c r="Z31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA31" s="5">
         <v>500</v>
       </c>
-      <c r="X31" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="8">
+      <c r="AB31" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="8">
         <v>2</v>
       </c>
-      <c r="AB31" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="5"/>
+      <c r="AF31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="5"/>
     </row>
-    <row r="32" ht="16.8" spans="3:29">
+    <row r="32" ht="16.8" spans="3:33">
       <c r="C32" s="5">
         <v>1000027</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="8"/>
@@ -3568,64 +3792,68 @@
       <c r="L32" s="8">
         <v>1</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N32" s="5">
+      <c r="M32" s="5"/>
+      <c r="N32" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O32" s="5">
         <v>3</v>
       </c>
-      <c r="O32" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="P32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q32" s="5">
+        <v>134</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R32" s="5">
         <v>3000</v>
       </c>
-      <c r="R32" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="T32" s="5">
+      <c r="S32" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5">
         <v>2500</v>
       </c>
-      <c r="U32" s="5">
+      <c r="Y32" s="5">
         <v>400</v>
       </c>
-      <c r="V32" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="W32" s="5">
-        <v>1000</v>
-      </c>
-      <c r="X32" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="8">
-        <v>1</v>
+      <c r="Z32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>2000</v>
       </c>
       <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="5"/>
     </row>
-    <row r="33" ht="16.8" spans="3:29">
+    <row r="33" ht="16.8" spans="3:33">
       <c r="C33" s="5">
         <v>1000028</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="8"/>
@@ -3635,546 +3863,792 @@
       <c r="L33" s="8">
         <v>2</v>
       </c>
-      <c r="M33" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N33" s="5">
+      <c r="M33" s="5"/>
+      <c r="N33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O33" s="5">
         <v>4</v>
       </c>
-      <c r="O33" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="P33" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q33" s="5">
+        <v>137</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R33" s="5">
         <v>3000</v>
       </c>
-      <c r="R33" s="5">
+      <c r="S33" s="5">
         <v>1500</v>
       </c>
-      <c r="S33" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="T33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U33" s="5">
+      <c r="T33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y33" s="5">
         <v>0</v>
       </c>
-      <c r="V33" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="W33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="X33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="8">
+      <c r="Z33" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="8">
         <v>2</v>
       </c>
-      <c r="AB33" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="5"/>
+      <c r="AF33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="5"/>
     </row>
-    <row r="34" ht="16.8" spans="3:29">
+    <row r="34" ht="16.8" spans="3:33">
       <c r="C34" s="5">
         <v>1000029</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L34" s="6">
         <v>1</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N34" s="7">
-        <v>1</v>
-      </c>
-      <c r="O34" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q34" s="3">
+      <c r="M34" s="2"/>
+      <c r="N34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O34" s="7">
+        <v>1</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R34" s="3">
         <v>1500</v>
       </c>
-      <c r="R34" s="2">
-        <v>1000</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="T34" s="2">
+      <c r="S34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="X34" s="2">
         <v>1500</v>
       </c>
-      <c r="U34" s="2">
+      <c r="Y34" s="2">
         <v>200</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="W34" s="2">
-        <v>1000</v>
-      </c>
-      <c r="X34" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Y34" s="2">
+      <c r="Z34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AC34" s="2">
         <v>600</v>
       </c>
-      <c r="Z34" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA34" s="2">
+      <c r="AD34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE34" s="2">
         <v>2</v>
       </c>
-      <c r="AB34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="14" t="s">
-        <v>135</v>
+      <c r="AF34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="35" ht="16.8" spans="3:28">
+    <row r="35" ht="16.8" spans="3:32">
       <c r="C35" s="5">
         <v>1000030</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L35" s="6">
         <v>2</v>
       </c>
-      <c r="M35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N35" s="7">
+      <c r="M35" s="2"/>
+      <c r="N35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O35" s="7">
         <v>2</v>
       </c>
-      <c r="O35" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="P35" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="2">
-        <v>1000</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="S35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3">
         <v>1500</v>
       </c>
-      <c r="U35" s="2">
+      <c r="Y35" s="2">
         <v>0</v>
       </c>
-      <c r="W35" s="2">
-        <v>1000</v>
-      </c>
-      <c r="X35" s="2">
-        <v>2000</v>
-      </c>
       <c r="AA35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AE35" s="2">
         <v>2</v>
       </c>
-      <c r="AB35" s="2">
+      <c r="AF35" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="16.8" spans="3:29">
+    <row r="36" ht="16.8" spans="3:33">
       <c r="C36" s="5">
         <v>1000031</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L36" s="6">
         <v>1</v>
       </c>
-      <c r="M36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N36" s="7">
+      <c r="M36" s="2"/>
+      <c r="N36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O36" s="7">
         <v>3</v>
       </c>
-      <c r="O36" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q36" s="3">
+      <c r="P36" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R36" s="3">
         <v>1500</v>
       </c>
-      <c r="R36" s="2">
+      <c r="S36" s="2">
         <v>1500</v>
       </c>
-      <c r="S36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T36" s="3">
+      <c r="T36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3">
         <v>1500</v>
       </c>
-      <c r="U36" s="2">
+      <c r="Y36" s="2">
         <v>400</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="W36" s="2">
+      <c r="Z36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA36" s="2">
         <v>800</v>
       </c>
-      <c r="X36" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AA36" s="2">
+      <c r="AB36" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AE36" s="2">
         <v>3</v>
       </c>
-      <c r="AB36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="14" t="s">
-        <v>141</v>
+      <c r="AF36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="15" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="37" ht="16.8" spans="3:28">
+    <row r="37" ht="16.8" spans="3:32">
       <c r="C37" s="5">
         <v>1000032</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L37" s="6">
         <v>1</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N37" s="7">
+      <c r="M37" s="2"/>
+      <c r="N37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O37" s="7">
         <v>4</v>
       </c>
-      <c r="O37" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q37" s="3">
+      <c r="P37" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="R37" s="3">
         <v>4000</v>
       </c>
-      <c r="R37" s="3">
+      <c r="S37" s="3">
         <v>3600</v>
       </c>
-      <c r="S37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="T37" s="3">
+      <c r="T37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3">
         <v>4000</v>
       </c>
-      <c r="U37" s="2">
+      <c r="Y37" s="2">
         <v>0</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="W37" s="2">
+      <c r="Z37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA37" s="2">
         <v>3000</v>
       </c>
-      <c r="X37" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AA37" s="2">
+      <c r="AB37" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AE37" s="2">
         <v>2</v>
       </c>
-      <c r="AB37" s="2">
+      <c r="AF37" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="16.8" spans="3:29">
+    <row r="38" ht="16.8" spans="3:33">
       <c r="C38" s="5">
         <v>1000033</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L38" s="6">
         <v>1</v>
       </c>
-      <c r="M38" s="12" t="s">
+      <c r="M38" s="12"/>
+      <c r="N38" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O38" s="7">
+        <v>1</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R38" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="X38" s="2">
+        <v>1500</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>200</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>600</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="N38" s="7">
-        <v>1</v>
-      </c>
-      <c r="O38" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R38" s="2">
-        <v>1000</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="T38" s="2">
-        <v>1500</v>
-      </c>
-      <c r="U38" s="2">
-        <v>200</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="W38" s="2">
-        <v>1000</v>
-      </c>
-      <c r="X38" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Y38" s="2">
-        <v>600</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="14" t="s">
-        <v>135</v>
-      </c>
     </row>
-    <row r="39" ht="16.8" spans="3:28">
+    <row r="39" ht="16.8" spans="3:32">
       <c r="C39" s="5">
         <v>1000034</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G39" s="9">
         <v>110</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="L39" s="6">
         <v>4</v>
       </c>
-      <c r="M39" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="N39" s="7">
+      <c r="M39" s="12"/>
+      <c r="N39" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O39" s="7">
         <v>2</v>
       </c>
-      <c r="O39" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q39" s="3">
+      <c r="P39" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R39" s="3">
         <v>1500</v>
       </c>
-      <c r="R39" s="2">
-        <v>1000</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="T39" s="3">
+      <c r="S39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3">
         <v>1500</v>
       </c>
-      <c r="U39" s="2">
+      <c r="Y39" s="2">
         <v>0</v>
       </c>
-      <c r="W39" s="2">
-        <v>1000</v>
-      </c>
-      <c r="X39" s="2">
-        <v>2000</v>
-      </c>
       <c r="AA39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AE39" s="2">
         <v>2</v>
       </c>
-      <c r="AB39" s="2">
+      <c r="AF39" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="40" ht="16.8" spans="3:29">
+    <row r="40" ht="16.8" spans="3:33">
       <c r="C40" s="5">
         <v>1000035</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L40" s="6">
         <v>1</v>
       </c>
-      <c r="M40" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="N40" s="7">
+      <c r="M40" s="12"/>
+      <c r="N40" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O40" s="7">
         <v>3</v>
       </c>
-      <c r="O40" s="11" t="s">
+      <c r="P40" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R40" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S40" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z40" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P40" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R40" s="2">
-        <v>1500</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T40" s="3">
-        <v>1500</v>
-      </c>
-      <c r="U40" s="2">
-        <v>400</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="W40" s="2">
+      <c r="AA40" s="2">
         <v>800</v>
       </c>
-      <c r="X40" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AA40" s="2">
-        <v>1</v>
-      </c>
       <c r="AB40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="14" t="s">
-        <v>141</v>
+        <v>2000</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="15" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="41" ht="16.8" spans="3:28">
+    <row r="41" ht="16.8" spans="3:32">
       <c r="C41" s="5">
         <v>1000036</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L41" s="6">
         <v>1</v>
       </c>
-      <c r="M41" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="N41" s="7">
+      <c r="M41" s="12"/>
+      <c r="N41" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O41" s="7">
         <v>4</v>
       </c>
-      <c r="O41" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="P41" s="5" t="s">
+      <c r="P41" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" ht="16.8" spans="3:31">
+      <c r="C42" s="5">
+        <v>1000037</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L42" s="6">
+        <v>1</v>
+      </c>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="O42" s="7">
+        <v>1</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q42" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Q41" s="3">
-        <v>4000</v>
-      </c>
-      <c r="R41" s="3">
-        <v>3600</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="T41" s="3">
-        <v>4000</v>
-      </c>
-      <c r="U41" s="2">
+      <c r="R42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S42" s="3">
+        <v>800</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="X42" s="2">
+        <v>2000</v>
+      </c>
+      <c r="Y42" s="2">
         <v>0</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="W41" s="2">
+      <c r="AC42" s="2">
+        <v>400</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" ht="16.8" spans="3:31">
+      <c r="C43" s="5">
+        <v>1000038</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L43" s="6">
+        <v>4</v>
+      </c>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="O43" s="7">
+        <v>2</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R43" s="3">
         <v>3000</v>
       </c>
-      <c r="X41" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AA41" s="2">
+      <c r="S43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U43" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X43" s="2">
+        <v>2001</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="2">
         <v>2</v>
       </c>
-      <c r="AB41" s="2">
-        <v>1</v>
+    </row>
+    <row r="44" ht="16.8" spans="3:31">
+      <c r="C44" s="5">
+        <v>1000039</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L44" s="6">
+        <v>1</v>
+      </c>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="O44" s="7">
+        <v>3</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="X44" s="2">
+        <v>2002</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>800</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" ht="16.8" spans="3:31">
+      <c r="C45" s="5">
+        <v>1000040</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L45" s="6">
+        <v>4</v>
+      </c>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="O45" s="7">
+        <v>4</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="S45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="X45" s="2">
+        <v>6000</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>1800</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AE45" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22400"/>
+    <workbookView windowHeight="22320"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="195">
   <si>
     <t>#</t>
   </si>
@@ -37,6 +37,9 @@
     <t>buff配置id</t>
   </si>
   <si>
+    <t>buff层数</t>
+  </si>
+  <si>
     <t>生命值护盾百分比</t>
   </si>
   <si>
@@ -46,12 +49,15 @@
     <t>Buff伤害加成</t>
   </si>
   <si>
-    <t>BuffDamageAddition</t>
+    <t>Buff伤害加成条件</t>
   </si>
   <si>
     <t>范围类型</t>
   </si>
   <si>
+    <t xml:space="preserve"> 逻辑是否完成</t>
+  </si>
+  <si>
     <t>特效是否完成</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t>受击骨骼名称</t>
   </si>
   <si>
+    <t>攻击次数</t>
+  </si>
+  <si>
     <t>#目标点类型1面前2中间</t>
   </si>
   <si>
@@ -133,6 +142,9 @@
     <t>BuffConfigIds</t>
   </si>
   <si>
+    <t>BuffOverCount</t>
+  </si>
+  <si>
     <t>HealthShieldAdditions</t>
   </si>
   <si>
@@ -148,6 +160,9 @@
     <t>RangeType</t>
   </si>
   <si>
+    <t>IsOverLogic</t>
+  </si>
+  <si>
     <t>IsOverEffect</t>
   </si>
   <si>
@@ -211,7 +226,10 @@
     <t>BeAttackBoneName</t>
   </si>
   <si>
-    <t>#攻击类型,#范围类型 RangeType， 1，敌方单体，2地方群体3，我方个体4我方群体5，全体</t>
+    <t>AttackCount</t>
+  </si>
+  <si>
+    <t>#攻击类型,#范围类型 RangeType， 1，敌方单体，2地方群体3，我方个体4我方群体5，全体，6自身</t>
   </si>
   <si>
     <t>int</t>
@@ -340,6 +358,9 @@
     <t>hero_passive_feixing</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
     <t>宙斯</t>
   </si>
   <si>
@@ -364,6 +385,9 @@
     <t>zhangjiao_dazhao</t>
   </si>
   <si>
+    <t>2,2,2,3</t>
+  </si>
+  <si>
     <t>阿波罗</t>
   </si>
   <si>
@@ -376,21 +400,24 @@
     <t>daqiao_shouji</t>
   </si>
   <si>
+    <t>华丽射击</t>
+  </si>
+  <si>
+    <t>xiaoqiao_tianxiangguose</t>
+  </si>
+  <si>
+    <t>迅羽连发</t>
+  </si>
+  <si>
+    <t>xiaoqiao_chunjiezhiyou</t>
+  </si>
+  <si>
+    <t>70,80,90,100</t>
+  </si>
+  <si>
     <t>40,45,50,55</t>
   </si>
   <si>
-    <t>华丽射击</t>
-  </si>
-  <si>
-    <t>xiaoqiao_tianxiangguose</t>
-  </si>
-  <si>
-    <t>迅羽连发</t>
-  </si>
-  <si>
-    <t>xiaoqiao_chunjiezhiyou</t>
-  </si>
-  <si>
     <t>骄阳</t>
   </si>
   <si>
@@ -409,6 +436,9 @@
     <t>fx_hero_Poseidon_attack1_feixing</t>
   </si>
   <si>
+    <t>2,2,2,4</t>
+  </si>
+  <si>
     <t>破浪</t>
   </si>
   <si>
@@ -427,6 +457,9 @@
     <t>fx_hero_Poseidon_passive2_shouji</t>
   </si>
   <si>
+    <t>2,2,2,2</t>
+  </si>
+  <si>
     <t>海潮奔腾</t>
   </si>
   <si>
@@ -487,9 +520,6 @@
     <t>刺击</t>
   </si>
   <si>
-    <t>2,2,2,3</t>
-  </si>
-  <si>
     <t>40,50,60,70</t>
   </si>
   <si>
@@ -542,6 +572,33 @@
   </si>
   <si>
     <t>fx_hero_Hestia_active_shifa</t>
+  </si>
+  <si>
+    <t>狼人莱卡翁</t>
+  </si>
+  <si>
+    <t>抓击</t>
+  </si>
+  <si>
+    <t>fx_hero_Lykaon_attack1_shifa</t>
+  </si>
+  <si>
+    <t>狼嗥</t>
+  </si>
+  <si>
+    <t>fx_hero_Lykaon_passive1_shifa</t>
+  </si>
+  <si>
+    <t>狼影偷袭</t>
+  </si>
+  <si>
+    <t>fx_hero_Lykaon_passive2_shifa</t>
+  </si>
+  <si>
+    <t>狂乱抓击</t>
+  </si>
+  <si>
+    <t>fx_hero_Lykaon_active_shifa</t>
   </si>
 </sst>
 </file>
@@ -549,10 +606,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -604,10 +661,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -619,6 +677,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -627,16 +700,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,16 +731,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,21 +761,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -712,16 +769,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,12 +817,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFDEBFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -778,37 +829,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,6 +859,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -838,7 +889,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,19 +907,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +925,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,61 +991,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,21 +1029,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1006,21 +1048,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1051,155 +1078,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,23 +1277,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="17" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="17" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="19" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="17" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="17" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1590,10 +1656,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:AJ45"/>
+  <dimension ref="A2:AL49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1603,37 +1669,40 @@
     <col min="3" max="3" width="18.4230769230769" style="3" customWidth="1"/>
     <col min="4" max="6" width="15.8653846153846" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.2596153846154" style="2" customWidth="1"/>
-    <col min="8" max="9" width="18.5865384615385" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.7403846153846" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.1442307692308" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.6730769230769" style="2" customWidth="1"/>
-    <col min="13" max="14" width="18.4230769230769" style="3" customWidth="1"/>
-    <col min="15" max="16" width="12.6346153846154" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.3653846153846" style="3" customWidth="1"/>
-    <col min="18" max="18" width="13.0865384615385" style="3" customWidth="1"/>
-    <col min="19" max="19" width="13.2980769230769" style="3" customWidth="1"/>
-    <col min="20" max="20" width="31.5576923076923" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.5384615384615" style="2" customWidth="1"/>
-    <col min="22" max="22" width="11.0480769230769" style="2" customWidth="1"/>
-    <col min="23" max="23" width="12.3365384615385" style="2" customWidth="1"/>
-    <col min="24" max="24" width="11.375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="24.2019230769231" style="2" customWidth="1"/>
-    <col min="26" max="26" width="24.5096153846154" style="2" customWidth="1"/>
-    <col min="27" max="28" width="18.5865384615385" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.8173076923077" style="2" customWidth="1"/>
-    <col min="30" max="30" width="63.0865384615385" style="2" customWidth="1"/>
-    <col min="31" max="31" width="14.4519230769231" style="2" customWidth="1"/>
-    <col min="32" max="32" width="20.3653846153846" style="2" customWidth="1"/>
-    <col min="33" max="33" width="24.3653846153846" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="9" style="2"/>
+    <col min="8" max="10" width="18.5865384615385" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.7403846153846" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.6730769230769" style="2" customWidth="1"/>
+    <col min="14" max="16" width="18.4230769230769" style="3" customWidth="1"/>
+    <col min="17" max="18" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.3653846153846" style="3" customWidth="1"/>
+    <col min="20" max="20" width="13.0865384615385" style="3" customWidth="1"/>
+    <col min="21" max="21" width="12.8173076923077" style="3" customWidth="1"/>
+    <col min="22" max="22" width="21.6346153846154" style="2" customWidth="1"/>
+    <col min="23" max="23" width="15.5384615384615" style="2" customWidth="1"/>
+    <col min="24" max="24" width="11.0480769230769" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.3365384615385" style="2" customWidth="1"/>
+    <col min="26" max="26" width="21.4711538461538" style="2" customWidth="1"/>
+    <col min="27" max="27" width="24.2019230769231" style="2" customWidth="1"/>
+    <col min="28" max="28" width="24.5096153846154" style="2" customWidth="1"/>
+    <col min="29" max="30" width="18.5865384615385" style="2" customWidth="1"/>
+    <col min="31" max="31" width="12.8173076923077" style="2" customWidth="1"/>
+    <col min="32" max="32" width="63.0865384615385" style="2" customWidth="1"/>
+    <col min="33" max="33" width="14.4519230769231" style="2" customWidth="1"/>
+    <col min="34" max="34" width="20.3653846153846" style="2" customWidth="1"/>
+    <col min="35" max="35" width="24.3653846153846" style="2" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="13:13">
-      <c r="M2" s="3" t="s">
+    <row r="2" spans="14:15">
+      <c r="N2" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="O2" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1730,2928 +1799,3518 @@
       <c r="AG3" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="AH3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="6" ht="16.8" spans="3:33">
+    <row r="6" ht="16.8" spans="3:36">
       <c r="C6" s="5">
         <v>1000001</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G6" s="6">
         <v>117</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="10">
+        <v>1</v>
+      </c>
       <c r="N6" s="5"/>
-      <c r="O6" s="5">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="5">
         <v>1500</v>
       </c>
-      <c r="S6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
+      <c r="U6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="W6" s="5"/>
-      <c r="X6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Z6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5">
+        <v>1000</v>
+      </c>
       <c r="AA6" s="5">
         <v>1000</v>
       </c>
-      <c r="AB6" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" customFormat="1" ht="16.8" spans="3:33">
+    <row r="7" customFormat="1" ht="16.8" spans="3:36">
       <c r="C7" s="5">
         <v>1000002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="8">
-        <v>1</v>
-      </c>
-      <c r="M7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="10">
+        <v>1</v>
+      </c>
       <c r="N7" s="5"/>
-      <c r="O7" s="5">
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5">
         <v>2</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="5">
+      <c r="R7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T7" s="5">
         <v>1500</v>
       </c>
-      <c r="S7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
+      <c r="U7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="W7" s="5"/>
-      <c r="X7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Z7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5">
+        <v>1000</v>
+      </c>
       <c r="AA7" s="5">
         <v>1000</v>
       </c>
-      <c r="AB7" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.8" spans="3:33">
+    <row r="8" s="1" customFormat="1" ht="16.8" spans="3:36">
       <c r="C8" s="5">
         <v>1000003</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="10">
+        <v>1</v>
+      </c>
       <c r="N8" s="5"/>
-      <c r="O8" s="5">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5">
         <v>3</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" s="5">
+      <c r="R8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" s="5">
         <v>2200</v>
       </c>
-      <c r="S8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="U8" s="5">
+        <v>1000</v>
+      </c>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>81</v>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5">
+        <v>1000</v>
       </c>
       <c r="AA8" s="5">
         <v>1000</v>
       </c>
-      <c r="AB8" s="5">
-        <v>2000</v>
+      <c r="AB8" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="AC8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE8" s="5">
         <v>0</v>
       </c>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" ht="16.8" spans="3:33">
+    <row r="9" ht="16.8" spans="3:36">
       <c r="C9" s="5">
         <v>1000004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="10">
+        <v>1</v>
+      </c>
       <c r="N9" s="5"/>
-      <c r="O9" s="5">
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5">
         <v>4</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" s="5">
+      <c r="R9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9" s="5">
         <v>2800</v>
       </c>
-      <c r="S9" s="5">
+      <c r="U9" s="5">
         <v>2200</v>
       </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y9" s="5">
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA9" s="5">
         <v>2400</v>
       </c>
-      <c r="Z9" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA9" s="5">
+      <c r="AB9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC9" s="5">
         <v>2200</v>
       </c>
-      <c r="AB9" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC9" s="5">
+      <c r="AD9" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE9" s="5">
         <v>0</v>
       </c>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" ht="16.8" spans="3:33">
+    <row r="10" ht="16.8" spans="3:36">
       <c r="C10" s="7">
         <v>1000005</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="10">
-        <v>1</v>
-      </c>
-      <c r="M10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
       <c r="N10" s="7"/>
-      <c r="O10" s="7">
-        <v>1</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="R10" s="7">
-        <v>2000</v>
-      </c>
-      <c r="S10" s="7">
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7">
+        <v>1</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" s="7">
+        <v>2000</v>
+      </c>
+      <c r="U10" s="7">
         <v>1200</v>
       </c>
-      <c r="T10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="U10" s="7"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Z10" s="7"/>
+      <c r="V10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="W10" s="7"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5">
+        <v>1000</v>
+      </c>
       <c r="AA10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7">
         <v>1200</v>
       </c>
-      <c r="AB10" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="AD10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE10" s="10">
+      <c r="AD10" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG10" s="8">
         <v>2</v>
       </c>
-      <c r="AF10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="7"/>
+      <c r="AH10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" ht="16.8" spans="3:33">
+    <row r="11" ht="16.8" spans="3:36">
       <c r="C11" s="7">
         <v>1000006</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="10">
-        <v>1</v>
-      </c>
-      <c r="M11" s="7"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="7">
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7">
         <v>2</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R11" s="7">
-        <v>2000</v>
-      </c>
-      <c r="S11" s="7">
+      <c r="R11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" s="7">
+        <v>2000</v>
+      </c>
+      <c r="U11" s="7">
         <v>1300</v>
       </c>
-      <c r="T11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="U11" s="7"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>90</v>
+      <c r="V11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="W11" s="7"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5">
+        <v>1000</v>
       </c>
       <c r="AA11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC11" s="7">
         <v>1300</v>
       </c>
-      <c r="AB11" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="AD11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE11" s="10">
+      <c r="AD11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG11" s="8">
         <v>2</v>
       </c>
-      <c r="AF11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="7" t="s">
-        <v>92</v>
+      <c r="AH11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" ht="16.8" spans="3:33">
+    <row r="12" ht="16.8" spans="3:36">
       <c r="C12" s="7">
         <v>1000007</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="10">
-        <v>1</v>
-      </c>
-      <c r="M12" s="7"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="7">
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7">
         <v>3</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R12" s="7">
+      <c r="R12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="T12" s="7">
         <v>1500</v>
       </c>
-      <c r="S12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="U12" s="7"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y12" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Z12" s="7" t="s">
-        <v>94</v>
+      <c r="U12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="W12" s="7"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5">
+        <v>1000</v>
       </c>
       <c r="AA12" s="7">
         <v>1000</v>
       </c>
-      <c r="AB12" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="10">
+      <c r="AB12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="8">
         <v>2</v>
       </c>
-      <c r="AF12" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="7"/>
+      <c r="AH12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" ht="16.8" spans="3:33">
+    <row r="13" ht="16.8" spans="3:36">
       <c r="C13" s="7">
         <v>1000008</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="10">
-        <v>1</v>
-      </c>
-      <c r="M13" s="7"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
       <c r="N13" s="7"/>
-      <c r="O13" s="7">
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7">
         <v>4</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="R13" s="7">
-        <v>2000</v>
-      </c>
-      <c r="S13" s="7">
+      <c r="R13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="T13" s="7">
+        <v>2000</v>
+      </c>
+      <c r="U13" s="7">
         <v>1500</v>
       </c>
-      <c r="T13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="U13" s="7"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y13" s="7">
+      <c r="V13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="W13" s="7"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA13" s="7">
         <v>1300</v>
       </c>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7">
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7">
         <v>1500</v>
       </c>
-      <c r="AB13" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="10">
+      <c r="AD13" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="8">
         <v>2</v>
       </c>
-      <c r="AF13" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="7"/>
+      <c r="AH13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" ht="16.8" spans="3:33">
+    <row r="14" ht="16.8" spans="3:36">
       <c r="C14" s="5">
         <v>1000009</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="10">
+        <v>1</v>
+      </c>
       <c r="N14" s="5"/>
-      <c r="O14" s="5">
-        <v>1</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="R14" s="5">
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5">
+        <v>1</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14" s="5">
         <v>1500</v>
       </c>
-      <c r="S14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="U14" s="5">
+        <v>1000</v>
+      </c>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-      <c r="X14" s="5">
-        <v>1000</v>
-      </c>
+      <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AB14" s="5">
-        <v>2000</v>
+      <c r="Z14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="AC14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE14" s="5">
         <v>500</v>
       </c>
-      <c r="AD14" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE14" s="8">
+      <c r="AF14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG14" s="10">
         <v>2</v>
       </c>
-      <c r="AF14" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="5"/>
+      <c r="AH14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" ht="16.8" spans="3:33">
+    <row r="15" ht="16.8" spans="3:36">
       <c r="C15" s="5">
         <v>1000010</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="8">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="10">
+        <v>1</v>
+      </c>
       <c r="N15" s="5"/>
-      <c r="O15" s="5">
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5">
         <v>2</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R15" s="5">
+      <c r="R15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T15" s="5">
         <v>1500</v>
       </c>
-      <c r="S15" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="U15" s="5">
+        <v>1000</v>
+      </c>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>96</v>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5">
+        <v>1000</v>
       </c>
       <c r="AA15" s="5">
         <v>1000</v>
       </c>
-      <c r="AB15" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="8">
+      <c r="AB15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="10">
         <v>2</v>
       </c>
-      <c r="AF15" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="5"/>
+      <c r="AH15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" ht="16.8" spans="3:33">
+    <row r="16" ht="16.8" spans="3:36">
       <c r="C16" s="5">
         <v>1000011</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="8">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="10">
+        <v>1</v>
+      </c>
       <c r="N16" s="5"/>
-      <c r="O16" s="5">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5">
         <v>3</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R16" s="5">
+      <c r="R16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T16" s="5">
         <v>2200</v>
       </c>
-      <c r="S16" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="U16" s="5">
+        <v>1000</v>
+      </c>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Z16" s="5" t="s">
-        <v>96</v>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5">
+        <v>1000</v>
       </c>
       <c r="AA16" s="5">
         <v>1000</v>
       </c>
-      <c r="AB16" s="5">
-        <v>2000</v>
+      <c r="AB16" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="AC16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE16" s="5">
         <v>500</v>
       </c>
-      <c r="AD16" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE16" s="8">
+      <c r="AF16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG16" s="10">
         <v>2</v>
       </c>
-      <c r="AF16" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="5"/>
+      <c r="AH16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" ht="16.8" spans="3:33">
+    <row r="17" ht="16.8" spans="3:36">
       <c r="C17" s="5">
         <v>1000012</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="8">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="10">
+        <v>1</v>
+      </c>
       <c r="N17" s="5"/>
-      <c r="O17" s="5">
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5">
         <v>4</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="R17" s="5">
+      <c r="R17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T17" s="5">
         <v>3200</v>
       </c>
-      <c r="S17" s="5">
+      <c r="U17" s="5">
         <v>2200</v>
       </c>
-      <c r="T17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="V17" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="W17" s="5"/>
-      <c r="X17" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y17" s="5">
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA17" s="5">
         <v>2400</v>
       </c>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5">
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5">
         <v>2200</v>
       </c>
-      <c r="AB17" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="8">
+      <c r="AD17" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="10">
         <v>2</v>
       </c>
-      <c r="AG17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" ht="16.8" spans="3:36">
+    <row r="18" ht="16.8" spans="3:38">
       <c r="C18" s="7">
         <v>1000013</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="10">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>1</v>
+      </c>
       <c r="N18" s="7"/>
-      <c r="O18" s="7">
-        <v>1</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="R18" s="7">
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7">
+        <v>1</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="T18" s="7">
         <v>3000</v>
       </c>
-      <c r="S18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="U18" s="7"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Z18" s="7" t="s">
-        <v>101</v>
+      <c r="U18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="W18" s="7"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5">
+        <v>1000</v>
       </c>
       <c r="AA18" s="7">
         <v>1000</v>
       </c>
-      <c r="AB18" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="10">
+      <c r="AB18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="8">
         <v>2</v>
       </c>
-      <c r="AF18" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
+      <c r="AH18" s="8">
+        <v>1</v>
+      </c>
       <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
+      <c r="AJ18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
     </row>
-    <row r="19" ht="16.8" spans="3:36">
+    <row r="19" ht="16.8" spans="3:38">
       <c r="C19" s="7">
         <v>1000014</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="10">
-        <v>1</v>
-      </c>
-      <c r="M19" s="7"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>1</v>
+      </c>
       <c r="N19" s="7"/>
-      <c r="O19" s="7">
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7">
         <v>2</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R19" s="7">
+      <c r="R19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="T19" s="7">
         <v>1500</v>
       </c>
-      <c r="S19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="T19" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="U19" s="14"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Z19" s="7"/>
+      <c r="U19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="W19" s="17"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5">
+        <v>1000</v>
+      </c>
       <c r="AA19" s="7">
         <v>1000</v>
       </c>
-      <c r="AB19" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="10">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="8">
+        <v>1</v>
+      </c>
       <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
+      <c r="AJ19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
     </row>
-    <row r="20" ht="16.8" spans="3:36">
+    <row r="20" ht="16.8" spans="3:38">
       <c r="C20" s="7">
         <v>1000015</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="10">
-        <v>1</v>
-      </c>
-      <c r="M20" s="7"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>1</v>
+      </c>
       <c r="N20" s="7"/>
-      <c r="O20" s="7">
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7">
         <v>3</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R20" s="7">
+      <c r="R20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="T20" s="7">
         <v>3000</v>
       </c>
-      <c r="S20" s="7">
-        <v>2000</v>
-      </c>
-      <c r="T20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="U20" s="14"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y20" s="7">
+      <c r="U20" s="7">
+        <v>2000</v>
+      </c>
+      <c r="V20" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="W20" s="17"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA20" s="7">
         <v>800</v>
       </c>
-      <c r="Z20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA20" s="7">
-        <v>2000</v>
-      </c>
-      <c r="AB20" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="10">
+      <c r="AB20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>2000</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="8">
         <v>2</v>
       </c>
-      <c r="AF20" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
+      <c r="AH20" s="8">
+        <v>1</v>
+      </c>
       <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
+      <c r="AJ20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
     </row>
-    <row r="21" ht="16.8" spans="3:36">
+    <row r="21" ht="16.8" spans="3:38">
       <c r="C21" s="7">
         <v>1000016</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="10">
-        <v>1</v>
-      </c>
-      <c r="M21" s="7"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>1</v>
+      </c>
       <c r="N21" s="7"/>
-      <c r="O21" s="7">
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7">
         <v>4</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="R21" s="7">
+      <c r="R21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="T21" s="7">
         <v>2500</v>
       </c>
-      <c r="S21" s="7">
+      <c r="U21" s="7">
         <v>1250</v>
       </c>
-      <c r="T21" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="U21" s="14"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y21" s="7">
+      <c r="V21" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="W21" s="17"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA21" s="7">
         <v>500</v>
       </c>
-      <c r="Z21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA21" s="7">
+      <c r="AB21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC21" s="7">
         <v>1250</v>
       </c>
-      <c r="AB21" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC21" s="7">
+      <c r="AD21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE21" s="7">
         <v>1200</v>
       </c>
-      <c r="AD21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE21" s="10">
+      <c r="AF21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG21" s="8">
         <v>2</v>
       </c>
-      <c r="AF21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
+      <c r="AH21" s="8">
+        <v>1</v>
+      </c>
       <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
+      <c r="AJ21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
     </row>
-    <row r="22" ht="16.8" spans="3:33">
+    <row r="22" ht="16.8" spans="3:36">
       <c r="C22" s="5">
         <v>1000017</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G22" s="6">
         <v>116</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="8">
-        <v>1</v>
-      </c>
-      <c r="M22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="10">
+        <v>1</v>
+      </c>
       <c r="N22" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O22" s="5">
-        <v>1</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O22" s="5"/>
       <c r="P22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="R22" s="5">
-        <v>2000</v>
-      </c>
-      <c r="S22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>1</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T22" s="5">
+        <v>2000</v>
+      </c>
+      <c r="U22" s="5">
+        <v>1000</v>
+      </c>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
-      <c r="X22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Z22" s="5" t="s">
-        <v>109</v>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5">
+        <v>1000</v>
       </c>
       <c r="AA22" s="5">
         <v>1000</v>
       </c>
-      <c r="AB22" s="5">
-        <v>2000</v>
+      <c r="AB22" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AC22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE22" s="5">
         <v>500</v>
       </c>
-      <c r="AD22" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE22" s="8">
+      <c r="AF22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG22" s="10">
         <v>2</v>
       </c>
-      <c r="AF22" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="5" t="s">
-        <v>92</v>
+      <c r="AH22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" ht="16.8" spans="3:33">
+    <row r="23" ht="16.8" spans="3:36">
       <c r="C23" s="5">
         <v>1000018</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G23" s="6">
         <v>124</v>
       </c>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="8">
-        <v>1</v>
-      </c>
-      <c r="M23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="10">
+        <v>1</v>
+      </c>
       <c r="N23" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O23" s="5">
+        <v>114</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q23" s="5">
         <v>2</v>
       </c>
-      <c r="P23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R23" s="5">
-        <v>2000</v>
-      </c>
-      <c r="S23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="R23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T23" s="5">
+        <v>2000</v>
+      </c>
+      <c r="U23" s="5">
+        <v>1000</v>
+      </c>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
-      <c r="X23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Z23" s="5" t="s">
-        <v>111</v>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5">
+        <v>1000</v>
       </c>
       <c r="AA23" s="5">
         <v>1000</v>
       </c>
-      <c r="AB23" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="8">
+      <c r="AB23" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="10">
         <v>2</v>
       </c>
-      <c r="AF23" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="5"/>
+      <c r="AH23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" ht="16.8" spans="3:33">
+    <row r="24" ht="16.8" spans="3:36">
       <c r="C24" s="5">
         <v>1000019</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G24" s="6">
         <v>124</v>
       </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="8">
+      <c r="L24" s="6"/>
+      <c r="M24" s="10">
         <v>2</v>
       </c>
-      <c r="M24" s="5"/>
       <c r="N24" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O24" s="5">
+        <v>114</v>
+      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q24" s="5">
         <v>3</v>
       </c>
-      <c r="P24" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R24" s="5">
-        <v>2000</v>
-      </c>
-      <c r="S24" s="5">
+      <c r="R24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T24" s="5">
+        <v>2000</v>
+      </c>
+      <c r="U24" s="5">
         <v>800</v>
       </c>
-      <c r="T24" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
+      <c r="V24" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="W24" s="5"/>
-      <c r="X24" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y24" s="5">
-        <v>800</v>
-      </c>
-      <c r="Z24" s="5" t="s">
-        <v>113</v>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5">
+        <v>1000</v>
       </c>
       <c r="AA24" s="5">
         <v>800</v>
       </c>
-      <c r="AB24" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="5"/>
+      <c r="AB24" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>800</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" ht="16.8" spans="3:33">
+    <row r="25" ht="16.8" spans="3:36">
       <c r="C25" s="5">
         <v>1000020</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G25" s="6">
         <v>124</v>
       </c>
-      <c r="H25" s="6"/>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="8">
-        <v>1</v>
-      </c>
-      <c r="M25" s="5"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="10">
+        <v>1</v>
+      </c>
       <c r="N25" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O25" s="5">
+        <v>114</v>
+      </c>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q25" s="5">
         <v>4</v>
       </c>
-      <c r="P25" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="R25" s="5">
+      <c r="R25" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T25" s="5">
         <v>3000</v>
       </c>
-      <c r="S25" s="5">
-        <v>2000</v>
-      </c>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="U25" s="5">
+        <v>2000</v>
+      </c>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y25" s="5">
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA25" s="5">
         <v>2400</v>
       </c>
-      <c r="Z25" s="5" t="s">
+      <c r="AB25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="10">
+        <v>2</v>
+      </c>
+      <c r="AH25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" spans="3:36">
+      <c r="C26" s="8">
+        <v>1000021</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="8">
         <v>115</v>
       </c>
-      <c r="AA25" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AB25" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="8">
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8">
+        <v>1</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>1</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="T26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="U26" s="7">
+        <v>500</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="W26" s="7"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>500</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="8">
         <v>2</v>
       </c>
-      <c r="AF25" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="5"/>
+      <c r="AH26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" ht="16.8" spans="3:33">
-      <c r="C26" s="7">
-        <v>1000021</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="6">
+    <row r="27" ht="16.8" spans="3:36">
+      <c r="C27" s="8">
+        <v>1000022</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="8">
+        <v>117</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8">
+        <v>1</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>2</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="T27" s="7">
+        <v>2000</v>
+      </c>
+      <c r="U27" s="7">
+        <v>1300</v>
+      </c>
+      <c r="V27" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="W27" s="17"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA27" s="7">
+        <v>800</v>
+      </c>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7">
+        <v>1300</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="16.8" spans="3:36">
+      <c r="C28" s="8">
+        <v>1000023</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="8">
         <v>115</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="10">
-        <v>1</v>
-      </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="O26" s="7">
-        <v>1</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="R26" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S26" s="7">
-        <v>500</v>
-      </c>
-      <c r="T26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="U26" s="7"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y26" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA26" s="7">
-        <v>500</v>
-      </c>
-      <c r="AB26" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="10">
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8">
+        <v>1</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>3</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="T28" s="7">
+        <v>2000</v>
+      </c>
+      <c r="U28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="V28" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W28" s="17"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AD28" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="8">
         <v>2</v>
       </c>
-      <c r="AF26" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="7"/>
+      <c r="AH28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" ht="16.8" spans="3:33">
-      <c r="C27" s="7">
-        <v>1000022</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="K27" s="6">
+    <row r="29" ht="16.8" spans="3:36">
+      <c r="C29" s="8">
+        <v>1000024</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L29" s="8">
         <v>115</v>
       </c>
-      <c r="L27" s="10">
-        <v>1</v>
-      </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="O27" s="7">
+      <c r="M29" s="8">
         <v>2</v>
       </c>
-      <c r="P27" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R27" s="7">
-        <v>2000</v>
-      </c>
-      <c r="S27" s="7">
-        <v>1300</v>
-      </c>
-      <c r="T27" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="U27" s="14"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y27" s="7">
-        <v>800</v>
-      </c>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7">
-        <v>1300</v>
-      </c>
-      <c r="AB27" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="10">
+      <c r="N29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>4</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="T29" s="7">
+        <v>3000</v>
+      </c>
+      <c r="U29" s="7">
+        <v>2000</v>
+      </c>
+      <c r="V29" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="W29" s="17"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7">
+        <v>2000</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="8">
         <v>2</v>
       </c>
-      <c r="AF27" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="7"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" ht="16.8" spans="3:33">
-      <c r="C28" s="7">
-        <v>1000023</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="6">
-        <v>115</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="10">
-        <v>1</v>
-      </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="O28" s="7">
-        <v>3</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R28" s="7">
-        <v>2000</v>
-      </c>
-      <c r="S28" s="7">
-        <v>1000</v>
-      </c>
-      <c r="T28" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="U28" s="14"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y28" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7">
-        <v>1000</v>
-      </c>
-      <c r="AB28" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="10">
-        <v>2</v>
-      </c>
-      <c r="AF28" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="7"/>
-    </row>
-    <row r="29" ht="16.8" spans="3:33">
-      <c r="C29" s="7">
-        <v>1000024</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="K29" s="6">
-        <v>115</v>
-      </c>
-      <c r="L29" s="10">
-        <v>2</v>
-      </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="O29" s="7">
-        <v>4</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="R29" s="7">
-        <v>3000</v>
-      </c>
-      <c r="S29" s="7">
-        <v>2000</v>
-      </c>
-      <c r="T29" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="U29" s="14"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y29" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7">
-        <v>2000</v>
-      </c>
-      <c r="AB29" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="10">
-        <v>2</v>
-      </c>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="7"/>
-    </row>
-    <row r="30" ht="16.8" spans="3:33">
+    <row r="30" ht="16.8" spans="3:36">
       <c r="C30" s="5">
         <v>1000025</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8">
-        <v>1</v>
-      </c>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="O30" s="5">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="10">
+        <v>119</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10">
+        <v>1</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="R30" s="5">
-        <v>2000</v>
-      </c>
-      <c r="S30" s="5">
+        <v>136</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>1</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T30" s="5">
+        <v>2000</v>
+      </c>
+      <c r="U30" s="5">
         <v>800</v>
       </c>
-      <c r="T30" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
+      <c r="V30" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="W30" s="5"/>
-      <c r="X30" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y30" s="5">
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA30" s="5">
         <v>200</v>
       </c>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5">
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5">
         <v>800</v>
       </c>
-      <c r="AB30" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC30" s="5">
+      <c r="AD30" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE30" s="5">
         <v>400</v>
       </c>
-      <c r="AD30" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE30" s="8">
+      <c r="AF30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG30" s="10">
         <v>2</v>
       </c>
-      <c r="AF30" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG30" s="5"/>
+      <c r="AH30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" ht="16.8" spans="3:33">
+    <row r="31" ht="16.8" spans="3:36">
       <c r="C31" s="5">
         <v>1000026</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8">
-        <v>1</v>
-      </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="O31" s="5">
+        <v>76</v>
+      </c>
+      <c r="E31" s="11">
+        <v>120130140150</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="10">
+        <v>118</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10">
+        <v>1</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q31" s="5">
         <v>2</v>
       </c>
-      <c r="P31" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R31" s="5">
-        <v>2000</v>
-      </c>
-      <c r="S31" s="5">
+      <c r="R31" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T31" s="5">
+        <v>2000</v>
+      </c>
+      <c r="U31" s="5">
         <v>1500</v>
       </c>
-      <c r="T31" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
+      <c r="V31" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="W31" s="5"/>
-      <c r="X31" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y31" s="5">
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA31" s="5">
         <v>0</v>
       </c>
-      <c r="Z31" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA31" s="5">
+      <c r="AB31" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC31" s="5">
         <v>500</v>
       </c>
-      <c r="AB31" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="8">
+      <c r="AD31" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="10">
         <v>2</v>
       </c>
-      <c r="AF31" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="5"/>
+      <c r="AH31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" ht="16.8" spans="3:33">
+    <row r="32" ht="16.8" spans="3:36">
       <c r="C32" s="5">
         <v>1000027</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8">
-        <v>1</v>
-      </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="O32" s="5">
+        <v>76</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="10">
+        <v>118</v>
+      </c>
+      <c r="H32" s="6">
+        <v>2</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10">
+        <v>1</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q32" s="5">
         <v>3</v>
       </c>
-      <c r="P32" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R32" s="5">
+      <c r="R32" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T32" s="5">
         <v>3000</v>
       </c>
-      <c r="S32" s="5">
-        <v>1000</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
+      <c r="U32" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="W32" s="5"/>
-      <c r="X32" s="5">
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5">
         <v>2500</v>
       </c>
-      <c r="Y32" s="5">
+      <c r="AA32" s="5">
         <v>400</v>
       </c>
-      <c r="Z32" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA32" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AB32" s="5">
-        <v>2000</v>
-      </c>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG32" s="5"/>
+      <c r="AB32" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" ht="16.8" spans="3:33">
+    <row r="33" ht="16.8" spans="3:36">
       <c r="C33" s="5">
         <v>1000028</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8">
+        <v>76</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="10">
+        <v>125</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10">
+        <v>118</v>
+      </c>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10">
         <v>2</v>
       </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="O33" s="5">
+      <c r="N33" s="5"/>
+      <c r="O33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q33" s="5">
         <v>4</v>
       </c>
-      <c r="P33" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="R33" s="5">
+      <c r="R33" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T33" s="5">
         <v>3000</v>
       </c>
-      <c r="S33" s="5">
+      <c r="U33" s="5">
         <v>1500</v>
       </c>
-      <c r="T33" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
+      <c r="V33" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="W33" s="5"/>
-      <c r="X33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y33" s="5">
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA33" s="5">
         <v>0</v>
       </c>
-      <c r="Z33" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AB33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="8">
+      <c r="AB33" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AD33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="10">
         <v>2</v>
       </c>
-      <c r="AF33" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG33" s="5"/>
+      <c r="AH33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" ht="16.8" spans="3:33">
+    <row r="34" ht="16.8" spans="3:36">
       <c r="C34" s="5">
         <v>1000029</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L34" s="6">
-        <v>1</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="O34" s="7">
-        <v>1</v>
-      </c>
-      <c r="P34" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="R34" s="3">
+        <v>81</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="M34" s="6">
+        <v>1</v>
+      </c>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>1</v>
+      </c>
+      <c r="R34" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="T34" s="3">
         <v>1500</v>
       </c>
-      <c r="S34" s="2">
-        <v>1000</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="X34" s="2">
+      <c r="U34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z34" s="2">
         <v>1500</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="AA34" s="2">
         <v>200</v>
       </c>
-      <c r="Z34" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA34" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AB34" s="2">
-        <v>2000</v>
+      <c r="AB34" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="AC34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AE34" s="2">
         <v>600</v>
       </c>
-      <c r="AD34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE34" s="2">
+      <c r="AF34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG34" s="2">
         <v>2</v>
       </c>
-      <c r="AF34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG34" s="15" t="s">
-        <v>145</v>
+      <c r="AH34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ34" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" ht="16.8" spans="3:32">
+    <row r="35" ht="16.8" spans="3:36">
       <c r="C35" s="5">
         <v>1000030</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L35" s="6">
+        <v>81</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1</v>
+      </c>
+      <c r="M35" s="6">
         <v>2</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="O35" s="7">
+      <c r="N35" s="5"/>
+      <c r="O35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q35" s="7">
         <v>2</v>
       </c>
-      <c r="P35" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="T35" s="3">
         <v>1500</v>
       </c>
-      <c r="S35" s="2">
-        <v>1000</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3">
+      <c r="U35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3">
         <v>1500</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="AA35" s="2">
         <v>0</v>
       </c>
-      <c r="AA35" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AB35" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AE35" s="2">
+      <c r="AC35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AG35" s="2">
         <v>2</v>
       </c>
-      <c r="AF35" s="2">
+      <c r="AH35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="16.8" spans="3:33">
+    <row r="36" ht="16.8" spans="3:36">
       <c r="C36" s="5">
         <v>1000031</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L36" s="6">
-        <v>1</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="O36" s="7">
+        <v>81</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+      <c r="M36" s="6">
+        <v>1</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q36" s="7">
         <v>3</v>
       </c>
-      <c r="P36" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R36" s="3">
+      <c r="R36" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="T36" s="3">
         <v>1500</v>
       </c>
-      <c r="S36" s="2">
+      <c r="U36" s="2">
         <v>1500</v>
       </c>
-      <c r="T36" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3">
+      <c r="V36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3">
         <v>1500</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="AA36" s="2">
         <v>400</v>
       </c>
-      <c r="Z36" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA36" s="2">
+      <c r="AB36" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC36" s="2">
         <v>800</v>
       </c>
-      <c r="AB36" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AE36" s="2">
+      <c r="AD36" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AG36" s="2">
         <v>3</v>
       </c>
-      <c r="AF36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG36" s="15" t="s">
-        <v>151</v>
+      <c r="AH36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" ht="16.8" spans="3:32">
+    <row r="37" ht="16.8" spans="3:36">
       <c r="C37" s="5">
         <v>1000032</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L37" s="6">
-        <v>1</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="O37" s="7">
+        <v>81</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+      <c r="M37" s="6">
+        <v>1</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q37" s="7">
         <v>4</v>
       </c>
-      <c r="P37" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="R37" s="3">
+      <c r="R37" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="T37" s="3">
         <v>4000</v>
       </c>
-      <c r="S37" s="3">
+      <c r="U37" s="3">
         <v>3600</v>
       </c>
-      <c r="T37" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3">
+      <c r="V37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3">
         <v>4000</v>
       </c>
-      <c r="Y37" s="2">
+      <c r="AA37" s="2">
         <v>0</v>
       </c>
-      <c r="Z37" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA37" s="2">
+      <c r="AB37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC37" s="2">
         <v>3000</v>
       </c>
-      <c r="AB37" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AE37" s="2">
+      <c r="AD37" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AG37" s="2">
         <v>2</v>
       </c>
-      <c r="AF37" s="2">
+      <c r="AH37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="16.8" spans="3:33">
+    <row r="38" ht="16.8" spans="3:36">
       <c r="C38" s="5">
         <v>1000033</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L38" s="6">
-        <v>1</v>
-      </c>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+      <c r="M38" s="6">
+        <v>1</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>1</v>
+      </c>
+      <c r="R38" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T38" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>200</v>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>600</v>
+      </c>
+      <c r="AF38" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="O38" s="7">
-        <v>1</v>
-      </c>
-      <c r="P38" s="11" t="s">
+      <c r="AG38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="Q38" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="R38" s="3">
-        <v>1500</v>
-      </c>
-      <c r="S38" s="2">
-        <v>1000</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="X38" s="2">
-        <v>1500</v>
-      </c>
-      <c r="Y38" s="2">
-        <v>200</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA38" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AB38" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AC38" s="2">
-        <v>600</v>
-      </c>
-      <c r="AD38" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG38" s="15" t="s">
-        <v>145</v>
+      <c r="AJ38" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="39" ht="16.8" spans="3:32">
+    <row r="39" ht="16.8" spans="3:36">
       <c r="C39" s="5">
         <v>1000034</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="9">
+        <v>123</v>
+      </c>
+      <c r="G39" s="12">
         <v>110</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M39" s="6">
+        <v>4</v>
+      </c>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P39" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>2</v>
+      </c>
+      <c r="R39" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T39" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="V39" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="L39" s="6">
-        <v>4</v>
-      </c>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O39" s="7">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AG39" s="2">
         <v>2</v>
       </c>
-      <c r="P39" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R39" s="3">
-        <v>1500</v>
-      </c>
-      <c r="S39" s="2">
-        <v>1000</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AB39" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AE39" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF39" s="2">
+      <c r="AH39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="40" ht="16.8" spans="3:33">
+    <row r="40" ht="16.8" spans="3:36">
       <c r="C40" s="5">
         <v>1000035</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L40" s="6">
-        <v>1</v>
-      </c>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O40" s="7">
+        <v>81</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+      <c r="M40" s="6">
+        <v>1</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q40" s="7">
         <v>3</v>
       </c>
-      <c r="P40" s="11" t="s">
+      <c r="R40" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T40" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U40" s="2">
+        <v>1500</v>
+      </c>
+      <c r="V40" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="Q40" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R40" s="3">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3">
         <v>1500</v>
       </c>
-      <c r="S40" s="2">
-        <v>1500</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Y40" s="2">
+      <c r="AA40" s="2">
         <v>400</v>
       </c>
-      <c r="Z40" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA40" s="2">
+      <c r="AB40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC40" s="2">
         <v>800</v>
       </c>
-      <c r="AB40" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AE40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG40" s="15" t="s">
-        <v>151</v>
+      <c r="AD40" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AG40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ40" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="41" ht="16.8" spans="3:32">
+    <row r="41" ht="16.8" spans="3:36">
       <c r="C41" s="5">
         <v>1000036</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L41" s="6">
-        <v>1</v>
-      </c>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O41" s="7">
+        <v>81</v>
+      </c>
+      <c r="H41" s="6">
+        <v>1</v>
+      </c>
+      <c r="M41" s="6">
+        <v>1</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q41" s="7">
         <v>4</v>
       </c>
-      <c r="P41" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T41" s="3">
         <v>4000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3600</v>
       </c>
-      <c r="T41" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3">
+      <c r="V41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3">
         <v>4000</v>
       </c>
-      <c r="Y41" s="2">
+      <c r="AA41" s="2">
         <v>0</v>
       </c>
-      <c r="Z41" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA41" s="2">
+      <c r="AB41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC41" s="2">
         <v>3000</v>
       </c>
-      <c r="AB41" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AE41" s="2">
+      <c r="AD41" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AG41" s="2">
         <v>2</v>
       </c>
-      <c r="AF41" s="2">
+      <c r="AH41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="42" ht="16.8" spans="3:31">
+    <row r="42" ht="16.8" spans="3:36">
       <c r="C42" s="5">
         <v>1000037</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L42" s="6">
-        <v>1</v>
-      </c>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="O42" s="7">
-        <v>1</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="R42" s="3">
-        <v>2000</v>
-      </c>
-      <c r="S42" s="3">
+        <v>81</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1</v>
+      </c>
+      <c r="M42" s="6">
+        <v>1</v>
+      </c>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P42" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>1</v>
+      </c>
+      <c r="R42" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U42" s="3">
         <v>800</v>
       </c>
-      <c r="T42" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="U42" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="V42" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="X42" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Y42" s="2">
+        <v>174</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AA42" s="2">
         <v>0</v>
       </c>
-      <c r="AC42" s="2">
+      <c r="AE42" s="2">
         <v>400</v>
       </c>
-      <c r="AD42" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE42" s="2">
+      <c r="AF42" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG42" s="2">
         <v>2</v>
       </c>
+      <c r="AJ42" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" ht="16.8" spans="3:31">
+    <row r="43" ht="16.8" spans="3:36">
       <c r="C43" s="5">
         <v>1000038</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="L43" s="6">
+        <v>123</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1</v>
+      </c>
+      <c r="M43" s="6">
         <v>4</v>
       </c>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="O43" s="7">
+      <c r="N43" s="5"/>
+      <c r="O43" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P43" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q43" s="7">
         <v>2</v>
       </c>
-      <c r="P43" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T43" s="3">
         <v>3000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1500</v>
       </c>
-      <c r="T43" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="U43" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="X43" s="2">
+      <c r="V43" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="W43" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z43" s="2">
         <v>2001</v>
       </c>
-      <c r="Y43" s="2">
+      <c r="AA43" s="2">
         <v>0</v>
       </c>
-      <c r="AE43" s="2">
+      <c r="AG43" s="2">
         <v>2</v>
       </c>
+      <c r="AJ43" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" ht="16.8" spans="3:31">
+    <row r="44" ht="16.8" spans="3:36">
       <c r="C44" s="5">
         <v>1000039</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L44" s="6">
-        <v>1</v>
-      </c>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="O44" s="7">
+        <v>81</v>
+      </c>
+      <c r="H44" s="6">
+        <v>1</v>
+      </c>
+      <c r="M44" s="6">
+        <v>1</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P44" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q44" s="7">
         <v>3</v>
       </c>
-      <c r="P44" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T44" s="3">
         <v>3000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1200</v>
       </c>
-      <c r="T44" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="V44" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="X44" s="2">
+        <v>181</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z44" s="2">
         <v>2002</v>
       </c>
-      <c r="Y44" s="2">
+      <c r="AA44" s="2">
         <v>0</v>
       </c>
-      <c r="AC44" s="2">
+      <c r="AE44" s="2">
         <v>800</v>
       </c>
-      <c r="AD44" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE44" s="2">
+      <c r="AF44" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG44" s="2">
         <v>2</v>
       </c>
+      <c r="AJ44" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" ht="16.8" spans="3:31">
+    <row r="45" ht="16.8" spans="3:36">
       <c r="C45" s="5">
         <v>1000040</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L45" s="6">
+        <v>81</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+      <c r="M45" s="6">
         <v>4</v>
       </c>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="O45" s="7">
+      <c r="N45" s="5"/>
+      <c r="O45" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q45" s="7">
         <v>4</v>
       </c>
-      <c r="P45" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q45" s="5" t="s">
+      <c r="R45" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="U45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>6000</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>1800</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AG45" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" ht="16.8" spans="3:36">
+      <c r="C46" s="5">
+        <v>1000041</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" s="6">
+        <v>1</v>
+      </c>
+      <c r="M46" s="6">
+        <v>1</v>
+      </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P46" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>1</v>
+      </c>
+      <c r="R46" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U46" s="3">
+        <v>800</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" ht="16.8" spans="3:36">
+      <c r="C47" s="5">
+        <v>1000042</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1</v>
+      </c>
+      <c r="M47" s="6">
+        <v>6</v>
+      </c>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="7">
+        <v>2</v>
+      </c>
+      <c r="R47" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="S47" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="R45" s="3">
-        <v>6000</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="X45" s="2">
-        <v>6000</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="2">
-        <v>1800</v>
-      </c>
-      <c r="AB45" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AE45" s="2">
+      <c r="T47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AG47" s="2">
         <v>2</v>
+      </c>
+      <c r="AH47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" ht="16.8" spans="3:36">
+      <c r="C48" s="5">
+        <v>1000043</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" s="6">
+        <v>1</v>
+      </c>
+      <c r="M48" s="6">
+        <v>1</v>
+      </c>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="7">
+        <v>3</v>
+      </c>
+      <c r="R48" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U48" s="3">
+        <v>500</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" ht="16.8" spans="3:36">
+      <c r="C49" s="5">
+        <v>1000044</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="M49" s="6">
+        <v>1</v>
+      </c>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="7">
+        <v>4</v>
+      </c>
+      <c r="R49" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ49" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P46:P49"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="197">
   <si>
     <t>#</t>
   </si>
@@ -247,117 +247,120 @@
     <t>0,0,0,0</t>
   </si>
   <si>
+    <t>3,3,3,3</t>
+  </si>
+  <si>
+    <t>电击</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>caopi_pugong1</t>
+  </si>
+  <si>
+    <t>1,1,2,3</t>
+  </si>
+  <si>
+    <t>轰雷</t>
+  </si>
+  <si>
+    <t>Skill1</t>
+  </si>
+  <si>
+    <t>caoren_yishoudaigong</t>
+  </si>
+  <si>
+    <t>技能2</t>
+  </si>
+  <si>
+    <t>Skill2</t>
+  </si>
+  <si>
+    <t>zhangfei_leitingyiji</t>
+  </si>
+  <si>
+    <t>必杀技</t>
+  </si>
+  <si>
+    <t>BigSkill</t>
+  </si>
+  <si>
+    <t>toushiche_bao</t>
+  </si>
+  <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>sunshangxiang_pugong_shejian</t>
+  </si>
+  <si>
+    <t>sunshangxiang_pugong</t>
+  </si>
+  <si>
+    <t>技能1</t>
+  </si>
+  <si>
+    <t>sunshangxiang_jifengjian_fashe</t>
+  </si>
+  <si>
+    <t>boss03_bingdong_pugong</t>
+  </si>
+  <si>
+    <t>sunshangxiang_jifengjian</t>
+  </si>
+  <si>
+    <t>Bip001</t>
+  </si>
+  <si>
+    <t>sunshangxiang_7_16jingxiu2</t>
+  </si>
+  <si>
+    <t>sunshangxiang7_16luanhuajianyu</t>
+  </si>
+  <si>
+    <t>chengpu_duomingduci</t>
+  </si>
+  <si>
+    <t>zhouyu_huoqiuchongji_shouji</t>
+  </si>
+  <si>
+    <t>zhouyu_pugong</t>
+  </si>
+  <si>
+    <t>boss03_dahuodan</t>
+  </si>
+  <si>
+    <t>zhouyu_dazhao</t>
+  </si>
+  <si>
+    <t>pangtong_pugong1</t>
+  </si>
+  <si>
+    <t>lvmeng_anduzhiji</t>
+  </si>
+  <si>
+    <t>guanyu_pugong1</t>
+  </si>
+  <si>
+    <t>caopi_dazhao_daoguang</t>
+  </si>
+  <si>
+    <t>lvmeng_yijiqiansha_shouji_dixue</t>
+  </si>
+  <si>
+    <t>fx_hero_active_shifa</t>
+  </si>
+  <si>
+    <t>guanyu_zhanshenguanyu_huifu</t>
+  </si>
+  <si>
+    <t>hero_passive_feixing</t>
+  </si>
+  <si>
     <t>1,1,1,1</t>
   </si>
   <si>
-    <t>电击</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>caopi_pugong1</t>
-  </si>
-  <si>
-    <t>1,1,2,3</t>
-  </si>
-  <si>
-    <t>轰雷</t>
-  </si>
-  <si>
-    <t>Skill1</t>
-  </si>
-  <si>
-    <t>caoren_yishoudaigong</t>
-  </si>
-  <si>
-    <t>技能2</t>
-  </si>
-  <si>
-    <t>Skill2</t>
-  </si>
-  <si>
-    <t>zhangfei_leitingyiji</t>
-  </si>
-  <si>
-    <t>必杀技</t>
-  </si>
-  <si>
-    <t>BigSkill</t>
-  </si>
-  <si>
-    <t>toushiche_bao</t>
-  </si>
-  <si>
-    <t>普通攻击</t>
-  </si>
-  <si>
-    <t>sunshangxiang_pugong_shejian</t>
-  </si>
-  <si>
-    <t>sunshangxiang_pugong</t>
-  </si>
-  <si>
-    <t>技能1</t>
-  </si>
-  <si>
-    <t>sunshangxiang_jifengjian_fashe</t>
-  </si>
-  <si>
-    <t>boss03_bingdong_pugong</t>
-  </si>
-  <si>
-    <t>sunshangxiang_jifengjian</t>
-  </si>
-  <si>
-    <t>Bip001</t>
-  </si>
-  <si>
-    <t>sunshangxiang_7_16jingxiu2</t>
-  </si>
-  <si>
-    <t>sunshangxiang7_16luanhuajianyu</t>
-  </si>
-  <si>
-    <t>chengpu_duomingduci</t>
-  </si>
-  <si>
-    <t>zhouyu_huoqiuchongji_shouji</t>
-  </si>
-  <si>
-    <t>zhouyu_pugong</t>
-  </si>
-  <si>
-    <t>boss03_dahuodan</t>
-  </si>
-  <si>
-    <t>zhouyu_dazhao</t>
-  </si>
-  <si>
-    <t>pangtong_pugong1</t>
-  </si>
-  <si>
-    <t>lvmeng_anduzhiji</t>
-  </si>
-  <si>
-    <t>guanyu_pugong1</t>
-  </si>
-  <si>
-    <t>caopi_dazhao_daoguang</t>
-  </si>
-  <si>
-    <t>lvmeng_yijiqiansha_shouji_dixue</t>
-  </si>
-  <si>
-    <t>fx_hero_active_shifa</t>
-  </si>
-  <si>
-    <t>guanyu_zhanshenguanyu_huifu</t>
-  </si>
-  <si>
-    <t>hero_passive_feixing</t>
-  </si>
-  <si>
     <t>完成</t>
   </si>
   <si>
@@ -422,6 +425,9 @@
   </si>
   <si>
     <t>diaochan_jueshiwuji</t>
+  </si>
+  <si>
+    <t>3,3,2,3</t>
   </si>
   <si>
     <t>波塞冬</t>
@@ -606,10 +612,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -654,29 +660,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -686,7 +669,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,16 +698,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -748,7 +754,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,21 +785,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,7 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,7 +871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,7 +889,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,13 +943,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,97 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,6 +1020,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1029,11 +1044,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,6 +1069,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1078,127 +1114,97 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1207,52 +1213,52 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1280,10 +1286,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="19" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1659,7 +1665,7 @@
   <dimension ref="A2:AL49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2036,9 +2042,7 @@
       <c r="F6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="6">
-        <v>117</v>
-      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6">
         <v>1</v>
       </c>
@@ -2046,7 +2050,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <v>1</v>
       </c>
       <c r="N6" s="5"/>
@@ -2088,10 +2092,10 @@
       </c>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
-      <c r="AG6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="10">
+      <c r="AG6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="9">
         <v>1</v>
       </c>
       <c r="AI6" s="5"/>
@@ -2120,7 +2124,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>1</v>
       </c>
       <c r="N7" s="5"/>
@@ -2162,10 +2166,10 @@
       </c>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
-      <c r="AG7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="10">
+      <c r="AG7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="9">
         <v>1</v>
       </c>
       <c r="AI7" s="5"/>
@@ -2194,7 +2198,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>1</v>
       </c>
       <c r="N8" s="5"/>
@@ -2238,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="10">
+      <c r="AG8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="9">
         <v>1</v>
       </c>
       <c r="AI8" s="5"/>
@@ -2270,7 +2274,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <v>1</v>
       </c>
       <c r="N9" s="5"/>
@@ -2314,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="AF9" s="5"/>
-      <c r="AG9" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="10">
+      <c r="AG9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="9">
         <v>1</v>
       </c>
       <c r="AI9" s="5"/>
@@ -2656,7 +2660,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <v>1</v>
       </c>
       <c r="N14" s="5"/>
@@ -2700,10 +2704,10 @@
       <c r="AF14" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AG14" s="10">
+      <c r="AG14" s="9">
         <v>2</v>
       </c>
-      <c r="AH14" s="10">
+      <c r="AH14" s="9">
         <v>1</v>
       </c>
       <c r="AI14" s="5"/>
@@ -2732,7 +2736,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <v>1</v>
       </c>
       <c r="N15" s="5"/>
@@ -2774,10 +2778,10 @@
       </c>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
-      <c r="AG15" s="10">
+      <c r="AG15" s="9">
         <v>2</v>
       </c>
-      <c r="AH15" s="10">
+      <c r="AH15" s="9">
         <v>1</v>
       </c>
       <c r="AI15" s="5"/>
@@ -2806,7 +2810,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="10">
+      <c r="M16" s="9">
         <v>1</v>
       </c>
       <c r="N16" s="5"/>
@@ -2852,10 +2856,10 @@
       <c r="AF16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AG16" s="10">
+      <c r="AG16" s="9">
         <v>2</v>
       </c>
-      <c r="AH16" s="10">
+      <c r="AH16" s="9">
         <v>1</v>
       </c>
       <c r="AI16" s="5"/>
@@ -2884,7 +2888,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <v>1</v>
       </c>
       <c r="N17" s="5"/>
@@ -2926,10 +2930,10 @@
       </c>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
-      <c r="AG17" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="10">
+      <c r="AG17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="9">
         <v>2</v>
       </c>
       <c r="AI17" s="5"/>
@@ -3262,7 +3266,7 @@
         <v>76</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="G22" s="6">
         <v>116</v>
@@ -3274,15 +3278,15 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="10">
+      <c r="M22" s="9">
         <v>1</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="5">
         <v>1</v>
@@ -3310,7 +3314,7 @@
         <v>1000</v>
       </c>
       <c r="AB22" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC22" s="5">
         <v>1000</v>
@@ -3322,12 +3326,12 @@
         <v>500</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG22" s="10">
+        <v>118</v>
+      </c>
+      <c r="AG22" s="9">
         <v>2</v>
       </c>
-      <c r="AH22" s="10">
+      <c r="AH22" s="9">
         <v>1</v>
       </c>
       <c r="AI22" s="5" t="s">
@@ -3348,7 +3352,7 @@
         <v>76</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="G23" s="6">
         <v>124</v>
@@ -3360,15 +3364,15 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="10">
+      <c r="M23" s="9">
         <v>1</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q23" s="5">
         <v>2</v>
@@ -3396,7 +3400,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC23" s="5">
         <v>1000</v>
@@ -3406,10 +3410,10 @@
       </c>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
-      <c r="AG23" s="10">
+      <c r="AG23" s="9">
         <v>2</v>
       </c>
-      <c r="AH23" s="10">
+      <c r="AH23" s="9">
         <v>1</v>
       </c>
       <c r="AI23" s="5"/>
@@ -3428,7 +3432,7 @@
         <v>76</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="G24" s="6">
         <v>124</v>
@@ -3440,21 +3444,21 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="10">
+      <c r="M24" s="9">
         <v>2</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q24" s="5">
         <v>3</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S24" s="5" t="s">
         <v>86</v>
@@ -3466,7 +3470,7 @@
         <v>800</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
@@ -3478,7 +3482,7 @@
         <v>800</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AC24" s="5">
         <v>800</v>
@@ -3488,10 +3492,10 @@
       </c>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
-      <c r="AG24" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH24" s="10">
+      <c r="AG24" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="9">
         <v>1</v>
       </c>
       <c r="AI24" s="5"/>
@@ -3510,7 +3514,7 @@
         <v>76</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="G25" s="6">
         <v>124</v>
@@ -3522,21 +3526,21 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="10">
+      <c r="M25" s="9">
         <v>1</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="5">
         <v>4</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>89</v>
@@ -3558,7 +3562,7 @@
         <v>2400</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC25" s="5">
         <v>2000</v>
@@ -3568,10 +3572,10 @@
       </c>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
-      <c r="AG25" s="10">
+      <c r="AG25" s="9">
         <v>2</v>
       </c>
-      <c r="AH25" s="10">
+      <c r="AH25" s="9">
         <v>1</v>
       </c>
       <c r="AI25" s="5"/>
@@ -3590,10 +3594,10 @@
         <v>76</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="8">
-        <v>115</v>
+        <v>124</v>
+      </c>
+      <c r="G26" s="9">
+        <v>118</v>
       </c>
       <c r="H26" s="6">
         <v>1</v>
@@ -3606,17 +3610,17 @@
         <v>1</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q26" s="7">
         <v>1</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S26" s="7" t="s">
         <v>79</v>
@@ -3628,7 +3632,7 @@
         <v>500</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W26" s="7"/>
       <c r="X26" s="5"/>
@@ -3640,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC26" s="7">
         <v>500</v>
@@ -3672,7 +3676,7 @@
         <v>76</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G27" s="8">
         <v>117</v>
@@ -3688,17 +3692,17 @@
         <v>1</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q27" s="7">
         <v>2</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>83</v>
@@ -3710,7 +3714,7 @@
         <v>1300</v>
       </c>
       <c r="V27" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W27" s="17"/>
       <c r="X27" s="5"/>
@@ -3768,17 +3772,17 @@
         <v>1</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q28" s="7">
         <v>3</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S28" s="7" t="s">
         <v>86</v>
@@ -3790,7 +3794,7 @@
         <v>1000</v>
       </c>
       <c r="V28" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W28" s="17"/>
       <c r="X28" s="5"/>
@@ -3828,8 +3832,8 @@
       <c r="D29" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>132</v>
+      <c r="E29" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>81</v>
@@ -3841,7 +3845,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L29" s="8">
         <v>115</v>
@@ -3850,17 +3854,17 @@
         <v>2</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q29" s="7">
         <v>4</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>89</v>
@@ -3872,7 +3876,7 @@
         <v>2000</v>
       </c>
       <c r="V29" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W29" s="17"/>
       <c r="X29" s="5"/>
@@ -3908,37 +3912,37 @@
       <c r="D30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="10">
-        <v>119</v>
+      <c r="E30" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="9">
+        <v>103</v>
       </c>
       <c r="H30" s="6">
         <v>1</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9">
         <v>1</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q30" s="5">
         <v>1</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="S30" s="5" t="s">
         <v>79</v>
@@ -3950,7 +3954,7 @@
         <v>800</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
@@ -3972,12 +3976,12 @@
         <v>400</v>
       </c>
       <c r="AF30" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG30" s="10">
+        <v>141</v>
+      </c>
+      <c r="AG30" s="9">
         <v>2</v>
       </c>
-      <c r="AH30" s="10">
+      <c r="AH30" s="9">
         <v>1</v>
       </c>
       <c r="AI30" s="5"/>
@@ -3995,34 +3999,34 @@
       <c r="E31" s="11">
         <v>120130140150</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="10">
+      <c r="F31" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="9">
         <v>118</v>
       </c>
       <c r="H31" s="6">
         <v>1</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9">
         <v>1</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q31" s="5">
         <v>2</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="S31" s="5" t="s">
         <v>83</v>
@@ -4034,7 +4038,7 @@
         <v>1500</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
@@ -4046,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AC31" s="5">
         <v>500</v>
@@ -4056,10 +4060,10 @@
       </c>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
-      <c r="AG31" s="10">
+      <c r="AG31" s="9">
         <v>2</v>
       </c>
-      <c r="AH31" s="10">
+      <c r="AH31" s="9">
         <v>1</v>
       </c>
       <c r="AI31" s="5"/>
@@ -4077,34 +4081,34 @@
       <c r="E32" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="10">
+      <c r="F32" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="9">
         <v>118</v>
       </c>
       <c r="H32" s="6">
         <v>2</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9">
         <v>1</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q32" s="5">
         <v>3</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S32" s="5" t="s">
         <v>86</v>
@@ -4116,7 +4120,7 @@
         <v>1000</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
@@ -4128,7 +4132,7 @@
         <v>400</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AC32" s="5">
         <v>1000</v>
@@ -4138,10 +4142,10 @@
       </c>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
-      <c r="AG32" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="10">
+      <c r="AG32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="9">
         <v>1</v>
       </c>
       <c r="AI32" s="5"/>
@@ -4159,36 +4163,36 @@
       <c r="E33" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G33" s="10">
+      <c r="F33" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="9">
         <v>125</v>
       </c>
       <c r="H33" s="6">
         <v>1</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9">
         <v>118</v>
       </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10">
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9">
         <v>2</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q33" s="5">
         <v>4</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="S33" s="5" t="s">
         <v>89</v>
@@ -4200,7 +4204,7 @@
         <v>1500</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
@@ -4212,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AC33" s="5">
         <v>1000</v>
@@ -4222,10 +4226,10 @@
       </c>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
-      <c r="AG33" s="10">
+      <c r="AG33" s="9">
         <v>2</v>
       </c>
-      <c r="AH33" s="10">
+      <c r="AH33" s="9">
         <v>1</v>
       </c>
       <c r="AI33" s="5"/>
@@ -4254,16 +4258,16 @@
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q34" s="7">
         <v>1</v>
       </c>
       <c r="R34" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S34" s="7" t="s">
         <v>79</v>
@@ -4275,7 +4279,7 @@
         <v>1000</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Z34" s="2">
         <v>1500</v>
@@ -4284,7 +4288,7 @@
         <v>200</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC34" s="2">
         <v>1000</v>
@@ -4296,7 +4300,7 @@
         <v>600</v>
       </c>
       <c r="AF34" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG34" s="2">
         <v>2</v>
@@ -4305,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="AI34" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AJ34" s="2">
         <v>1</v>
@@ -4332,16 +4336,16 @@
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q35" s="7">
         <v>2</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>83</v>
@@ -4353,7 +4357,7 @@
         <v>1000</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
@@ -4400,16 +4404,16 @@
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q36" s="7">
         <v>3</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S36" s="7" t="s">
         <v>86</v>
@@ -4421,7 +4425,7 @@
         <v>1500</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
@@ -4432,7 +4436,7 @@
         <v>400</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AC36" s="2">
         <v>800</v>
@@ -4447,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="AI36" s="18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ36" s="2">
         <v>1</v>
@@ -4474,16 +4478,16 @@
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q37" s="7">
         <v>4</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S37" s="7" t="s">
         <v>89</v>
@@ -4495,7 +4499,7 @@
         <v>3600</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
@@ -4506,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AC37" s="2">
         <v>3000</v>
@@ -4537,6 +4541,9 @@
       <c r="F38" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="G38" s="2">
+        <v>120</v>
+      </c>
       <c r="H38" s="6">
         <v>1</v>
       </c>
@@ -4545,16 +4552,16 @@
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q38" s="7">
         <v>1</v>
       </c>
       <c r="R38" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S38" s="5" t="s">
         <v>79</v>
@@ -4566,7 +4573,7 @@
         <v>1000</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Z38" s="2">
         <v>1500</v>
@@ -4575,7 +4582,7 @@
         <v>200</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC38" s="2">
         <v>1000</v>
@@ -4587,7 +4594,7 @@
         <v>600</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG38" s="2">
         <v>1</v>
@@ -4596,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="AI38" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AJ38" s="2">
         <v>1</v>
@@ -4613,7 +4620,7 @@
         <v>76</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G39" s="12">
         <v>110</v>
@@ -4622,23 +4629,23 @@
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M39" s="6">
         <v>4</v>
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q39" s="7">
         <v>2</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="S39" s="5" t="s">
         <v>83</v>
@@ -4650,7 +4657,7 @@
         <v>1000</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
@@ -4697,16 +4704,16 @@
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q40" s="7">
         <v>3</v>
       </c>
       <c r="R40" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="S40" s="5" t="s">
         <v>86</v>
@@ -4718,7 +4725,7 @@
         <v>1500</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
@@ -4729,7 +4736,7 @@
         <v>400</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AC40" s="2">
         <v>800</v>
@@ -4744,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="AI40" s="18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ40" s="2">
         <v>1</v>
@@ -4771,16 +4778,16 @@
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P41" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q41" s="7">
         <v>4</v>
       </c>
       <c r="R41" s="16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S41" s="5" t="s">
         <v>89</v>
@@ -4792,7 +4799,7 @@
         <v>3600</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
@@ -4803,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AC41" s="2">
         <v>3000</v>
@@ -4842,16 +4849,16 @@
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P42" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q42" s="7">
         <v>1</v>
       </c>
       <c r="R42" s="16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="S42" s="5" t="s">
         <v>79</v>
@@ -4863,13 +4870,13 @@
         <v>800</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z42" s="2">
         <v>2000</v>
@@ -4881,7 +4888,7 @@
         <v>400</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG42" s="2">
         <v>2</v>
@@ -4901,7 +4908,7 @@
         <v>76</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H43" s="6">
         <v>1</v>
@@ -4911,16 +4918,16 @@
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P43" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q43" s="7">
         <v>2</v>
       </c>
       <c r="R43" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="S43" s="5" t="s">
         <v>83</v>
@@ -4932,10 +4939,10 @@
         <v>1500</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="W43" s="18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Z43" s="2">
         <v>2001</v>
@@ -4971,16 +4978,16 @@
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P44" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q44" s="7">
         <v>3</v>
       </c>
       <c r="R44" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S44" s="5" t="s">
         <v>86</v>
@@ -4992,10 +4999,10 @@
         <v>1200</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z44" s="2">
         <v>2002</v>
@@ -5007,7 +5014,7 @@
         <v>800</v>
       </c>
       <c r="AF44" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AG44" s="2">
         <v>2</v>
@@ -5037,16 +5044,16 @@
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P45" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q45" s="7">
         <v>4</v>
       </c>
       <c r="R45" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S45" s="5" t="s">
         <v>89</v>
@@ -5058,7 +5065,7 @@
         <v>1800</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Z45" s="2">
         <v>6000</v>
@@ -5100,16 +5107,16 @@
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q46" s="7">
         <v>1</v>
       </c>
       <c r="R46" s="16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="S46" s="5" t="s">
         <v>79</v>
@@ -5121,7 +5128,7 @@
         <v>800</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Z46" s="3">
         <v>2000</v>
@@ -5150,7 +5157,7 @@
         <v>76</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H47" s="6">
         <v>1</v>
@@ -5160,14 +5167,14 @@
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P47" s="15"/>
       <c r="Q47" s="7">
         <v>2</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="S47" s="5" t="s">
         <v>83</v>
@@ -5179,7 +5186,7 @@
         <v>1000</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Z47" s="3">
         <v>2500</v>
@@ -5215,14 +5222,14 @@
       </c>
       <c r="N48" s="5"/>
       <c r="O48" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P48" s="15"/>
       <c r="Q48" s="7">
         <v>3</v>
       </c>
       <c r="R48" s="16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="S48" s="5" t="s">
         <v>86</v>
@@ -5234,7 +5241,7 @@
         <v>500</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z48" s="3">
         <v>2500</v>
@@ -5270,14 +5277,14 @@
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P49" s="15"/>
       <c r="Q49" s="7">
         <v>4</v>
       </c>
       <c r="R49" s="16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="S49" s="5" t="s">
         <v>89</v>
@@ -5289,7 +5296,7 @@
         <v>2200</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Z49" s="3">
         <v>3000</v>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="197">
   <si>
     <t>#</t>
   </si>
@@ -427,7 +427,10 @@
     <t>diaochan_jueshiwuji</t>
   </si>
   <si>
-    <t>3,3,2,3</t>
+    <t>2,3,2,3</t>
+  </si>
+  <si>
+    <t>40,50,60,70</t>
   </si>
   <si>
     <t>波塞冬</t>
@@ -524,9 +527,6 @@
   </si>
   <si>
     <t>刺击</t>
-  </si>
-  <si>
-    <t>40,50,60,70</t>
   </si>
   <si>
     <t>女神守护</t>
@@ -660,11 +660,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -682,10 +688,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -694,21 +701,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -737,18 +729,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -768,8 +767,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,13 +784,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -817,12 +817,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFDEBFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -841,7 +835,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,13 +937,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,43 +955,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,19 +973,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,67 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,15 +1014,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1039,7 +1024,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,17 +1044,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,168 +1095,168 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1295,19 +1289,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="17" applyAlignment="1"/>
@@ -1665,7 +1656,7 @@
   <dimension ref="A2:AL49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2133,7 +2124,7 @@
       <c r="Q7" s="5">
         <v>2</v>
       </c>
-      <c r="R7" s="16" t="s">
+      <c r="R7" s="15" t="s">
         <v>82</v>
       </c>
       <c r="S7" s="5" t="s">
@@ -3061,10 +3052,10 @@
       <c r="U19" s="7">
         <v>1000</v>
       </c>
-      <c r="V19" s="17" t="s">
+      <c r="V19" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="W19" s="17"/>
+      <c r="W19" s="16"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5">
@@ -3137,10 +3128,10 @@
       <c r="U20" s="7">
         <v>2000</v>
       </c>
-      <c r="V20" s="17" t="s">
+      <c r="V20" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="W20" s="17"/>
+      <c r="W20" s="16"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5">
@@ -3215,10 +3206,10 @@
       <c r="U21" s="7">
         <v>1250</v>
       </c>
-      <c r="V21" s="17" t="s">
+      <c r="V21" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="W21" s="17"/>
+      <c r="W21" s="16"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5">
@@ -3713,10 +3704,10 @@
       <c r="U27" s="7">
         <v>1300</v>
       </c>
-      <c r="V27" s="17" t="s">
+      <c r="V27" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="W27" s="17"/>
+      <c r="W27" s="16"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5">
@@ -3793,10 +3784,10 @@
       <c r="U28" s="7">
         <v>1000</v>
       </c>
-      <c r="V28" s="17" t="s">
+      <c r="V28" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="W28" s="17"/>
+      <c r="W28" s="16"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5">
@@ -3875,10 +3866,10 @@
       <c r="U29" s="7">
         <v>2000</v>
       </c>
-      <c r="V29" s="17" t="s">
+      <c r="V29" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="W29" s="17"/>
+      <c r="W29" s="16"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5">
@@ -3919,12 +3910,14 @@
         <v>137</v>
       </c>
       <c r="G30" s="9">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H30" s="6">
         <v>1</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="I30" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -3936,13 +3929,13 @@
         <v>115</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q30" s="5">
         <v>1</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S30" s="5" t="s">
         <v>79</v>
@@ -3954,7 +3947,7 @@
         <v>800</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
@@ -3976,7 +3969,7 @@
         <v>400</v>
       </c>
       <c r="AF30" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG30" s="9">
         <v>2</v>
@@ -4000,7 +3993,7 @@
         <v>120130140150</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G31" s="9">
         <v>118</v>
@@ -4020,13 +4013,13 @@
         <v>115</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q31" s="5">
         <v>2</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S31" s="5" t="s">
         <v>83</v>
@@ -4038,7 +4031,7 @@
         <v>1500</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
@@ -4050,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AC31" s="5">
         <v>500</v>
@@ -4082,7 +4075,7 @@
         <v>76</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G32" s="9">
         <v>118</v>
@@ -4102,13 +4095,13 @@
         <v>115</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q32" s="5">
         <v>3</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S32" s="5" t="s">
         <v>86</v>
@@ -4120,7 +4113,7 @@
         <v>1000</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
@@ -4132,7 +4125,7 @@
         <v>400</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC32" s="5">
         <v>1000</v>
@@ -4164,7 +4157,7 @@
         <v>76</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G33" s="9">
         <v>125</v>
@@ -4186,13 +4179,13 @@
         <v>115</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q33" s="5">
         <v>4</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S33" s="5" t="s">
         <v>89</v>
@@ -4204,7 +4197,7 @@
         <v>1500</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
@@ -4216,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC33" s="5">
         <v>1000</v>
@@ -4261,13 +4254,13 @@
         <v>115</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q34" s="7">
         <v>1</v>
       </c>
-      <c r="R34" s="16" t="s">
-        <v>154</v>
+      <c r="R34" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="S34" s="7" t="s">
         <v>79</v>
@@ -4279,7 +4272,7 @@
         <v>1000</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z34" s="2">
         <v>1500</v>
@@ -4288,7 +4281,7 @@
         <v>200</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC34" s="2">
         <v>1000</v>
@@ -4300,7 +4293,7 @@
         <v>600</v>
       </c>
       <c r="AF34" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG34" s="2">
         <v>2</v>
@@ -4308,8 +4301,8 @@
       <c r="AH34" s="2">
         <v>1</v>
       </c>
-      <c r="AI34" s="18" t="s">
-        <v>158</v>
+      <c r="AI34" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="AJ34" s="2">
         <v>1</v>
@@ -4339,13 +4332,13 @@
         <v>115</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q35" s="7">
         <v>2</v>
       </c>
-      <c r="R35" s="16" t="s">
-        <v>159</v>
+      <c r="R35" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>83</v>
@@ -4357,7 +4350,7 @@
         <v>1000</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
@@ -4407,13 +4400,13 @@
         <v>115</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q36" s="7">
         <v>3</v>
       </c>
-      <c r="R36" s="16" t="s">
-        <v>161</v>
+      <c r="R36" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="S36" s="7" t="s">
         <v>86</v>
@@ -4425,7 +4418,7 @@
         <v>1500</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
@@ -4436,7 +4429,7 @@
         <v>400</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC36" s="2">
         <v>800</v>
@@ -4450,8 +4443,8 @@
       <c r="AH36" s="2">
         <v>1</v>
       </c>
-      <c r="AI36" s="18" t="s">
-        <v>164</v>
+      <c r="AI36" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="AJ36" s="2">
         <v>1</v>
@@ -4481,13 +4474,13 @@
         <v>115</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q37" s="7">
         <v>4</v>
       </c>
-      <c r="R37" s="16" t="s">
-        <v>165</v>
+      <c r="R37" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="S37" s="7" t="s">
         <v>89</v>
@@ -4499,7 +4492,7 @@
         <v>3600</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
@@ -4510,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC37" s="2">
         <v>3000</v>
@@ -4554,14 +4547,14 @@
       <c r="O38" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P38" s="13" t="s">
-        <v>168</v>
+      <c r="P38" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="Q38" s="7">
         <v>1</v>
       </c>
-      <c r="R38" s="16" t="s">
-        <v>169</v>
+      <c r="R38" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="S38" s="5" t="s">
         <v>79</v>
@@ -4573,7 +4566,7 @@
         <v>1000</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z38" s="2">
         <v>1500</v>
@@ -4582,7 +4575,7 @@
         <v>200</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC38" s="2">
         <v>1000</v>
@@ -4594,7 +4587,7 @@
         <v>600</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG38" s="2">
         <v>1</v>
@@ -4602,8 +4595,8 @@
       <c r="AH38" s="2">
         <v>1</v>
       </c>
-      <c r="AI38" s="18" t="s">
-        <v>158</v>
+      <c r="AI38" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="AJ38" s="2">
         <v>1</v>
@@ -4622,14 +4615,14 @@
       <c r="F39" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="12">
-        <v>110</v>
+      <c r="G39" s="2">
+        <v>120</v>
       </c>
       <c r="H39" s="6">
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="M39" s="6">
         <v>4</v>
@@ -4638,13 +4631,13 @@
       <c r="O39" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P39" s="13" t="s">
-        <v>168</v>
+      <c r="P39" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="Q39" s="7">
         <v>2</v>
       </c>
-      <c r="R39" s="16" t="s">
+      <c r="R39" s="15" t="s">
         <v>171</v>
       </c>
       <c r="S39" s="5" t="s">
@@ -4657,7 +4650,7 @@
         <v>1000</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
@@ -4696,6 +4689,9 @@
       <c r="F40" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="G40" s="2">
+        <v>120</v>
+      </c>
       <c r="H40" s="6">
         <v>1</v>
       </c>
@@ -4706,13 +4702,13 @@
       <c r="O40" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P40" s="13" t="s">
-        <v>168</v>
+      <c r="P40" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="Q40" s="7">
         <v>3</v>
       </c>
-      <c r="R40" s="16" t="s">
+      <c r="R40" s="15" t="s">
         <v>172</v>
       </c>
       <c r="S40" s="5" t="s">
@@ -4725,7 +4721,7 @@
         <v>1500</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
@@ -4736,7 +4732,7 @@
         <v>400</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC40" s="2">
         <v>800</v>
@@ -4750,8 +4746,8 @@
       <c r="AH40" s="2">
         <v>1</v>
       </c>
-      <c r="AI40" s="18" t="s">
-        <v>164</v>
+      <c r="AI40" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="AJ40" s="2">
         <v>1</v>
@@ -4770,6 +4766,9 @@
       <c r="F41" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="G41" s="2">
+        <v>120</v>
+      </c>
       <c r="H41" s="6">
         <v>1</v>
       </c>
@@ -4780,13 +4779,13 @@
       <c r="O41" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P41" s="13" t="s">
-        <v>168</v>
+      <c r="P41" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="Q41" s="7">
         <v>4</v>
       </c>
-      <c r="R41" s="16" t="s">
+      <c r="R41" s="15" t="s">
         <v>173</v>
       </c>
       <c r="S41" s="5" t="s">
@@ -4799,7 +4798,7 @@
         <v>3600</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
@@ -4810,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC41" s="2">
         <v>3000</v>
@@ -4851,13 +4850,13 @@
       <c r="O42" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P42" s="14" t="s">
+      <c r="P42" s="13" t="s">
         <v>174</v>
       </c>
       <c r="Q42" s="7">
         <v>1</v>
       </c>
-      <c r="R42" s="16" t="s">
+      <c r="R42" s="15" t="s">
         <v>175</v>
       </c>
       <c r="S42" s="5" t="s">
@@ -4920,13 +4919,13 @@
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P43" s="14" t="s">
+      <c r="P43" s="13" t="s">
         <v>174</v>
       </c>
       <c r="Q43" s="7">
         <v>2</v>
       </c>
-      <c r="R43" s="16" t="s">
+      <c r="R43" s="15" t="s">
         <v>180</v>
       </c>
       <c r="S43" s="5" t="s">
@@ -4941,7 +4940,7 @@
       <c r="V43" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="W43" s="18" t="s">
+      <c r="W43" s="17" t="s">
         <v>177</v>
       </c>
       <c r="Z43" s="2">
@@ -4980,13 +4979,13 @@
       <c r="O44" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P44" s="14" t="s">
+      <c r="P44" s="13" t="s">
         <v>174</v>
       </c>
       <c r="Q44" s="7">
         <v>3</v>
       </c>
-      <c r="R44" s="16" t="s">
+      <c r="R44" s="15" t="s">
         <v>182</v>
       </c>
       <c r="S44" s="5" t="s">
@@ -5046,13 +5045,13 @@
       <c r="O45" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P45" s="14" t="s">
+      <c r="P45" s="13" t="s">
         <v>174</v>
       </c>
       <c r="Q45" s="7">
         <v>4</v>
       </c>
-      <c r="R45" s="16" t="s">
+      <c r="R45" s="15" t="s">
         <v>186</v>
       </c>
       <c r="S45" s="5" t="s">
@@ -5109,13 +5108,13 @@
       <c r="O46" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P46" s="15" t="s">
+      <c r="P46" s="14" t="s">
         <v>188</v>
       </c>
       <c r="Q46" s="7">
         <v>1</v>
       </c>
-      <c r="R46" s="16" t="s">
+      <c r="R46" s="15" t="s">
         <v>189</v>
       </c>
       <c r="S46" s="5" t="s">
@@ -5169,11 +5168,11 @@
       <c r="O47" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P47" s="15"/>
+      <c r="P47" s="14"/>
       <c r="Q47" s="7">
         <v>2</v>
       </c>
-      <c r="R47" s="16" t="s">
+      <c r="R47" s="15" t="s">
         <v>191</v>
       </c>
       <c r="S47" s="5" t="s">
@@ -5224,11 +5223,11 @@
       <c r="O48" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P48" s="15"/>
+      <c r="P48" s="14"/>
       <c r="Q48" s="7">
         <v>3</v>
       </c>
-      <c r="R48" s="16" t="s">
+      <c r="R48" s="15" t="s">
         <v>193</v>
       </c>
       <c r="S48" s="5" t="s">
@@ -5279,11 +5278,11 @@
       <c r="O49" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P49" s="15"/>
+      <c r="P49" s="14"/>
       <c r="Q49" s="7">
         <v>4</v>
       </c>
-      <c r="R49" s="16" t="s">
+      <c r="R49" s="15" t="s">
         <v>195</v>
       </c>
       <c r="S49" s="5" t="s">

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="208">
   <si>
     <t>#</t>
   </si>
@@ -605,6 +605,39 @@
   </si>
   <si>
     <t>fx_hero_Lykaon_active_shifa</t>
+  </si>
+  <si>
+    <t>卡戎</t>
+  </si>
+  <si>
+    <t>砍击</t>
+  </si>
+  <si>
+    <t>fx_hero_Charon_attack1_shifa</t>
+  </si>
+  <si>
+    <t>游魂傀儡</t>
+  </si>
+  <si>
+    <t>fx_hero_Charon_passive1_shifa01</t>
+  </si>
+  <si>
+    <t>fx_hero_Charon_passive1_shifa02</t>
+  </si>
+  <si>
+    <t>Bip001 Spine</t>
+  </si>
+  <si>
+    <t>刃波</t>
+  </si>
+  <si>
+    <t>fx_hero_Charon_passive2_shifa</t>
+  </si>
+  <si>
+    <t>冥河</t>
+  </si>
+  <si>
+    <t>fx_hero_Charon_active_shifa</t>
   </si>
 </sst>
 </file>
@@ -613,8 +646,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -661,7 +694,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,60 +702,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,23 +716,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,15 +794,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,7 +810,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,7 +868,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,25 +976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,55 +988,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,13 +1018,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,42 +1031,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,17 +1047,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,11 +1068,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,6 +1103,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,174 +1135,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1653,10 +1686,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:AL49"/>
+  <dimension ref="A2:AL53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AA51" sqref="AA51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1678,7 +1711,7 @@
     <col min="22" max="22" width="21.6346153846154" style="2" customWidth="1"/>
     <col min="23" max="23" width="15.5384615384615" style="2" customWidth="1"/>
     <col min="24" max="24" width="11.0480769230769" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.3365384615385" style="2" customWidth="1"/>
+    <col min="25" max="25" width="21.3076923076923" style="2" customWidth="1"/>
     <col min="26" max="26" width="21.4711538461538" style="2" customWidth="1"/>
     <col min="27" max="27" width="24.2019230769231" style="2" customWidth="1"/>
     <col min="28" max="28" width="24.5096153846154" style="2" customWidth="1"/>
@@ -5313,9 +5346,247 @@
         <v>5</v>
       </c>
     </row>
+    <row r="50" ht="16.8" spans="3:36">
+      <c r="C50" s="5">
+        <v>1000045</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50" s="6">
+        <v>1</v>
+      </c>
+      <c r="M50" s="6">
+        <v>1</v>
+      </c>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P50" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>1</v>
+      </c>
+      <c r="R50" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T50" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U50" s="3">
+        <v>800</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="16.8" spans="3:36">
+      <c r="C51" s="5">
+        <v>1000046</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="6">
+        <v>1</v>
+      </c>
+      <c r="M51" s="6">
+        <v>6</v>
+      </c>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="7">
+        <v>2</v>
+      </c>
+      <c r="R51" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T51" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U51" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="16.8" spans="3:36">
+      <c r="C52" s="5">
+        <v>1000047</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="6">
+        <v>1</v>
+      </c>
+      <c r="M52" s="6">
+        <v>1</v>
+      </c>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="7">
+        <v>3</v>
+      </c>
+      <c r="R52" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ52" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" ht="16.8" spans="3:36">
+      <c r="C53" s="5">
+        <v>1000048</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" s="6">
+        <v>1</v>
+      </c>
+      <c r="M53" s="6">
+        <v>1</v>
+      </c>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="7">
+        <v>4</v>
+      </c>
+      <c r="R53" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T53" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U53" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ53" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="P46:P49"/>
+    <mergeCell ref="P50:P53"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
